--- a/media/caltivation.xlsx
+++ b/media/caltivation.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="总计" sheetId="1" r:id="rId1"/>
-    <sheet name="卡牌详情" sheetId="2" r:id="rId2"/>
-    <sheet name="设计灵感" sheetId="3" r:id="rId3"/>
+    <sheet name="卡牌" sheetId="2" r:id="rId2"/>
+    <sheet name="天赋树" sheetId="4" r:id="rId3"/>
+    <sheet name="设计灵感" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="126">
   <si>
     <t>流派  境界</t>
   </si>
@@ -59,7 +60,7 @@
     <t>境界</t>
   </si>
   <si>
-    <t>法术</t>
+    <t>中立</t>
   </si>
   <si>
     <r>
@@ -76,6 +77,9 @@
     <t>升级需求</t>
   </si>
   <si>
+    <t>法术</t>
+  </si>
+  <si>
     <t>剑修</t>
   </si>
   <si>
@@ -140,171 +144,77 @@
     <t>炼气</t>
   </si>
   <si>
-    <t>默认</t>
-  </si>
-  <si>
     <t>普通攻击
-5攻</t>
+7攻</t>
   </si>
   <si>
     <t>普通格挡
-防+10</t>
-  </si>
-  <si>
-    <t>法术
-Spirit</t>
+防+12</t>
   </si>
   <si>
     <t>剑修
 Blade</t>
   </si>
   <si>
-    <t>飞云
-相生：月、
-雪、
-雷、</t>
+    <t>飞云</t>
   </si>
   <si>
     <t>飞云剑
-10攻</t>
-  </si>
-  <si>
-    <t>飞云剑
-30攻
-每次使用云剑+4身法</t>
-  </si>
-  <si>
-    <t>飞云剑
-60攻
-每次使用云剑+6身法和25生命</t>
-  </si>
-  <si>
-    <t>连云剑
-10攻
-若上一张牌是云剑多5攻</t>
-  </si>
-  <si>
-    <t>连云剑
-20攻
-若用过云剑多20攻</t>
-  </si>
-  <si>
-    <t>连云剑
-40攻
-每用过一张云剑多40攻</t>
+12攻
+每次使用剑法时+3速度</t>
   </si>
   <si>
     <t>拨云见日
-20攻×2
-消耗2灵气：再次行动</t>
-  </si>
-  <si>
-    <t>拨云见日
-20攻×2
-若灵气&gt;0：再次行动</t>
-  </si>
-  <si>
-    <t>拨云见日
-20攻×2
-再次行动</t>
-  </si>
-  <si>
-    <t>冷月
-相生：
-雪、
-雷</t>
-  </si>
-  <si>
-    <t>月灵斩
-10攻
+15攻
 恢复击伤值10%的灵气</t>
   </si>
   <si>
-    <t>月灵斩
-15攻
-恢复击伤值30%的灵气</t>
-  </si>
-  <si>
-    <t>月灵斩
-15攻
-恢复击伤值90%的灵气</t>
-  </si>
-  <si>
-    <t>月影剑诀
+    <t>空灵剑诀
 灵气+1
-下一张攻击牌无视防御</t>
-  </si>
-  <si>
-    <t>月影剑诀
-灵气+5
-下三张攻击牌无视防御</t>
-  </si>
-  <si>
-    <t>月影剑诀
-灵气+50%
-本局对战我方无视防御</t>
-  </si>
-  <si>
-    <t>雨月重剑
+下一张带有攻的牌无视对手的防</t>
+  </si>
+  <si>
+    <t>本局对战我方无视防御</t>
+  </si>
+  <si>
+    <t>冷月</t>
+  </si>
+  <si>
+    <t>冷月重剑
 需求：1灵气
-25攻</t>
-  </si>
-  <si>
-    <t>冷月剑
-10攻
-消耗1灵气：多10攻</t>
-  </si>
-  <si>
-    <t>冷月剑
-20攻
-最多消耗5灵气：每点灵气多5攻</t>
-  </si>
-  <si>
-    <t>冷月剑
-消耗50%灵气
+27攻</t>
+  </si>
+  <si>
+    <t>耗尽灵气
 每耗1点多5攻</t>
   </si>
   <si>
-    <t>冷月剑
-消耗80%灵气
-每耗1点多5攻</t>
-  </si>
-  <si>
-    <t>冷月剑
-耗尽灵气
-每耗1点多5攻</t>
-  </si>
-  <si>
-    <t>听雪</t>
-  </si>
-  <si>
-    <t>剑气如霜
-防+15</t>
-  </si>
-  <si>
-    <t>剑
-防不会在回合开始时减少</t>
+    <t>听雨</t>
+  </si>
+  <si>
+    <t>凌霜剑式
++20防</t>
   </si>
   <si>
     <t>春雨剑
 如果有防：+15生命</t>
   </si>
   <si>
-    <t>春雨剑
-如果加过防：+35生命</t>
-  </si>
-  <si>
-    <t>春雨剑
-每有一点防：+5生命</t>
-  </si>
-  <si>
-    <t>奔雷
-相生：
-风</t>
+    <t>每有一点防：+5生命</t>
+  </si>
+  <si>
+    <t>防不会在回合开始时减少</t>
+  </si>
+  <si>
+    <t>本局对战中每次攻击后
+恢复所造成伤害50%的生命</t>
+  </si>
+  <si>
+    <t>奔雷</t>
   </si>
   <si>
     <t>引雷剑诀
-下一次攻击+20伤害</t>
+获得10点剑气</t>
   </si>
   <si>
     <t>奔雷剑
@@ -313,51 +223,113 @@
   <si>
     <t>回声剑
 10攻
-保留此牌获得的攻击增益</t>
-  </si>
-  <si>
-    <t>剑气+80</t>
-  </si>
-  <si>
-    <t>每回合开始时攻击力+20</t>
+保留此牌触发的剑气</t>
+  </si>
+  <si>
+    <t>每回合开始时攻击力+10</t>
   </si>
   <si>
     <t>狂风</t>
   </si>
   <si>
-    <t>狂风剑
-10攻
+    <t>双斩
+7攻×2</t>
+  </si>
+  <si>
+    <t>秋风剑意
+12攻
 再次使用时追加一次攻击</t>
   </si>
   <si>
-    <t>狂风剑
-对战中每用过一次风剑多</t>
-  </si>
-  <si>
-    <t>狂风剑
-收藏中每有一张风剑多攻击一次</t>
-  </si>
-  <si>
-    <t>清风剑诀
-下一张攻击牌为自己
-恢复所造成伤害50%生命</t>
-  </si>
-  <si>
-    <t>清风剑诀
-下三张攻击牌为自己
-恢复所造成伤害50%生命</t>
-  </si>
-  <si>
-    <t>本局对战中每次攻击后
-恢复所造成伤害50%的生命</t>
+    <t>对战中每用过一次风剑多</t>
+  </si>
+  <si>
+    <t>20攻×2
+消耗2灵气：再次行动</t>
+  </si>
+  <si>
+    <t>20攻×2
+若灵气&gt;0：再次行动</t>
+  </si>
+  <si>
+    <t>20攻×2
+再次行动</t>
+  </si>
+  <si>
+    <t>法术
+Spirit
+法术相生：
+若角色本身的灵气调谐和当前五行有相生关系，则返还1点灵气消耗
+法术相克：
+若五行伤害和对方身上的灵气调谐有相克关系，则造成的元素伤害+33%</t>
+  </si>
+  <si>
+    <t>金、雷</t>
+  </si>
+  <si>
+    <t>共鸣
+需求：1灵气
+本场战斗中，你的普通攻击附加7点金属性伤害和7防</t>
+  </si>
+  <si>
+    <t>护体真气
+需求：1灵气
++30防</t>
+  </si>
+  <si>
+    <t>木、泽</t>
+  </si>
+  <si>
+    <t>荆棘
+需求：1灵气
+对方下次进攻时受到其攻击力100%的木属性反伤</t>
+  </si>
+  <si>
+    <t>水、冰</t>
+  </si>
+  <si>
+    <t>瀑流
+需求：1灵气
+持续3回合：对方回合结束时，若进行过任何攻击，就受到12点水属性伤害</t>
+  </si>
+  <si>
+    <t>甘泉
+需求：1灵气
+当你下一次消耗灵气时，每点灵气使你恢复12点生命</t>
+  </si>
+  <si>
+    <t>火、风</t>
+  </si>
+  <si>
+    <t>火球术
+需求：1灵气
+造成35火属性伤害</t>
+  </si>
+  <si>
+    <t>烈风刃
+需求：1灵气
+造成12点火属性伤害
+对方有防时伤害加倍</t>
+  </si>
+  <si>
+    <t>土、山</t>
+  </si>
+  <si>
+    <t>泥石陷
+需求：1灵气
+造成10点土属性伤害
+使对方无法行动1个回合</t>
   </si>
   <si>
     <t>体修
 Physique</t>
   </si>
   <si>
-    <t>显圣
-Deity</t>
+    <t>d</t>
+  </si>
+  <si>
+    <t>化身
+Avatar</t>
   </si>
   <si>
     <t>炼魂
@@ -370,26 +342,26 @@
   </si>
   <si>
     <t>冲击阵
-持续2次：回合结束时造成10点伤害</t>
+持续2次：回合结束时造成15</t>
   </si>
   <si>
     <t>圆守阵
-持续2次：回合结束时+10防</t>
+持续2次：回合结束时+20防</t>
   </si>
   <si>
     <t>回春阵
-持续2次：回合结束时+10生命</t>
+持续2次：回合结束时+15生命</t>
   </si>
   <si>
     <t>血杀阵
-持续2次：回合结束时对方获得1层内伤</t>
+持续2次：回合结束时使对方获得1层内伤</t>
   </si>
   <si>
     <t>聚灵阵
 持续2次：回合结束时+2灵气</t>
   </si>
   <si>
-    <t>符咒
+    <t>符法
 Rune
 消耗品，战斗过后会消失</t>
   </si>
@@ -399,13 +371,13 @@
 消耗</t>
   </si>
   <si>
-    <t>金刚咒
-灵气+3
+    <t>护身符
+灵气+2
 防+15
 消耗</t>
   </si>
   <si>
-    <t>蛊毒咒
+    <t>蛊毒符
 对方减20生命及上限
 消耗</t>
   </si>
@@ -430,12 +402,11 @@
   </si>
   <si>
     <t>紫灵丹
-灵气+1
-灵气上限永久+1
+灵气+4
 消耗</t>
   </si>
   <si>
-    <t>灵器
+    <t>炼器
 Craft
 装备永久加成
 消耗品，战斗过后会消失</t>
@@ -477,10 +448,73 @@
 Theurgy</t>
   </si>
   <si>
+    <t>获得《飞云剑》</t>
+  </si>
+  <si>
+    <t>你的武器伤害增加15%</t>
+  </si>
+  <si>
+    <t>身法+5</t>
+  </si>
+  <si>
+    <t>获得《迷踪步》</t>
+  </si>
+  <si>
+    <t>受到的所有伤害减少15%</t>
+  </si>
+  <si>
+    <t>战斗开始时获得2点灵气</t>
+  </si>
+  <si>
+    <t>获得《金鼓齐鸣》</t>
+  </si>
+  <si>
+    <t>体魄+5</t>
+  </si>
+  <si>
+    <t>灵力+5</t>
+  </si>
+  <si>
+    <t>起点</t>
+  </si>
+  <si>
+    <t>念力+5</t>
+  </si>
+  <si>
+    <t>神识+5</t>
+  </si>
+  <si>
+    <t>获得收集阴气、煞气、怨气的能力</t>
+  </si>
+  <si>
+    <t>获得探测对手属性、物品和卡组的能力</t>
+  </si>
+  <si>
+    <t>获得《枯木毒》</t>
+  </si>
+  <si>
+    <t>获得《多心经》</t>
+  </si>
+  <si>
     <t>下一张灵气卡牌无需消耗灵气</t>
   </si>
   <si>
     <t>下一张灵气卡牌改为消耗生命</t>
+  </si>
+  <si>
+    <t>本场战斗中，你每损失过10点生命，多1攻</t>
+  </si>
+  <si>
+    <t>此牌获得双倍武器伤害加成</t>
+  </si>
+  <si>
+    <t>你每用过一张风剑，灵气消耗减1</t>
+  </si>
+  <si>
+    <t>如果你获得过防</t>
+  </si>
+  <si>
+    <t>随机释放一个火系法术=&gt;将你的普通牌替换为随机火系法术</t>
   </si>
 </sst>
 </file>
@@ -907,10 +941,105 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="24">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -955,52 +1084,6 @@
       <diagonal style="thin">
         <color auto="1"/>
       </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1163,7 +1246,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1175,34 +1258,34 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1287,95 +1370,128 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1695,788 +1811,822 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="1" customWidth="1"/>
-    <col min="2" max="9" width="8.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.625" style="1" customWidth="1"/>
-    <col min="11" max="15" width="8.625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="14.625" style="12" customWidth="1"/>
+    <col min="2" max="9" width="8.625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="14.625" style="12" customWidth="1"/>
+    <col min="11" max="15" width="8.625" style="12" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" ht="65" customHeight="1" spans="1:15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="36" t="s">
         <v>7</v>
       </c>
       <c r="I1"/>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="21" spans="1:15">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="37">
         <v>10</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="37">
         <v>10</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="37">
         <v>10</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="37">
         <v>10</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="38">
         <v>10</v>
       </c>
-      <c r="G2" s="27">
-        <f t="shared" ref="G2:G9" si="0">SUM(B2:F2)</f>
+      <c r="G2" s="38">
+        <f>SUM(B2:F2)</f>
         <v>50</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="37" t="s">
         <v>10</v>
       </c>
       <c r="I2"/>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="26">
+      <c r="K2" s="37">
         <v>14</v>
       </c>
-      <c r="L2" s="26">
+      <c r="L2" s="37">
         <v>37</v>
       </c>
-      <c r="M2" s="26">
+      <c r="M2" s="37">
         <v>77</v>
       </c>
-      <c r="N2" s="26">
+      <c r="N2" s="37">
         <v>147</v>
       </c>
-      <c r="O2" s="26"/>
+      <c r="O2" s="37"/>
     </row>
     <row r="3" ht="21" spans="1:15">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="26">
-        <v>12</v>
-      </c>
-      <c r="C3" s="26">
+      <c r="B3" s="37">
         <v>10</v>
       </c>
-      <c r="D3" s="26">
+      <c r="C3" s="37">
         <v>10</v>
       </c>
-      <c r="E3" s="26">
+      <c r="D3" s="37">
         <v>10</v>
       </c>
-      <c r="F3" s="27">
+      <c r="E3" s="37">
         <v>10</v>
       </c>
-      <c r="G3" s="27">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="H3" s="26" t="s">
+      <c r="F3" s="38">
         <v>10</v>
       </c>
+      <c r="G3" s="38">
+        <f>SUM(B3:F3)</f>
+        <v>50</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>10</v>
+      </c>
       <c r="I3"/>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="15"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+    </row>
+    <row r="4" ht="21" spans="1:15">
+      <c r="A4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="29">
-        <f>K2/B17</f>
-        <v>0.4</v>
-      </c>
-      <c r="L3" s="29">
-        <f>L2/C17</f>
-        <v>0.52112676056338</v>
-      </c>
-      <c r="M3" s="29">
-        <f>M2/D17</f>
-        <v>0.719626168224299</v>
-      </c>
-      <c r="N3" s="29">
-        <f>N2/E17</f>
-        <v>1.02797202797203</v>
-      </c>
-      <c r="O3" s="26"/>
-    </row>
-    <row r="4" ht="21" spans="1:15">
-      <c r="A4" s="28" t="s">
+      <c r="B4" s="37">
+        <v>9</v>
+      </c>
+      <c r="C4" s="37">
+        <v>10</v>
+      </c>
+      <c r="D4" s="37">
+        <v>10</v>
+      </c>
+      <c r="E4" s="37">
+        <v>10</v>
+      </c>
+      <c r="F4" s="38">
+        <v>10</v>
+      </c>
+      <c r="G4" s="38">
+        <f t="shared" ref="G4:G10" si="0">SUM(B4:F4)</f>
+        <v>49</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="27">
+      <c r="K4" s="40">
+        <f>K2/B18</f>
+        <v>0.333333333333333</v>
+      </c>
+      <c r="L4" s="40">
+        <f>L2/C18</f>
+        <v>0.420454545454545</v>
+      </c>
+      <c r="M4" s="40">
+        <f>M2/D18</f>
+        <v>0.574626865671642</v>
+      </c>
+      <c r="N4" s="40">
+        <f>N2/E18</f>
+        <v>0.816666666666667</v>
+      </c>
+      <c r="O4" s="37"/>
+    </row>
+    <row r="5" ht="21" spans="1:15">
+      <c r="A5" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="38">
         <v>10</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C5" s="38">
         <v>10</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D5" s="38">
         <v>10</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E5" s="38">
         <v>10</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F5" s="38">
         <v>10</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G5" s="38">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H4" s="26"/>
-      <c r="I4"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-    </row>
-    <row r="5" ht="21" spans="1:15">
-      <c r="A5" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="27">
+      <c r="H5" s="37"/>
+      <c r="I5"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+    </row>
+    <row r="6" ht="21" spans="1:15">
+      <c r="A6" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="38">
         <v>10</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C6" s="38">
         <v>10</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D6" s="38">
         <v>10</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E6" s="38">
         <v>10</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F6" s="38">
         <v>10</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G6" s="38">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H5" s="26"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-    </row>
-    <row r="6" ht="21" spans="1:15">
-      <c r="A6" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="27">
+      <c r="H6" s="37"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+    </row>
+    <row r="7" ht="21" spans="1:15">
+      <c r="A7" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="38">
         <v>10</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C7" s="38">
         <v>10</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D7" s="38">
         <v>10</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E7" s="38">
         <v>10</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F7" s="38">
         <v>10</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G7" s="38">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H6" s="26"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" ht="21" spans="1:15">
-      <c r="A7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="26">
+      <c r="H7" s="37"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+    </row>
+    <row r="8" ht="21" spans="1:15">
+      <c r="A8" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="37">
         <v>5</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C8" s="37">
         <v>4</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D8" s="37">
         <v>4</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E8" s="37">
         <v>4</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F8" s="38">
         <v>4</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G8" s="38">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H8" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-    </row>
-    <row r="8" ht="21" spans="1:15">
-      <c r="A8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="26">
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+    </row>
+    <row r="9" ht="21" spans="1:15">
+      <c r="A9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="37">
         <v>4</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C9" s="37">
         <v>4</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D9" s="37">
         <v>4</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E9" s="37">
         <v>4</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F9" s="38">
         <v>4</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G9" s="38">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H9" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-    </row>
-    <row r="9" ht="21" spans="1:15">
-      <c r="A9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="26">
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+    </row>
+    <row r="10" ht="21" spans="1:15">
+      <c r="A10" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="37">
         <v>2</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C10" s="37">
         <v>4</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D10" s="37">
         <v>4</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E10" s="37">
         <v>4</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F10" s="38">
         <v>4</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G10" s="38">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H9" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-    </row>
-    <row r="10" ht="21" spans="1:15">
-      <c r="A10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="26">
-        <v>2</v>
-      </c>
-      <c r="C10" s="26">
-        <v>4</v>
-      </c>
-      <c r="D10" s="26">
-        <v>4</v>
-      </c>
-      <c r="E10" s="26">
-        <v>4</v>
-      </c>
-      <c r="F10" s="27">
-        <v>4</v>
-      </c>
-      <c r="G10" s="27">
-        <f t="shared" ref="G10:G16" si="1">SUM(B10:F10)</f>
-        <v>18</v>
-      </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="37" t="s">
         <v>10</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
     </row>
     <row r="11" ht="21" spans="1:15">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="37">
+        <v>2</v>
+      </c>
+      <c r="C11" s="37">
         <v>4</v>
       </c>
-      <c r="C11" s="27">
+      <c r="D11" s="37">
         <v>4</v>
       </c>
-      <c r="D11" s="27">
+      <c r="E11" s="37">
         <v>4</v>
       </c>
-      <c r="E11" s="27">
+      <c r="F11" s="38">
         <v>4</v>
       </c>
-      <c r="F11" s="27">
+      <c r="G11" s="38">
+        <f t="shared" ref="G11:G17" si="1">SUM(B11:F11)</f>
+        <v>18</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+    </row>
+    <row r="12" ht="21" spans="1:15">
+      <c r="A12" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="38">
         <v>4</v>
       </c>
-      <c r="G11" s="27">
+      <c r="C12" s="38">
+        <v>4</v>
+      </c>
+      <c r="D12" s="38">
+        <v>4</v>
+      </c>
+      <c r="E12" s="38">
+        <v>4</v>
+      </c>
+      <c r="F12" s="38">
+        <v>4</v>
+      </c>
+      <c r="G12" s="38">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H11" s="26"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-    </row>
-    <row r="12" ht="21" spans="1:15">
-      <c r="A12" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="27">
+      <c r="H12" s="37"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+    </row>
+    <row r="13" ht="21" spans="1:15">
+      <c r="A13" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="38">
         <v>4</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C13" s="38">
         <v>4</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D13" s="38">
         <v>4</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E13" s="38">
         <v>4</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F13" s="38">
         <v>4</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G13" s="38">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H12" s="26"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-    </row>
-    <row r="13" ht="21" spans="1:15">
-      <c r="A13" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="27">
+      <c r="H13" s="37"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+    </row>
+    <row r="14" ht="21" spans="1:15">
+      <c r="A14" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="38">
         <v>4</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C14" s="38">
         <v>4</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D14" s="38">
         <v>4</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E14" s="38">
         <v>4</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F14" s="38">
         <v>4</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G14" s="38">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H13" s="26"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-    </row>
-    <row r="14" ht="21" spans="1:15">
-      <c r="A14" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="27">
+      <c r="H14" s="37"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+    </row>
+    <row r="15" ht="21" spans="1:15">
+      <c r="A15" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="38">
         <v>4</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C15" s="38">
         <v>4</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D15" s="38">
         <v>4</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E15" s="38">
         <v>4</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F15" s="38">
         <v>4</v>
       </c>
-      <c r="G14" s="27">
+      <c r="G15" s="38">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H14" s="26"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-    </row>
-    <row r="15" ht="21" spans="1:15">
-      <c r="A15" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="27">
+      <c r="H15" s="37"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+    </row>
+    <row r="16" ht="21" spans="1:15">
+      <c r="A16" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="38">
         <v>4</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C16" s="38">
         <v>4</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D16" s="38">
         <v>4</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E16" s="38">
         <v>4</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F16" s="38">
         <v>4</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G16" s="38">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H15" s="26"/>
-      <c r="I15"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-    </row>
-    <row r="16" ht="21" spans="1:15">
-      <c r="A16" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="27">
+      <c r="H16" s="37"/>
+      <c r="I16"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+    </row>
+    <row r="17" ht="21" spans="1:15">
+      <c r="A17" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="38">
         <v>4</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C17" s="38">
         <v>4</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D17" s="38">
         <v>4</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E17" s="38">
         <v>4</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F17" s="38">
         <v>4</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G17" s="38">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H16" s="26"/>
-      <c r="I16"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-    </row>
-    <row r="17" ht="48" customHeight="1" spans="1:15">
-      <c r="A17" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="26">
-        <f>SUM(B2:B3,B7:B10)</f>
-        <v>35</v>
-      </c>
-      <c r="C17" s="26">
-        <f>SUM(B2:C3,B7:C10)</f>
-        <v>71</v>
-      </c>
-      <c r="D17" s="26">
-        <f>SUM(B2:D3,B7:D10)</f>
-        <v>107</v>
-      </c>
-      <c r="E17" s="26">
-        <f>SUM(B2:E3,B7:E10)</f>
-        <v>143</v>
-      </c>
-      <c r="F17" s="26">
-        <f>SUM(B2:F3,B7:F10)</f>
-        <v>179</v>
-      </c>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
+      <c r="H17" s="37"/>
       <c r="I17"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-    </row>
-    <row r="18" ht="48" customHeight="1" spans="1:11">
-      <c r="A18" s="25" t="s">
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+    </row>
+    <row r="18" ht="48" customHeight="1" spans="1:15">
+      <c r="A18" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="26">
-        <f>SUM(B2:B16)</f>
-        <v>89</v>
-      </c>
-      <c r="C18" s="26">
-        <f>SUM(B2:C16)</f>
-        <v>179</v>
-      </c>
-      <c r="D18" s="26">
-        <f>SUM(B2:D16)</f>
-        <v>269</v>
-      </c>
-      <c r="E18" s="26">
-        <f>SUM(B2:E16)</f>
-        <v>359</v>
-      </c>
-      <c r="F18" s="26">
-        <f>SUM(B2:F16)</f>
-        <v>449</v>
-      </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-    </row>
-    <row r="19" ht="20.25" spans="1:11">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+      <c r="B18" s="37">
+        <f>SUM(B2:B4,B8:B11)</f>
+        <v>42</v>
+      </c>
+      <c r="C18" s="37">
+        <f>SUM(B2:C4,B8:C11)</f>
+        <v>88</v>
+      </c>
+      <c r="D18" s="37">
+        <f>SUM(B2:D4,B8:D11)</f>
+        <v>134</v>
+      </c>
+      <c r="E18" s="37">
+        <f>SUM(B2:E4,B8:E11)</f>
+        <v>180</v>
+      </c>
+      <c r="F18" s="37">
+        <f>SUM(B2:F4,B8:F11)</f>
+        <v>226</v>
+      </c>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+    </row>
+    <row r="19" ht="48" customHeight="1" spans="1:11">
+      <c r="A19" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="37">
+        <f>SUM(B2:B17)</f>
+        <v>96</v>
+      </c>
+      <c r="C19" s="37">
+        <f>SUM(B2:C17)</f>
+        <v>196</v>
+      </c>
+      <c r="D19" s="37">
+        <f>SUM(B2:D17)</f>
+        <v>296</v>
+      </c>
+      <c r="E19" s="37">
+        <f>SUM(B2:E17)</f>
+        <v>396</v>
+      </c>
+      <c r="F19" s="37">
+        <f>SUM(B2:F17)</f>
+        <v>496</v>
+      </c>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
     </row>
     <row r="20" ht="20.25" spans="1:11">
-      <c r="A20"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
     </row>
     <row r="21" ht="20.25" spans="1:11">
       <c r="A21"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
     </row>
     <row r="22" ht="20.25" spans="1:11">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="A22"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
     </row>
     <row r="23" ht="20.25" spans="1:11">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
     </row>
     <row r="24" ht="20.25" spans="1:11">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
     </row>
     <row r="25" ht="20.25" spans="1:11">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
     </row>
     <row r="26" ht="20.25" spans="1:11">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
     </row>
     <row r="27" ht="20.25" spans="1:11">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
     </row>
     <row r="28" ht="20.25" spans="1:11">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
     </row>
     <row r="29" ht="20.25" spans="1:11">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+    </row>
+    <row r="30" ht="20.25" spans="1:11">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2488,275 +2638,273 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.75" style="1" customWidth="1"/>
-    <col min="4" max="7" width="24.625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="14.625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="31" style="12" customWidth="1"/>
+    <col min="4" max="7" width="24.625" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" ht="70" customHeight="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
+      <c r="A1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" ht="65" customHeight="1" spans="1:9">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" ht="30" spans="1:9">
-      <c r="A3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10" t="s">
+      <c r="A3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
     </row>
     <row r="4" ht="30" spans="1:9">
-      <c r="A4" s="11"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" ht="20.25" spans="1:9">
-      <c r="A5" s="8" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+    </row>
+    <row r="5" ht="45" spans="1:9">
+      <c r="A5" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" ht="20.25" spans="1:9">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" ht="20.25" spans="1:9">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="B5" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+    </row>
+    <row r="6" ht="45" spans="1:9">
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+    </row>
+    <row r="7" ht="45" spans="1:9">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
     </row>
     <row r="8" ht="20.25" spans="1:9">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" ht="20.25" spans="1:9">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" ht="20.25" spans="1:9">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+    </row>
+    <row r="9" ht="45" spans="1:9">
+      <c r="A9" s="24"/>
+      <c r="B9" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+    </row>
+    <row r="10" ht="30" spans="1:9">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
     </row>
     <row r="11" ht="20.25" spans="1:9">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" ht="20.25" spans="1:9">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" ht="20.25" spans="1:9">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" ht="20.25" spans="1:9">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" ht="60" spans="1:9">
-      <c r="A15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" ht="45" spans="1:9">
-      <c r="A16" s="11"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" ht="45" spans="1:15">
-      <c r="A17" s="12"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10" t="s">
+      <c r="A12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" ht="30" spans="1:9">
+      <c r="A13" s="24"/>
+      <c r="B13" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="C13" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+    </row>
+    <row r="14" ht="30" spans="1:9">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-    </row>
-    <row r="18" ht="45" spans="1:17">
-      <c r="A18" s="12"/>
-      <c r="B18" s="8" t="s">
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+    </row>
+    <row r="15" ht="20.25" spans="1:9">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+    </row>
+    <row r="16" ht="20.25" spans="1:9">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+    </row>
+    <row r="17" ht="30" spans="1:9">
+      <c r="A17" s="24"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+    </row>
+    <row r="18" ht="30" spans="1:15">
+      <c r="A18" s="24"/>
+      <c r="B18" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="7"/>
+      <c r="C18" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="18"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -2764,24 +2912,18 @@
       <c r="M18"/>
       <c r="N18"/>
       <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
     </row>
     <row r="19" ht="45" spans="1:17">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="10" t="s">
+      <c r="A19" s="24"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="7"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="18"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -2792,17 +2934,15 @@
       <c r="P19"/>
       <c r="Q19"/>
     </row>
-    <row r="20" ht="45" spans="1:17">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="7"/>
+    <row r="20" ht="20.25" spans="1:17">
+      <c r="A20" s="24"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="18"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -2813,25 +2953,17 @@
       <c r="P20"/>
       <c r="Q20"/>
     </row>
-    <row r="21" ht="60" spans="1:17">
-      <c r="A21" s="12"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="7"/>
+    <row r="21" ht="20.25" spans="1:17">
+      <c r="A21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="18"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -2843,20 +2975,18 @@
       <c r="Q21"/>
     </row>
     <row r="22" ht="30" spans="1:17">
-      <c r="A22" s="12"/>
-      <c r="B22" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="7"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="18"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -2867,21 +2997,17 @@
       <c r="P22"/>
       <c r="Q22"/>
     </row>
-    <row r="23" ht="30" spans="1:17">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="7"/>
+    <row r="23" ht="45" spans="1:17">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="18"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -2893,14 +3019,16 @@
       <c r="Q23"/>
     </row>
     <row r="24" ht="20.25" spans="1:17">
-      <c r="A24" s="12"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="7"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="18"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -2912,21 +3040,21 @@
       <c r="Q24"/>
     </row>
     <row r="25" ht="30" spans="1:17">
-      <c r="A25" s="12"/>
-      <c r="B25" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" s="18"/>
+      <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
       <c r="L25"/>
@@ -2936,18 +3064,22 @@
       <c r="P25"/>
       <c r="Q25"/>
     </row>
-    <row r="26" ht="45" spans="1:17">
-      <c r="A26" s="12"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
+    <row r="26" ht="60" spans="1:17">
+      <c r="A26" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="18"/>
+      <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26"/>
@@ -2957,18 +3089,18 @@
       <c r="P26"/>
       <c r="Q26"/>
     </row>
-    <row r="27" ht="20.25" spans="1:17">
-      <c r="A27" s="12"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
+    <row r="27" ht="45" spans="1:17">
+      <c r="A27" s="22"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="18"/>
+      <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
       <c r="L27"/>
@@ -2979,17 +3111,17 @@
       <c r="Q27"/>
     </row>
     <row r="28" ht="20.25" spans="1:17">
-      <c r="A28" s="12"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
       <c r="J28"/>
       <c r="K28"/>
       <c r="L28"/>
@@ -2999,551 +3131,634 @@
       <c r="P28"/>
       <c r="Q28"/>
     </row>
-    <row r="29" ht="45" spans="1:9">
-      <c r="A29" s="12"/>
-      <c r="B29" s="16" t="s">
+    <row r="29" ht="60" spans="1:17">
+      <c r="A29" s="22"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+    </row>
+    <row r="30" ht="75" spans="1:17">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+    </row>
+    <row r="31" ht="60" spans="1:17">
+      <c r="A31" s="22"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+    </row>
+    <row r="32" ht="45" spans="1:9">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+    </row>
+    <row r="33" ht="60" spans="1:9">
+      <c r="A33" s="22"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+    </row>
+    <row r="34" ht="60" spans="1:9">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="C34" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" ht="45" spans="1:9">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="10" t="s">
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+    </row>
+    <row r="35" ht="20.25" spans="1:9">
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+    </row>
+    <row r="36" ht="30" spans="1:9">
+      <c r="A36" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="B36" s="30"/>
+      <c r="C36" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+    </row>
+    <row r="37" ht="30" spans="1:9">
+      <c r="A37" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" ht="20.25" spans="1:9">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" ht="30" spans="1:9">
-      <c r="A32" s="17" t="s">
+      <c r="B37" s="30"/>
+      <c r="C37" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+    </row>
+    <row r="38" ht="30" spans="1:9">
+      <c r="A38" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-    </row>
-    <row r="33" ht="30" spans="1:9">
-      <c r="A33" s="17" t="s">
+      <c r="B38" s="30"/>
+      <c r="C38" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+    </row>
+    <row r="39" ht="30" spans="1:9">
+      <c r="A39" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-    </row>
-    <row r="34" ht="30" spans="1:9">
-      <c r="A34" s="17" t="s">
+      <c r="B39" s="32"/>
+      <c r="C39" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-    </row>
-    <row r="35" ht="45" spans="1:9">
-      <c r="A35" s="20" t="s">
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+    </row>
+    <row r="40" ht="30" spans="1:9">
+      <c r="A40" s="33"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="10" t="s">
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+    </row>
+    <row r="41" ht="30" spans="1:9">
+      <c r="A41" s="33"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-    </row>
-    <row r="36" ht="30" spans="1:9">
-      <c r="A36" s="22"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="10" t="s">
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+    </row>
+    <row r="42" ht="45" spans="1:9">
+      <c r="A42" s="33"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-    </row>
-    <row r="37" ht="30" spans="1:9">
-      <c r="A37" s="22"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="10" t="s">
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+    </row>
+    <row r="43" ht="30" spans="1:9">
+      <c r="A43" s="34"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-    </row>
-    <row r="38" ht="45" spans="1:9">
-      <c r="A38" s="22"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="10" t="s">
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+    </row>
+    <row r="44" ht="45" spans="1:9">
+      <c r="A44" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-    </row>
-    <row r="39" ht="30" spans="1:9">
-      <c r="A39" s="23"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="10" t="s">
+      <c r="B44" s="32"/>
+      <c r="C44" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-    </row>
-    <row r="40" ht="45" spans="1:9">
-      <c r="A40" s="20" t="s">
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+    </row>
+    <row r="45" ht="60" spans="1:9">
+      <c r="A45" s="33"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="10" t="s">
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+    </row>
+    <row r="46" ht="45" spans="1:9">
+      <c r="A46" s="33"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-    </row>
-    <row r="41" ht="60" spans="1:9">
-      <c r="A41" s="22"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="10" t="s">
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+    </row>
+    <row r="47" ht="75" spans="1:9">
+      <c r="A47" s="34"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-    </row>
-    <row r="42" ht="45" spans="1:9">
-      <c r="A42" s="22"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="10" t="s">
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+    </row>
+    <row r="48" ht="60" spans="1:9">
+      <c r="A48" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-    </row>
-    <row r="43" ht="75" spans="1:9">
-      <c r="A43" s="23"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="10" t="s">
+      <c r="B48" s="32"/>
+      <c r="C48" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-    </row>
-    <row r="44" ht="60" spans="1:9">
-      <c r="A44" s="20" t="s">
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+    </row>
+    <row r="49" ht="45" spans="1:9">
+      <c r="A49" s="33"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="10" t="s">
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+    </row>
+    <row r="50" ht="20.25" spans="1:9">
+      <c r="A50" s="33"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+    </row>
+    <row r="51" ht="20.25" spans="1:9">
+      <c r="A51" s="34"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+    </row>
+    <row r="52" ht="60" spans="1:9">
+      <c r="A52" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-    </row>
-    <row r="45" ht="60" spans="1:9">
-      <c r="A45" s="22"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="10" t="s">
+      <c r="B52" s="32"/>
+      <c r="C52" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-    </row>
-    <row r="46" ht="20.25" spans="1:9">
-      <c r="A46" s="22"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-    </row>
-    <row r="47" ht="20.25" spans="1:9">
-      <c r="A47" s="23"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-    </row>
-    <row r="48" ht="60" spans="1:9">
-      <c r="A48" s="20" t="s">
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+    </row>
+    <row r="53" ht="60" spans="1:9">
+      <c r="A53" s="33"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="10" t="s">
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+    </row>
+    <row r="54" ht="20.25" spans="1:9">
+      <c r="A54" s="33"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+    </row>
+    <row r="55" ht="20.25" spans="1:9">
+      <c r="A55" s="34"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+    </row>
+    <row r="56" ht="30" spans="1:9">
+      <c r="A56" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-    </row>
-    <row r="49" ht="60" spans="1:9">
-      <c r="A49" s="22"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="10" t="s">
+      <c r="B56" s="30"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+    </row>
+    <row r="57" ht="30" spans="1:9">
+      <c r="A57" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-    </row>
-    <row r="50" ht="20.25" spans="1:9">
-      <c r="A50" s="22"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-    </row>
-    <row r="51" ht="20.25" spans="1:9">
-      <c r="A51" s="23"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-    </row>
-    <row r="52" ht="30" spans="1:9">
-      <c r="A52" s="17" t="s">
+      <c r="B57" s="30"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+    </row>
+    <row r="58" ht="30" spans="1:9">
+      <c r="A58" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="B52" s="18"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-    </row>
-    <row r="53" ht="30" spans="1:9">
-      <c r="A53" s="17" t="s">
+      <c r="B58" s="30"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+    </row>
+    <row r="59" ht="30" spans="1:9">
+      <c r="A59" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="B53" s="18"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-    </row>
-    <row r="54" ht="30" spans="1:9">
-      <c r="A54" s="17" t="s">
+      <c r="B59" s="30"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+    </row>
+    <row r="60" ht="30" spans="1:9">
+      <c r="A60" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="B54" s="18"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-    </row>
-    <row r="55" ht="30" spans="1:9">
-      <c r="A55" s="17" t="s">
+      <c r="B60" s="30"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+    </row>
+    <row r="61" ht="30" spans="1:9">
+      <c r="A61" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="B55" s="18"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-    </row>
-    <row r="56" ht="30" spans="1:9">
-      <c r="A56" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="B56" s="18"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-    </row>
-    <row r="57" ht="30" spans="1:9">
-      <c r="A57" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B57" s="18"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-    </row>
-    <row r="58" ht="20.25" spans="1:9">
-      <c r="A58" s="24" t="s">
+      <c r="B61" s="30"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+    </row>
+    <row r="62" ht="20.25" spans="1:9">
+      <c r="A62" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="24"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-    </row>
-    <row r="59" ht="20.25" spans="1:9">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-    </row>
-    <row r="60" ht="20.25" spans="1:9">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-    </row>
-    <row r="61" ht="20.25" spans="1:9">
-      <c r="A61"/>
-      <c r="B61"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-    </row>
-    <row r="62" ht="20.25" spans="1:9">
-      <c r="A62"/>
-      <c r="B62"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
     </row>
     <row r="63" ht="20.25" spans="1:9">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
+      <c r="A63" s="18"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
     </row>
     <row r="64" ht="20.25" spans="1:9">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
+      <c r="A64" s="18"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
     </row>
     <row r="65" ht="20.25" spans="1:9">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
+      <c r="A65"/>
+      <c r="B65"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
     </row>
     <row r="66" ht="20.25" spans="1:9">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
+      <c r="A66"/>
+      <c r="B66"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
     </row>
     <row r="67" ht="20.25" spans="1:9">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
+      <c r="A67" s="18"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
     </row>
     <row r="68" ht="20.25" spans="1:9">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
+      <c r="A68" s="18"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
     </row>
     <row r="69" ht="20.25" spans="1:9">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
+      <c r="A69" s="18"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
     </row>
     <row r="70" ht="20.25" spans="1:9">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
+      <c r="A70" s="18"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
+    </row>
+    <row r="71" ht="20.25" spans="1:9">
+      <c r="A71" s="18"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+    </row>
+    <row r="72" ht="20.25" spans="1:9">
+      <c r="A72" s="18"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+    </row>
+    <row r="73" ht="20.25" spans="1:9">
+      <c r="A73" s="18"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+    </row>
+    <row r="74" ht="20.25" spans="1:9">
+      <c r="A74" s="18"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="18">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A14"/>
-    <mergeCell ref="A15:A31"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A5:A25"/>
+    <mergeCell ref="A26:A35"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A44:A47"/>
     <mergeCell ref="A48:A51"/>
-    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B17"/>
     <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3554,25 +3769,1136 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:Y40"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="15.8833333333333" customWidth="1"/>
+    <col min="13" max="17" width="10.625" customWidth="1"/>
+    <col min="18" max="18" width="17.3416666666667" customWidth="1"/>
+    <col min="19" max="25" width="10.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="40" customHeight="1" spans="1:25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="10"/>
+    </row>
+    <row r="2" ht="40" customHeight="1" spans="1:25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="11"/>
+    </row>
+    <row r="3" ht="40" customHeight="1" spans="1:25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="11"/>
+    </row>
+    <row r="4" ht="40" customHeight="1" spans="1:25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="11"/>
+    </row>
+    <row r="5" ht="40" customHeight="1" spans="1:25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="11"/>
+    </row>
+    <row r="6" ht="40" customHeight="1" spans="1:25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="11"/>
+    </row>
+    <row r="7" ht="40" customHeight="1" spans="1:25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="11"/>
+    </row>
+    <row r="8" ht="40" customHeight="1" spans="1:25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="11"/>
+    </row>
+    <row r="9" ht="40" customHeight="1" spans="1:25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="11"/>
+    </row>
+    <row r="10" ht="40" customHeight="1" spans="1:25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="11"/>
+    </row>
+    <row r="11" ht="40" customHeight="1" spans="1:25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="O11" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="11"/>
+    </row>
+    <row r="12" ht="40" customHeight="1" spans="1:25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="O12" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="11"/>
+    </row>
+    <row r="13" ht="40" customHeight="1" spans="1:25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="O13" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="11"/>
+    </row>
+    <row r="14" ht="40" customHeight="1" spans="1:25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="N14" s="4"/>
+      <c r="O14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="11"/>
+    </row>
+    <row r="15" ht="40" customHeight="1" spans="1:25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="M15" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="11"/>
+    </row>
+    <row r="16" ht="40" customHeight="1" spans="1:25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="11"/>
+    </row>
+    <row r="17" ht="40" customHeight="1" spans="1:25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="N17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" s="9"/>
+      <c r="P17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="11"/>
+    </row>
+    <row r="18" ht="40" customHeight="1" spans="1:25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="M18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="O18" s="4"/>
+      <c r="Q18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="11"/>
+    </row>
+    <row r="19" ht="40" customHeight="1" spans="1:25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="11"/>
+    </row>
+    <row r="20" ht="40" customHeight="1" spans="1:25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="11"/>
+    </row>
+    <row r="21" ht="40" customHeight="1" spans="1:25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="11"/>
+    </row>
+    <row r="22" ht="40" customHeight="1" spans="1:25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="11"/>
+    </row>
+    <row r="23" ht="40" customHeight="1" spans="1:25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="11"/>
+    </row>
+    <row r="24" ht="40" customHeight="1" spans="1:25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="11"/>
+    </row>
+    <row r="25" ht="40" customHeight="1" spans="1:25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="11"/>
+    </row>
+    <row r="26" ht="40" customHeight="1" spans="1:25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="11"/>
+    </row>
+    <row r="27" ht="40" customHeight="1" spans="1:25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="11"/>
+    </row>
+    <row r="28" ht="40" customHeight="1" spans="1:25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="11"/>
+    </row>
+    <row r="29" ht="40" customHeight="1" spans="1:25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="11"/>
+    </row>
+    <row r="30" ht="40" customHeight="1" spans="1:25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="11"/>
+    </row>
+    <row r="31" ht="40" customHeight="1" spans="1:25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="11"/>
+    </row>
+    <row r="32" ht="40" customHeight="1" spans="1:25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="11"/>
+    </row>
+    <row r="33" ht="40" customHeight="1" spans="1:25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="11"/>
+    </row>
+    <row r="34" ht="40" customHeight="1" spans="1:25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="11"/>
+    </row>
+    <row r="35" ht="40" customHeight="1" spans="1:25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="11"/>
+    </row>
+    <row r="36" ht="40" customHeight="1" spans="1:25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="11"/>
+    </row>
+    <row r="37" ht="40" customHeight="1" spans="1:25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="11"/>
+    </row>
+    <row r="38" ht="40" customHeight="1" spans="1:25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="11"/>
+    </row>
+    <row r="39" ht="40" customHeight="1" spans="1:25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="11"/>
+    </row>
+    <row r="40" ht="40" customHeight="1" spans="1:25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A2"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="37.5" customWidth="1"/>
+    <col min="1" max="1" width="54.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/media/caltivation.xlsx
+++ b/media/caltivation.xlsx
@@ -156,8 +156,7 @@
   </si>
   <si>
     <t>基础闪避
-闪避对方下个回合
-10点或以下的攻</t>
+不会受到下一张牌对手消耗灵力的攻的伤害</t>
   </si>
   <si>
     <t>剑修
@@ -1337,7 +1336,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1404,16 +1403,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1423,9 +1416,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1818,7 +1808,7 @@
       <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="34" t="s">
         <v>7</v>
       </c>
       <c r="I1"/>
@@ -1845,612 +1835,612 @@
       <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="35">
         <v>10</v>
       </c>
-      <c r="C2" s="38">
+      <c r="C2" s="35">
         <v>10</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="35">
         <v>10</v>
       </c>
-      <c r="E2" s="38">
+      <c r="E2" s="35">
         <v>10</v>
       </c>
-      <c r="F2" s="39">
+      <c r="F2" s="36">
         <v>10</v>
       </c>
-      <c r="G2" s="39">
+      <c r="G2" s="36">
         <f>SUM(B2:F2)</f>
         <v>50</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="35" t="s">
         <v>10</v>
       </c>
       <c r="I2"/>
       <c r="J2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="38">
+      <c r="K2" s="35">
         <v>14</v>
       </c>
-      <c r="L2" s="38">
+      <c r="L2" s="35">
         <v>37</v>
       </c>
-      <c r="M2" s="38">
+      <c r="M2" s="35">
         <v>77</v>
       </c>
-      <c r="N2" s="38">
+      <c r="N2" s="35">
         <v>147</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="35"/>
     </row>
     <row r="3" ht="21" spans="1:15">
       <c r="A3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="38">
+      <c r="B3" s="35">
         <v>10</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="35">
         <v>10</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="35">
         <v>10</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="35">
         <v>10</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="36">
         <v>10</v>
       </c>
-      <c r="G3" s="39">
+      <c r="G3" s="36">
         <f>SUM(B3:F3)</f>
         <v>50</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="35" t="s">
         <v>10</v>
       </c>
       <c r="I3"/>
       <c r="J3" s="14"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
     </row>
     <row r="4" ht="21" spans="1:15">
       <c r="A4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="35">
         <v>9</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="35">
         <v>10</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="35">
         <v>10</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="35">
         <v>10</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="36">
         <v>10</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="36">
         <f t="shared" ref="G4:G10" si="0">SUM(B4:F4)</f>
         <v>49</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="35" t="s">
         <v>10</v>
       </c>
       <c r="I4"/>
       <c r="J4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="41">
+      <c r="K4" s="38">
         <f>K2/B18</f>
         <v>0.333333333333333</v>
       </c>
-      <c r="L4" s="41">
+      <c r="L4" s="38">
         <f>L2/C18</f>
         <v>0.420454545454545</v>
       </c>
-      <c r="M4" s="41">
+      <c r="M4" s="38">
         <f>M2/D18</f>
         <v>0.574626865671642</v>
       </c>
-      <c r="N4" s="41">
+      <c r="N4" s="38">
         <f>N2/E18</f>
         <v>0.816666666666667</v>
       </c>
-      <c r="O4" s="38"/>
+      <c r="O4" s="35"/>
     </row>
     <row r="5" ht="21" spans="1:15">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="36">
         <v>10</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="36">
         <v>10</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="36">
         <v>10</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="36">
         <v>10</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="36">
         <v>10</v>
       </c>
-      <c r="G5" s="39">
+      <c r="G5" s="36">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H5" s="38"/>
+      <c r="H5" s="35"/>
       <c r="I5"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
     </row>
     <row r="6" ht="21" spans="1:15">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B6" s="36">
         <v>10</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="36">
         <v>10</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="36">
         <v>10</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="36">
         <v>10</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="36">
         <v>10</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="36">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H6" s="38"/>
+      <c r="H6" s="35"/>
       <c r="I6"/>
       <c r="J6"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
     </row>
     <row r="7" ht="21" spans="1:15">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="36">
         <v>10</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="36">
         <v>10</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="36">
         <v>10</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="36">
         <v>10</v>
       </c>
-      <c r="F7" s="39">
+      <c r="F7" s="36">
         <v>10</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="36">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H7" s="38"/>
+      <c r="H7" s="35"/>
       <c r="I7"/>
       <c r="J7"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
     </row>
     <row r="8" ht="21" spans="1:15">
       <c r="A8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="38">
+      <c r="B8" s="35">
         <v>5</v>
       </c>
-      <c r="C8" s="38">
-        <v>4</v>
-      </c>
-      <c r="D8" s="38">
-        <v>4</v>
-      </c>
-      <c r="E8" s="38">
-        <v>4</v>
-      </c>
-      <c r="F8" s="39">
-        <v>4</v>
-      </c>
-      <c r="G8" s="39">
+      <c r="C8" s="35">
+        <v>4</v>
+      </c>
+      <c r="D8" s="35">
+        <v>4</v>
+      </c>
+      <c r="E8" s="35">
+        <v>4</v>
+      </c>
+      <c r="F8" s="36">
+        <v>4</v>
+      </c>
+      <c r="G8" s="36">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H8" s="38" t="s">
+      <c r="H8" s="35" t="s">
         <v>10</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
     </row>
     <row r="9" ht="21" spans="1:15">
       <c r="A9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="38">
-        <v>4</v>
-      </c>
-      <c r="C9" s="38">
-        <v>4</v>
-      </c>
-      <c r="D9" s="38">
-        <v>4</v>
-      </c>
-      <c r="E9" s="38">
-        <v>4</v>
-      </c>
-      <c r="F9" s="39">
-        <v>4</v>
-      </c>
-      <c r="G9" s="39">
+      <c r="B9" s="35">
+        <v>4</v>
+      </c>
+      <c r="C9" s="35">
+        <v>4</v>
+      </c>
+      <c r="D9" s="35">
+        <v>4</v>
+      </c>
+      <c r="E9" s="35">
+        <v>4</v>
+      </c>
+      <c r="F9" s="36">
+        <v>4</v>
+      </c>
+      <c r="G9" s="36">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H9" s="38" t="s">
+      <c r="H9" s="35" t="s">
         <v>10</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
     </row>
     <row r="10" ht="21" spans="1:15">
       <c r="A10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="35">
         <v>2</v>
       </c>
-      <c r="C10" s="38">
-        <v>4</v>
-      </c>
-      <c r="D10" s="38">
-        <v>4</v>
-      </c>
-      <c r="E10" s="38">
-        <v>4</v>
-      </c>
-      <c r="F10" s="39">
-        <v>4</v>
-      </c>
-      <c r="G10" s="39">
+      <c r="C10" s="35">
+        <v>4</v>
+      </c>
+      <c r="D10" s="35">
+        <v>4</v>
+      </c>
+      <c r="E10" s="35">
+        <v>4</v>
+      </c>
+      <c r="F10" s="36">
+        <v>4</v>
+      </c>
+      <c r="G10" s="36">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H10" s="38" t="s">
+      <c r="H10" s="35" t="s">
         <v>10</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
     </row>
     <row r="11" ht="21" spans="1:15">
       <c r="A11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="38">
+      <c r="B11" s="35">
         <v>2</v>
       </c>
-      <c r="C11" s="38">
-        <v>4</v>
-      </c>
-      <c r="D11" s="38">
-        <v>4</v>
-      </c>
-      <c r="E11" s="38">
-        <v>4</v>
-      </c>
-      <c r="F11" s="39">
-        <v>4</v>
-      </c>
-      <c r="G11" s="39">
+      <c r="C11" s="35">
+        <v>4</v>
+      </c>
+      <c r="D11" s="35">
+        <v>4</v>
+      </c>
+      <c r="E11" s="35">
+        <v>4</v>
+      </c>
+      <c r="F11" s="36">
+        <v>4</v>
+      </c>
+      <c r="G11" s="36">
         <f t="shared" ref="G11:G17" si="1">SUM(B11:F11)</f>
         <v>18</v>
       </c>
-      <c r="H11" s="38" t="s">
+      <c r="H11" s="35" t="s">
         <v>10</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
     </row>
     <row r="12" ht="21" spans="1:15">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="39">
-        <v>4</v>
-      </c>
-      <c r="C12" s="39">
-        <v>4</v>
-      </c>
-      <c r="D12" s="39">
-        <v>4</v>
-      </c>
-      <c r="E12" s="39">
-        <v>4</v>
-      </c>
-      <c r="F12" s="39">
-        <v>4</v>
-      </c>
-      <c r="G12" s="39">
+      <c r="B12" s="36">
+        <v>4</v>
+      </c>
+      <c r="C12" s="36">
+        <v>4</v>
+      </c>
+      <c r="D12" s="36">
+        <v>4</v>
+      </c>
+      <c r="E12" s="36">
+        <v>4</v>
+      </c>
+      <c r="F12" s="36">
+        <v>4</v>
+      </c>
+      <c r="G12" s="36">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H12" s="38"/>
+      <c r="H12" s="35"/>
       <c r="I12"/>
       <c r="J12"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
     </row>
     <row r="13" ht="21" spans="1:15">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="39">
-        <v>4</v>
-      </c>
-      <c r="C13" s="39">
-        <v>4</v>
-      </c>
-      <c r="D13" s="39">
-        <v>4</v>
-      </c>
-      <c r="E13" s="39">
-        <v>4</v>
-      </c>
-      <c r="F13" s="39">
-        <v>4</v>
-      </c>
-      <c r="G13" s="39">
+      <c r="B13" s="36">
+        <v>4</v>
+      </c>
+      <c r="C13" s="36">
+        <v>4</v>
+      </c>
+      <c r="D13" s="36">
+        <v>4</v>
+      </c>
+      <c r="E13" s="36">
+        <v>4</v>
+      </c>
+      <c r="F13" s="36">
+        <v>4</v>
+      </c>
+      <c r="G13" s="36">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H13" s="38"/>
+      <c r="H13" s="35"/>
       <c r="I13"/>
       <c r="J13"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
     </row>
     <row r="14" ht="21" spans="1:15">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="39">
-        <v>4</v>
-      </c>
-      <c r="C14" s="39">
-        <v>4</v>
-      </c>
-      <c r="D14" s="39">
-        <v>4</v>
-      </c>
-      <c r="E14" s="39">
-        <v>4</v>
-      </c>
-      <c r="F14" s="39">
-        <v>4</v>
-      </c>
-      <c r="G14" s="39">
+      <c r="B14" s="36">
+        <v>4</v>
+      </c>
+      <c r="C14" s="36">
+        <v>4</v>
+      </c>
+      <c r="D14" s="36">
+        <v>4</v>
+      </c>
+      <c r="E14" s="36">
+        <v>4</v>
+      </c>
+      <c r="F14" s="36">
+        <v>4</v>
+      </c>
+      <c r="G14" s="36">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H14" s="38"/>
+      <c r="H14" s="35"/>
       <c r="I14"/>
       <c r="J14"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
     </row>
     <row r="15" ht="21" spans="1:15">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="39">
-        <v>4</v>
-      </c>
-      <c r="C15" s="39">
-        <v>4</v>
-      </c>
-      <c r="D15" s="39">
-        <v>4</v>
-      </c>
-      <c r="E15" s="39">
-        <v>4</v>
-      </c>
-      <c r="F15" s="39">
-        <v>4</v>
-      </c>
-      <c r="G15" s="39">
+      <c r="B15" s="36">
+        <v>4</v>
+      </c>
+      <c r="C15" s="36">
+        <v>4</v>
+      </c>
+      <c r="D15" s="36">
+        <v>4</v>
+      </c>
+      <c r="E15" s="36">
+        <v>4</v>
+      </c>
+      <c r="F15" s="36">
+        <v>4</v>
+      </c>
+      <c r="G15" s="36">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H15" s="38"/>
+      <c r="H15" s="35"/>
       <c r="I15"/>
       <c r="J15"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
     </row>
     <row r="16" ht="21" spans="1:15">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="39">
-        <v>4</v>
-      </c>
-      <c r="C16" s="39">
-        <v>4</v>
-      </c>
-      <c r="D16" s="39">
-        <v>4</v>
-      </c>
-      <c r="E16" s="39">
-        <v>4</v>
-      </c>
-      <c r="F16" s="39">
-        <v>4</v>
-      </c>
-      <c r="G16" s="39">
+      <c r="B16" s="36">
+        <v>4</v>
+      </c>
+      <c r="C16" s="36">
+        <v>4</v>
+      </c>
+      <c r="D16" s="36">
+        <v>4</v>
+      </c>
+      <c r="E16" s="36">
+        <v>4</v>
+      </c>
+      <c r="F16" s="36">
+        <v>4</v>
+      </c>
+      <c r="G16" s="36">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H16" s="38"/>
+      <c r="H16" s="35"/>
       <c r="I16"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
     </row>
     <row r="17" ht="21" spans="1:15">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="39">
-        <v>4</v>
-      </c>
-      <c r="C17" s="39">
-        <v>4</v>
-      </c>
-      <c r="D17" s="39">
-        <v>4</v>
-      </c>
-      <c r="E17" s="39">
-        <v>4</v>
-      </c>
-      <c r="F17" s="39">
-        <v>4</v>
-      </c>
-      <c r="G17" s="39">
+      <c r="B17" s="36">
+        <v>4</v>
+      </c>
+      <c r="C17" s="36">
+        <v>4</v>
+      </c>
+      <c r="D17" s="36">
+        <v>4</v>
+      </c>
+      <c r="E17" s="36">
+        <v>4</v>
+      </c>
+      <c r="F17" s="36">
+        <v>4</v>
+      </c>
+      <c r="G17" s="36">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H17" s="38"/>
+      <c r="H17" s="35"/>
       <c r="I17"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
     </row>
     <row r="18" ht="48" customHeight="1" spans="1:15">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="38">
+      <c r="B18" s="35">
         <f>SUM(B2:B4,B8:B11)</f>
         <v>42</v>
       </c>
-      <c r="C18" s="38">
+      <c r="C18" s="35">
         <f>SUM(B2:C4,B8:C11)</f>
         <v>88</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="35">
         <f>SUM(B2:D4,B8:D11)</f>
         <v>134</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="35">
         <f>SUM(B2:E4,B8:E11)</f>
         <v>180</v>
       </c>
-      <c r="F18" s="38">
+      <c r="F18" s="35">
         <f>SUM(B2:F4,B8:F11)</f>
         <v>226</v>
       </c>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
       <c r="I18"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
     </row>
     <row r="19" ht="48" customHeight="1" spans="1:11">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="38">
+      <c r="B19" s="35">
         <f>SUM(B2:B17)</f>
         <v>96</v>
       </c>
-      <c r="C19" s="38">
+      <c r="C19" s="35">
         <f>SUM(B2:C17)</f>
         <v>196</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="35">
         <f>SUM(B2:D17)</f>
         <v>296</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="35">
         <f>SUM(B2:E17)</f>
         <v>396</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="35">
         <f>SUM(B2:F17)</f>
         <v>496</v>
       </c>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
@@ -2611,7 +2601,7 @@
   <dimension ref="A1:Q75"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2703,10 +2693,10 @@
       <c r="I5" s="17"/>
     </row>
     <row r="6" ht="45" spans="1:9">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>38</v>
       </c>
       <c r="C6" s="19" t="s">
@@ -2720,8 +2710,8 @@
       <c r="I6" s="17"/>
     </row>
     <row r="7" ht="45" spans="1:9">
-      <c r="A7" s="24"/>
-      <c r="B7" s="23"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="19" t="s">
         <v>40</v>
       </c>
@@ -2733,8 +2723,8 @@
       <c r="I7" s="17"/>
     </row>
     <row r="8" ht="45" spans="1:9">
-      <c r="A8" s="24"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="19" t="s">
         <v>41</v>
       </c>
@@ -2746,8 +2736,8 @@
       <c r="I8" s="17"/>
     </row>
     <row r="9" ht="20.25" spans="1:9">
-      <c r="A9" s="25"/>
-      <c r="B9" s="23"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19" t="s">
@@ -2759,8 +2749,8 @@
       <c r="I9" s="17"/>
     </row>
     <row r="10" ht="45" spans="1:9">
-      <c r="A10" s="25"/>
-      <c r="B10" s="22" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="18" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="19" t="s">
@@ -2774,8 +2764,8 @@
       <c r="I10" s="17"/>
     </row>
     <row r="11" ht="30" spans="1:9">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19" t="s">
@@ -2787,8 +2777,8 @@
       <c r="I11" s="17"/>
     </row>
     <row r="12" ht="20.25" spans="1:9">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
@@ -2798,8 +2788,8 @@
       <c r="I12" s="17"/>
     </row>
     <row r="13" ht="20.25" spans="1:9">
-      <c r="A13" s="25"/>
-      <c r="B13" s="26"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
@@ -2809,8 +2799,8 @@
       <c r="I13" s="17"/>
     </row>
     <row r="14" ht="30" spans="1:9">
-      <c r="A14" s="25"/>
-      <c r="B14" s="27" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="25" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="19" t="s">
@@ -2824,8 +2814,8 @@
       <c r="I14" s="17"/>
     </row>
     <row r="15" ht="30" spans="1:9">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="19" t="s">
         <v>48</v>
       </c>
@@ -2837,8 +2827,8 @@
       <c r="I15" s="17"/>
     </row>
     <row r="16" ht="20.25" spans="1:9">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19" t="s">
@@ -2850,8 +2840,8 @@
       <c r="I16" s="17"/>
     </row>
     <row r="17" ht="20.25" spans="1:9">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19" t="s">
@@ -2863,8 +2853,8 @@
       <c r="I17" s="17"/>
     </row>
     <row r="18" ht="30" spans="1:9">
-      <c r="A18" s="25"/>
-      <c r="B18" s="26"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19" t="s">
@@ -2876,8 +2866,8 @@
       <c r="I18" s="17"/>
     </row>
     <row r="19" ht="30" spans="1:15">
-      <c r="A19" s="25"/>
-      <c r="B19" s="24" t="s">
+      <c r="A19" s="23"/>
+      <c r="B19" s="20" t="s">
         <v>52</v>
       </c>
       <c r="C19" s="19" t="s">
@@ -2899,8 +2889,8 @@
       <c r="O19"/>
     </row>
     <row r="20" ht="45" spans="1:17">
-      <c r="A20" s="25"/>
-      <c r="B20" s="24"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="19" t="s">
         <v>55</v>
       </c>
@@ -2920,8 +2910,8 @@
       <c r="Q20"/>
     </row>
     <row r="21" ht="20.25" spans="1:17">
-      <c r="A21" s="25"/>
-      <c r="B21" s="24"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
@@ -2939,8 +2929,8 @@
       <c r="Q21"/>
     </row>
     <row r="22" ht="20.25" spans="1:17">
-      <c r="A22" s="25"/>
-      <c r="B22" s="26"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19" t="s">
@@ -2960,8 +2950,8 @@
       <c r="Q22"/>
     </row>
     <row r="23" ht="30" spans="1:17">
-      <c r="A23" s="25"/>
-      <c r="B23" s="27" t="s">
+      <c r="A23" s="23"/>
+      <c r="B23" s="25" t="s">
         <v>57</v>
       </c>
       <c r="C23" s="19" t="s">
@@ -2983,15 +2973,15 @@
       <c r="Q23"/>
     </row>
     <row r="24" ht="45" spans="1:17">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="19" t="s">
         <v>59</v>
       </c>
       <c r="D24" s="19"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
       <c r="H24" s="17"/>
       <c r="I24"/>
       <c r="J24"/>
@@ -3004,15 +2994,15 @@
       <c r="Q24"/>
     </row>
     <row r="25" ht="20.25" spans="1:17">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
       <c r="H25" s="17"/>
       <c r="I25"/>
       <c r="J25"/>
@@ -3025,8 +3015,8 @@
       <c r="Q25"/>
     </row>
     <row r="26" ht="30" spans="1:17">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19" t="s">
@@ -3050,10 +3040,10 @@
       <c r="Q26"/>
     </row>
     <row r="27" ht="60" spans="1:17">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="20" t="s">
         <v>65</v>
       </c>
       <c r="C27" s="19" t="s">
@@ -3075,8 +3065,8 @@
       <c r="Q27"/>
     </row>
     <row r="28" ht="45" spans="1:17">
-      <c r="A28" s="24"/>
-      <c r="B28" s="29"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="19" t="s">
         <v>67</v>
       </c>
@@ -3096,8 +3086,8 @@
       <c r="Q28"/>
     </row>
     <row r="29" ht="20.25" spans="1:17">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24" t="s">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20" t="s">
         <v>68</v>
       </c>
       <c r="C29" s="19"/>
@@ -3117,8 +3107,8 @@
       <c r="Q29"/>
     </row>
     <row r="30" ht="60" spans="1:17">
-      <c r="A30" s="24"/>
-      <c r="B30" s="29"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="19" t="s">
         <v>69</v>
       </c>
@@ -3138,8 +3128,8 @@
       <c r="Q30"/>
     </row>
     <row r="31" ht="75" spans="1:17">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24" t="s">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20" t="s">
         <v>70</v>
       </c>
       <c r="C31" s="19" t="s">
@@ -3161,8 +3151,8 @@
       <c r="Q31"/>
     </row>
     <row r="32" ht="60" spans="1:17">
-      <c r="A32" s="24"/>
-      <c r="B32" s="29"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="19" t="s">
         <v>72</v>
       </c>
@@ -3182,8 +3172,8 @@
       <c r="Q32"/>
     </row>
     <row r="33" ht="45" spans="1:9">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24" t="s">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20" t="s">
         <v>73</v>
       </c>
       <c r="C33" s="19" t="s">
@@ -3197,8 +3187,8 @@
       <c r="I33" s="17"/>
     </row>
     <row r="34" ht="60" spans="1:9">
-      <c r="A34" s="24"/>
-      <c r="B34" s="29"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="19" t="s">
         <v>75</v>
       </c>
@@ -3210,8 +3200,8 @@
       <c r="I34" s="17"/>
     </row>
     <row r="35" ht="60" spans="1:9">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24" t="s">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20" t="s">
         <v>76</v>
       </c>
       <c r="C35" s="19" t="s">
@@ -3225,8 +3215,8 @@
       <c r="I35" s="17"/>
     </row>
     <row r="36" ht="20.25" spans="1:9">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
@@ -3236,11 +3226,11 @@
       <c r="I36" s="17"/>
     </row>
     <row r="37" ht="30" spans="1:9">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="28" t="s">
+      <c r="B37" s="28"/>
+      <c r="C37" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D37" s="19"/>
@@ -3251,40 +3241,40 @@
       <c r="I37" s="17"/>
     </row>
     <row r="38" ht="30" spans="1:9">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="28" t="s">
+      <c r="B38" s="28"/>
+      <c r="C38" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
       <c r="H38" s="17"/>
       <c r="I38" s="17"/>
     </row>
     <row r="39" ht="30" spans="1:9">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="28" t="s">
+      <c r="B39" s="28"/>
+      <c r="C39" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
       <c r="H39" s="17"/>
       <c r="I39" s="17"/>
     </row>
     <row r="40" ht="30" spans="1:9">
-      <c r="A40" s="32" t="s">
+      <c r="A40" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="33"/>
+      <c r="B40" s="30"/>
       <c r="C40" s="19" t="s">
         <v>83</v>
       </c>
@@ -3296,8 +3286,8 @@
       <c r="I40" s="17"/>
     </row>
     <row r="41" ht="30" spans="1:9">
-      <c r="A41" s="34"/>
-      <c r="B41" s="33"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="30"/>
       <c r="C41" s="19" t="s">
         <v>84</v>
       </c>
@@ -3309,8 +3299,8 @@
       <c r="I41" s="17"/>
     </row>
     <row r="42" ht="30" spans="1:9">
-      <c r="A42" s="34"/>
-      <c r="B42" s="33"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="19" t="s">
         <v>85</v>
       </c>
@@ -3322,8 +3312,8 @@
       <c r="I42" s="17"/>
     </row>
     <row r="43" ht="45" spans="1:9">
-      <c r="A43" s="34"/>
-      <c r="B43" s="33"/>
+      <c r="A43" s="31"/>
+      <c r="B43" s="30"/>
       <c r="C43" s="19" t="s">
         <v>86</v>
       </c>
@@ -3335,8 +3325,8 @@
       <c r="I43" s="17"/>
     </row>
     <row r="44" ht="30" spans="1:9">
-      <c r="A44" s="35"/>
-      <c r="B44" s="33"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="30"/>
       <c r="C44" s="19" t="s">
         <v>87</v>
       </c>
@@ -3348,10 +3338,10 @@
       <c r="I44" s="17"/>
     </row>
     <row r="45" ht="45" spans="1:9">
-      <c r="A45" s="32" t="s">
+      <c r="A45" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="33"/>
+      <c r="B45" s="30"/>
       <c r="C45" s="19" t="s">
         <v>89</v>
       </c>
@@ -3363,8 +3353,8 @@
       <c r="I45" s="17"/>
     </row>
     <row r="46" ht="60" spans="1:9">
-      <c r="A46" s="34"/>
-      <c r="B46" s="33"/>
+      <c r="A46" s="31"/>
+      <c r="B46" s="30"/>
       <c r="C46" s="19" t="s">
         <v>90</v>
       </c>
@@ -3376,8 +3366,8 @@
       <c r="I46" s="17"/>
     </row>
     <row r="47" ht="45" spans="1:9">
-      <c r="A47" s="34"/>
-      <c r="B47" s="33"/>
+      <c r="A47" s="31"/>
+      <c r="B47" s="30"/>
       <c r="C47" s="19" t="s">
         <v>91</v>
       </c>
@@ -3389,8 +3379,8 @@
       <c r="I47" s="17"/>
     </row>
     <row r="48" ht="75" spans="1:9">
-      <c r="A48" s="35"/>
-      <c r="B48" s="33"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="30"/>
       <c r="C48" s="19" t="s">
         <v>92</v>
       </c>
@@ -3402,10 +3392,10 @@
       <c r="I48" s="17"/>
     </row>
     <row r="49" ht="60" spans="1:9">
-      <c r="A49" s="32" t="s">
+      <c r="A49" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="B49" s="33"/>
+      <c r="B49" s="30"/>
       <c r="C49" s="19" t="s">
         <v>94</v>
       </c>
@@ -3417,8 +3407,8 @@
       <c r="I49" s="17"/>
     </row>
     <row r="50" ht="45" spans="1:9">
-      <c r="A50" s="34"/>
-      <c r="B50" s="33"/>
+      <c r="A50" s="31"/>
+      <c r="B50" s="30"/>
       <c r="C50" s="19" t="s">
         <v>95</v>
       </c>
@@ -3430,8 +3420,8 @@
       <c r="I50" s="17"/>
     </row>
     <row r="51" ht="20.25" spans="1:9">
-      <c r="A51" s="34"/>
-      <c r="B51" s="33"/>
+      <c r="A51" s="31"/>
+      <c r="B51" s="30"/>
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
       <c r="E51" s="19"/>
@@ -3441,8 +3431,8 @@
       <c r="I51" s="17"/>
     </row>
     <row r="52" ht="20.25" spans="1:9">
-      <c r="A52" s="35"/>
-      <c r="B52" s="33"/>
+      <c r="A52" s="32"/>
+      <c r="B52" s="30"/>
       <c r="C52" s="19"/>
       <c r="D52" s="19"/>
       <c r="E52" s="19"/>
@@ -3452,10 +3442,10 @@
       <c r="I52" s="17"/>
     </row>
     <row r="53" ht="60" spans="1:9">
-      <c r="A53" s="32" t="s">
+      <c r="A53" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="B53" s="33"/>
+      <c r="B53" s="30"/>
       <c r="C53" s="19" t="s">
         <v>97</v>
       </c>
@@ -3467,123 +3457,123 @@
       <c r="I53" s="17"/>
     </row>
     <row r="54" ht="60" spans="1:9">
-      <c r="A54" s="34"/>
-      <c r="B54" s="33"/>
+      <c r="A54" s="31"/>
+      <c r="B54" s="30"/>
       <c r="C54" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
       <c r="H54" s="17"/>
       <c r="I54" s="17"/>
     </row>
     <row r="55" ht="20.25" spans="1:9">
-      <c r="A55" s="34"/>
-      <c r="B55" s="33"/>
+      <c r="A55" s="31"/>
+      <c r="B55" s="30"/>
       <c r="C55" s="19"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
       <c r="H55" s="17"/>
       <c r="I55" s="17"/>
     </row>
     <row r="56" ht="20.25" spans="1:9">
-      <c r="A56" s="35"/>
-      <c r="B56" s="33"/>
+      <c r="A56" s="32"/>
+      <c r="B56" s="30"/>
       <c r="C56" s="19"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
     </row>
     <row r="57" ht="30" spans="1:9">
-      <c r="A57" s="30" t="s">
+      <c r="A57" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="B57" s="31"/>
+      <c r="B57" s="28"/>
       <c r="C57" s="19"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
     </row>
     <row r="58" ht="30" spans="1:9">
-      <c r="A58" s="30" t="s">
+      <c r="A58" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="B58" s="31"/>
+      <c r="B58" s="28"/>
       <c r="C58" s="19"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
     </row>
     <row r="59" ht="30" spans="1:9">
-      <c r="A59" s="30" t="s">
+      <c r="A59" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="B59" s="31"/>
+      <c r="B59" s="28"/>
       <c r="C59" s="19"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
     </row>
     <row r="60" ht="30" spans="1:9">
-      <c r="A60" s="30" t="s">
+      <c r="A60" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="B60" s="31"/>
+      <c r="B60" s="28"/>
       <c r="C60" s="19"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
       <c r="H60" s="17"/>
       <c r="I60" s="17"/>
     </row>
     <row r="61" ht="30" spans="1:9">
-      <c r="A61" s="30" t="s">
+      <c r="A61" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="B61" s="31"/>
+      <c r="B61" s="28"/>
       <c r="C61" s="19"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
     <row r="62" ht="30" spans="1:9">
-      <c r="A62" s="30" t="s">
+      <c r="A62" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="B62" s="31"/>
+      <c r="B62" s="28"/>
       <c r="C62" s="19"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
     <row r="63" ht="20.25" spans="1:9">
-      <c r="A63" s="36" t="s">
+      <c r="A63" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="36"/>
+      <c r="B63" s="33"/>
       <c r="C63" s="19"/>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>

--- a/media/caltivation.xlsx
+++ b/media/caltivation.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="223">
   <si>
     <t>流派  境界</t>
   </si>
@@ -158,6 +158,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="锐字云字库隶变体GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>词条本身可以通过卡牌升级强化。但词条等级不能超过卡牌等级。
 随机生成的卡牌，其词条等级也是在1-卡牌等级之间随机的。
 词条本身的随机值只能通过精炼·混元调整，但这种调整永远不会随机出满数值（太古词条</t>
@@ -293,6 +299,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="锐字云字库隶变体GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>化神(21-25)
 1个基础词条+4个额外词条（包含0-1个太古</t>
     </r>
@@ -319,6 +331,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="锐字云字库隶变体GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>炼虚(26-30)
 1个基础词条+4个额外词条（包含1-2个太古</t>
     </r>
@@ -345,6 +363,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="锐字云字库隶变体GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>合体(31-35)
 1个基础词条+4个额外词条（包含2-3个太古</t>
     </r>
@@ -371,6 +395,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="锐字云字库隶变体GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>大乘(36-40)
 1个基础词条+4个额外词条（包含3-4个太古</t>
     </r>
@@ -418,52 +448,55 @@
     <t>拳：拳头攻击：造成4点伤害(8)</t>
   </si>
   <si>
+    <t>攻击额外造成2(6)点伤害</t>
+  </si>
+  <si>
+    <t>下次造成伤害时：获得5点生命</t>
+  </si>
+  <si>
+    <t>防御+3(7)</t>
+  </si>
+  <si>
+    <t>造成伤害时：获得1点灵气</t>
+  </si>
+  <si>
+    <t>速度+1(3)</t>
+  </si>
+  <si>
+    <t>造成伤害时：获得7点防御</t>
+  </si>
+  <si>
+    <t>闪避+1(3)</t>
+  </si>
+  <si>
+    <t>造成伤害时：获得1点闪避</t>
+  </si>
+  <si>
+    <t>造成伤害时：获得1点速度</t>
+  </si>
+  <si>
+    <t>加持</t>
+  </si>
+  <si>
+    <t>造成的伤害增加5</t>
+  </si>
+  <si>
+    <t>剑：防御+5(9)</t>
+  </si>
+  <si>
+    <t>造成的破防增加5</t>
+  </si>
+  <si>
+    <t>拳：防御+3(7)</t>
+  </si>
+  <si>
+    <t>防御穿透+20%</t>
+  </si>
+  <si>
+    <t>步：速度+2(4)\n闪避+2(4)</t>
+  </si>
+  <si>
     <t>攻击后额外造成2(6)点伤害</t>
-  </si>
-  <si>
-    <t>造成伤害时：获得5点生命</t>
-  </si>
-  <si>
-    <t>防御+3(7)</t>
-  </si>
-  <si>
-    <t>造成伤害时：获得1点灵气</t>
-  </si>
-  <si>
-    <t>速度+1(3)</t>
-  </si>
-  <si>
-    <t>造成伤害时：获得7点防御</t>
-  </si>
-  <si>
-    <t>闪避+1(3)</t>
-  </si>
-  <si>
-    <t>造成伤害时：获得1点闪避</t>
-  </si>
-  <si>
-    <t>造成伤害时：获得1点速度</t>
-  </si>
-  <si>
-    <t>加持</t>
-  </si>
-  <si>
-    <t>造成的伤害增加5</t>
-  </si>
-  <si>
-    <t>剑：防御+5(9)</t>
-  </si>
-  <si>
-    <t>造成的破防增加5</t>
-  </si>
-  <si>
-    <t>拳：防御+3(7)</t>
-  </si>
-  <si>
-    <t>防御穿透+20%</t>
-  </si>
-  <si>
-    <t>步：速度+2(4)\n闪避+2(4)</t>
   </si>
   <si>
     <t>持续2回合：受到的所有伤害减少3</t>
@@ -1142,14 +1175,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="0"/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1802,7 +1835,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1845,9 +1878,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1914,15 +1944,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1937,24 +1961,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2364,806 +2370,806 @@
   </cols>
   <sheetData>
     <row r="1" ht="65" customHeight="1" spans="1:15">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="62" t="s">
         <v>7</v>
       </c>
       <c r="I1"/>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="57" t="s">
+      <c r="N1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="57" t="s">
+      <c r="O1" s="48" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="20.25" spans="1:15">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72">
+      <c r="B2" s="63">
         <v>10</v>
       </c>
-      <c r="C2" s="72">
+      <c r="C2" s="63">
         <v>10</v>
       </c>
-      <c r="D2" s="72">
+      <c r="D2" s="63">
         <v>10</v>
       </c>
-      <c r="E2" s="72">
+      <c r="E2" s="63">
         <v>10</v>
       </c>
-      <c r="F2" s="73">
+      <c r="F2" s="64">
         <v>10</v>
       </c>
-      <c r="G2" s="73">
+      <c r="G2" s="64">
         <f>SUM(B2:F2)</f>
         <v>50</v>
       </c>
-      <c r="H2" s="72" t="s">
+      <c r="H2" s="63" t="s">
         <v>10</v>
       </c>
       <c r="I2"/>
-      <c r="J2" s="56" t="s">
+      <c r="J2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="72">
+      <c r="K2" s="63">
         <v>14</v>
       </c>
-      <c r="L2" s="72">
+      <c r="L2" s="63">
         <v>37</v>
       </c>
-      <c r="M2" s="72">
+      <c r="M2" s="63">
         <v>77</v>
       </c>
-      <c r="N2" s="72">
+      <c r="N2" s="63">
         <v>147</v>
       </c>
-      <c r="O2" s="72"/>
+      <c r="O2" s="63"/>
     </row>
     <row r="3" ht="20.25" spans="1:15">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="72">
+      <c r="B3" s="63">
         <v>10</v>
       </c>
-      <c r="C3" s="72">
+      <c r="C3" s="63">
         <v>10</v>
       </c>
-      <c r="D3" s="72">
+      <c r="D3" s="63">
         <v>10</v>
       </c>
-      <c r="E3" s="72">
+      <c r="E3" s="63">
         <v>10</v>
       </c>
-      <c r="F3" s="73">
+      <c r="F3" s="64">
         <v>10</v>
       </c>
-      <c r="G3" s="73">
+      <c r="G3" s="64">
         <f>SUM(B3:F3)</f>
         <v>50</v>
       </c>
-      <c r="H3" s="72" t="s">
+      <c r="H3" s="63" t="s">
         <v>10</v>
       </c>
       <c r="I3"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
     </row>
     <row r="4" ht="20.25" spans="1:15">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="72">
+      <c r="B4" s="63">
         <v>9</v>
       </c>
-      <c r="C4" s="72">
+      <c r="C4" s="63">
         <v>10</v>
       </c>
-      <c r="D4" s="72">
+      <c r="D4" s="63">
         <v>10</v>
       </c>
-      <c r="E4" s="72">
+      <c r="E4" s="63">
         <v>10</v>
       </c>
-      <c r="F4" s="73">
+      <c r="F4" s="64">
         <v>10</v>
       </c>
-      <c r="G4" s="73">
+      <c r="G4" s="64">
         <f t="shared" ref="G4:G10" si="0">SUM(B4:F4)</f>
         <v>49</v>
       </c>
-      <c r="H4" s="72" t="s">
+      <c r="H4" s="63" t="s">
         <v>10</v>
       </c>
       <c r="I4"/>
-      <c r="J4" s="56" t="s">
+      <c r="J4" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="75">
+      <c r="K4" s="66">
         <f>K2/B18</f>
         <v>0.333333333333333</v>
       </c>
-      <c r="L4" s="75">
+      <c r="L4" s="66">
         <f>L2/C18</f>
         <v>0.420454545454545</v>
       </c>
-      <c r="M4" s="75">
+      <c r="M4" s="66">
         <f>M2/D18</f>
         <v>0.574626865671642</v>
       </c>
-      <c r="N4" s="75">
+      <c r="N4" s="66">
         <f>N2/E18</f>
         <v>0.816666666666667</v>
       </c>
-      <c r="O4" s="72"/>
+      <c r="O4" s="63"/>
     </row>
     <row r="5" ht="20.25" spans="1:15">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="73">
+      <c r="B5" s="64">
         <v>10</v>
       </c>
-      <c r="C5" s="73">
+      <c r="C5" s="64">
         <v>10</v>
       </c>
-      <c r="D5" s="73">
+      <c r="D5" s="64">
         <v>10</v>
       </c>
-      <c r="E5" s="73">
+      <c r="E5" s="64">
         <v>10</v>
       </c>
-      <c r="F5" s="73">
+      <c r="F5" s="64">
         <v>10</v>
       </c>
-      <c r="G5" s="73">
+      <c r="G5" s="64">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H5" s="72"/>
+      <c r="H5" s="63"/>
       <c r="I5"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
     </row>
     <row r="6" ht="20.25" spans="1:15">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="73">
+      <c r="B6" s="64">
         <v>10</v>
       </c>
-      <c r="C6" s="73">
+      <c r="C6" s="64">
         <v>10</v>
       </c>
-      <c r="D6" s="73">
+      <c r="D6" s="64">
         <v>10</v>
       </c>
-      <c r="E6" s="73">
+      <c r="E6" s="64">
         <v>10</v>
       </c>
-      <c r="F6" s="73">
+      <c r="F6" s="64">
         <v>10</v>
       </c>
-      <c r="G6" s="73">
+      <c r="G6" s="64">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H6" s="72"/>
+      <c r="H6" s="63"/>
       <c r="I6"/>
       <c r="J6"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
     </row>
     <row r="7" ht="20.25" spans="1:15">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="73">
+      <c r="B7" s="64">
         <v>10</v>
       </c>
-      <c r="C7" s="73">
+      <c r="C7" s="64">
         <v>10</v>
       </c>
-      <c r="D7" s="73">
+      <c r="D7" s="64">
         <v>10</v>
       </c>
-      <c r="E7" s="73">
+      <c r="E7" s="64">
         <v>10</v>
       </c>
-      <c r="F7" s="73">
+      <c r="F7" s="64">
         <v>10</v>
       </c>
-      <c r="G7" s="73">
+      <c r="G7" s="64">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H7" s="72"/>
+      <c r="H7" s="63"/>
       <c r="I7"/>
       <c r="J7"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="77"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
     </row>
     <row r="8" ht="20.25" spans="1:15">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="72">
+      <c r="B8" s="63">
         <v>5</v>
       </c>
-      <c r="C8" s="72">
+      <c r="C8" s="63">
         <v>4</v>
       </c>
-      <c r="D8" s="72">
+      <c r="D8" s="63">
         <v>4</v>
       </c>
-      <c r="E8" s="72">
+      <c r="E8" s="63">
         <v>4</v>
       </c>
-      <c r="F8" s="73">
+      <c r="F8" s="64">
         <v>4</v>
       </c>
-      <c r="G8" s="73">
+      <c r="G8" s="64">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H8" s="72" t="s">
+      <c r="H8" s="63" t="s">
         <v>10</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="77"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="77"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
     </row>
     <row r="9" ht="20.25" spans="1:15">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="72">
+      <c r="B9" s="63">
         <v>4</v>
       </c>
-      <c r="C9" s="72">
+      <c r="C9" s="63">
         <v>4</v>
       </c>
-      <c r="D9" s="72">
+      <c r="D9" s="63">
         <v>4</v>
       </c>
-      <c r="E9" s="72">
+      <c r="E9" s="63">
         <v>4</v>
       </c>
-      <c r="F9" s="73">
+      <c r="F9" s="64">
         <v>4</v>
       </c>
-      <c r="G9" s="73">
+      <c r="G9" s="64">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H9" s="72" t="s">
+      <c r="H9" s="63" t="s">
         <v>10</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="77"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
     </row>
     <row r="10" ht="20.25" spans="1:15">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="72">
+      <c r="B10" s="63">
         <v>2</v>
       </c>
-      <c r="C10" s="72">
+      <c r="C10" s="63">
         <v>4</v>
       </c>
-      <c r="D10" s="72">
+      <c r="D10" s="63">
         <v>4</v>
       </c>
-      <c r="E10" s="72">
+      <c r="E10" s="63">
         <v>4</v>
       </c>
-      <c r="F10" s="73">
+      <c r="F10" s="64">
         <v>4</v>
       </c>
-      <c r="G10" s="73">
+      <c r="G10" s="64">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H10" s="72" t="s">
+      <c r="H10" s="63" t="s">
         <v>10</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="77"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
     </row>
     <row r="11" ht="20.25" spans="1:15">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="72">
+      <c r="B11" s="63">
         <v>2</v>
       </c>
-      <c r="C11" s="72">
+      <c r="C11" s="63">
         <v>4</v>
       </c>
-      <c r="D11" s="72">
+      <c r="D11" s="63">
         <v>4</v>
       </c>
-      <c r="E11" s="72">
+      <c r="E11" s="63">
         <v>4</v>
       </c>
-      <c r="F11" s="73">
+      <c r="F11" s="64">
         <v>4</v>
       </c>
-      <c r="G11" s="73">
+      <c r="G11" s="64">
         <f t="shared" ref="G11:G17" si="1">SUM(B11:F11)</f>
         <v>18</v>
       </c>
-      <c r="H11" s="72" t="s">
+      <c r="H11" s="63" t="s">
         <v>10</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="77"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="77"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
     </row>
     <row r="12" ht="20.25" spans="1:15">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="73">
+      <c r="B12" s="64">
         <v>4</v>
       </c>
-      <c r="C12" s="73">
+      <c r="C12" s="64">
         <v>4</v>
       </c>
-      <c r="D12" s="73">
+      <c r="D12" s="64">
         <v>4</v>
       </c>
-      <c r="E12" s="73">
+      <c r="E12" s="64">
         <v>4</v>
       </c>
-      <c r="F12" s="73">
+      <c r="F12" s="64">
         <v>4</v>
       </c>
-      <c r="G12" s="73">
+      <c r="G12" s="64">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H12" s="72"/>
+      <c r="H12" s="63"/>
       <c r="I12"/>
       <c r="J12"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="77"/>
-      <c r="N12" s="77"/>
-      <c r="O12" s="77"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
     </row>
     <row r="13" ht="20.25" spans="1:15">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="73">
+      <c r="B13" s="64">
         <v>4</v>
       </c>
-      <c r="C13" s="73">
+      <c r="C13" s="64">
         <v>4</v>
       </c>
-      <c r="D13" s="73">
+      <c r="D13" s="64">
         <v>4</v>
       </c>
-      <c r="E13" s="73">
+      <c r="E13" s="64">
         <v>4</v>
       </c>
-      <c r="F13" s="73">
+      <c r="F13" s="64">
         <v>4</v>
       </c>
-      <c r="G13" s="73">
+      <c r="G13" s="64">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H13" s="72"/>
+      <c r="H13" s="63"/>
       <c r="I13"/>
       <c r="J13"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="77"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="77"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
     </row>
     <row r="14" ht="20.25" spans="1:15">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="73">
+      <c r="B14" s="64">
         <v>4</v>
       </c>
-      <c r="C14" s="73">
+      <c r="C14" s="64">
         <v>4</v>
       </c>
-      <c r="D14" s="73">
+      <c r="D14" s="64">
         <v>4</v>
       </c>
-      <c r="E14" s="73">
+      <c r="E14" s="64">
         <v>4</v>
       </c>
-      <c r="F14" s="73">
+      <c r="F14" s="64">
         <v>4</v>
       </c>
-      <c r="G14" s="73">
+      <c r="G14" s="64">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H14" s="72"/>
+      <c r="H14" s="63"/>
       <c r="I14"/>
       <c r="J14"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="77"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
     </row>
     <row r="15" ht="20.25" spans="1:15">
-      <c r="A15" s="74" t="s">
+      <c r="A15" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="73">
+      <c r="B15" s="64">
         <v>4</v>
       </c>
-      <c r="C15" s="73">
+      <c r="C15" s="64">
         <v>4</v>
       </c>
-      <c r="D15" s="73">
+      <c r="D15" s="64">
         <v>4</v>
       </c>
-      <c r="E15" s="73">
+      <c r="E15" s="64">
         <v>4</v>
       </c>
-      <c r="F15" s="73">
+      <c r="F15" s="64">
         <v>4</v>
       </c>
-      <c r="G15" s="73">
+      <c r="G15" s="64">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H15" s="72"/>
+      <c r="H15" s="63"/>
       <c r="I15"/>
       <c r="J15"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="77"/>
-      <c r="O15" s="77"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
     </row>
     <row r="16" ht="20.25" spans="1:15">
-      <c r="A16" s="74" t="s">
+      <c r="A16" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="73">
+      <c r="B16" s="64">
         <v>4</v>
       </c>
-      <c r="C16" s="73">
+      <c r="C16" s="64">
         <v>4</v>
       </c>
-      <c r="D16" s="73">
+      <c r="D16" s="64">
         <v>4</v>
       </c>
-      <c r="E16" s="73">
+      <c r="E16" s="64">
         <v>4</v>
       </c>
-      <c r="F16" s="73">
+      <c r="F16" s="64">
         <v>4</v>
       </c>
-      <c r="G16" s="73">
+      <c r="G16" s="64">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H16" s="72"/>
+      <c r="H16" s="63"/>
       <c r="I16"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="77"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
     </row>
     <row r="17" ht="20.25" spans="1:15">
-      <c r="A17" s="74" t="s">
+      <c r="A17" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="73">
+      <c r="B17" s="64">
         <v>4</v>
       </c>
-      <c r="C17" s="73">
+      <c r="C17" s="64">
         <v>4</v>
       </c>
-      <c r="D17" s="73">
+      <c r="D17" s="64">
         <v>4</v>
       </c>
-      <c r="E17" s="73">
+      <c r="E17" s="64">
         <v>4</v>
       </c>
-      <c r="F17" s="73">
+      <c r="F17" s="64">
         <v>4</v>
       </c>
-      <c r="G17" s="73">
+      <c r="G17" s="64">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H17" s="72"/>
+      <c r="H17" s="63"/>
       <c r="I17"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="77"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
     </row>
     <row r="18" ht="48" customHeight="1" spans="1:15">
-      <c r="A18" s="71" t="s">
+      <c r="A18" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="72">
+      <c r="B18" s="63">
         <f>SUM(B2:B4,B8:B11)</f>
         <v>42</v>
       </c>
-      <c r="C18" s="72">
+      <c r="C18" s="63">
         <f>SUM(B2:C4,B8:C11)</f>
         <v>88</v>
       </c>
-      <c r="D18" s="72">
+      <c r="D18" s="63">
         <f>SUM(B2:D4,B8:D11)</f>
         <v>134</v>
       </c>
-      <c r="E18" s="72">
+      <c r="E18" s="63">
         <f>SUM(B2:E4,B8:E11)</f>
         <v>180</v>
       </c>
-      <c r="F18" s="72">
+      <c r="F18" s="63">
         <f>SUM(B2:F4,B8:F11)</f>
         <v>226</v>
       </c>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
       <c r="I18"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="77"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
     </row>
     <row r="19" ht="48" customHeight="1" spans="1:11">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="72">
+      <c r="B19" s="63">
         <f>SUM(B2:B17)</f>
         <v>96</v>
       </c>
-      <c r="C19" s="72">
+      <c r="C19" s="63">
         <f>SUM(B2:C17)</f>
         <v>196</v>
       </c>
-      <c r="D19" s="72">
+      <c r="D19" s="63">
         <f>SUM(B2:D17)</f>
         <v>296</v>
       </c>
-      <c r="E19" s="72">
+      <c r="E19" s="63">
         <f>SUM(B2:E17)</f>
         <v>396</v>
       </c>
-      <c r="F19" s="72">
+      <c r="F19" s="63">
         <f>SUM(B2:F17)</f>
         <v>496</v>
       </c>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
     </row>
     <row r="20" ht="20.25" spans="1:11">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
     </row>
     <row r="21" ht="20.25" spans="1:11">
       <c r="A21"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
     </row>
     <row r="22" ht="20.25" spans="1:11">
       <c r="A22"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
     </row>
     <row r="23" ht="20.25" spans="1:11">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
     </row>
     <row r="24" ht="20.25" spans="1:11">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
     </row>
     <row r="25" ht="20.25" spans="1:11">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
     </row>
     <row r="26" ht="20.25" spans="1:11">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
     </row>
     <row r="27" ht="20.25" spans="1:11">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
     </row>
     <row r="28" ht="20.25" spans="1:11">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
     </row>
     <row r="29" ht="20.25" spans="1:11">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
     </row>
     <row r="30" ht="20.25" spans="1:11">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3192,413 +3198,413 @@
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:6">
-      <c r="A1" s="59"/>
-      <c r="B1" s="59"/>
-      <c r="C1" s="58" t="s">
+      <c r="A1" s="50"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="49" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" ht="166" customHeight="1" spans="1:9">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60" t="s">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
     </row>
     <row r="3" ht="100" customHeight="1" spans="1:9">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="58" t="s">
+      <c r="A3" s="56"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="62" t="s">
+      <c r="D3" s="57"/>
+      <c r="E3" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
     </row>
     <row r="4" ht="288" customHeight="1" spans="1:9">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="58" t="s">
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="62" t="s">
+      <c r="D4" s="59"/>
+      <c r="E4" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="69"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
     </row>
     <row r="5" ht="60.75" spans="1:9">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60" t="s">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="61" t="s">
+      <c r="C5" s="49"/>
+      <c r="D5" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="63" t="s">
+      <c r="F5" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
     </row>
     <row r="6" ht="47" customHeight="1" spans="1:9">
-      <c r="A6" s="65"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="62" t="s">
+      <c r="A6" s="56"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="67"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
     </row>
     <row r="7" ht="47" customHeight="1" spans="1:9">
-      <c r="A7" s="65"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
     </row>
     <row r="8" ht="47" customHeight="1" spans="1:9">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60" t="s">
+      <c r="A8" s="51"/>
+      <c r="B8" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="61" t="s">
+      <c r="C8" s="49"/>
+      <c r="D8" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
     </row>
     <row r="9" ht="47" customHeight="1" spans="1:9">
-      <c r="A9" s="65"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
     </row>
     <row r="10" ht="47" customHeight="1" spans="1:9">
-      <c r="A10" s="65"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
     </row>
     <row r="11" ht="24" customHeight="1" spans="1:9">
-      <c r="A11" s="60"/>
-      <c r="B11" s="60" t="s">
+      <c r="A11" s="51"/>
+      <c r="B11" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
     </row>
     <row r="12" ht="24" customHeight="1" spans="1:9">
-      <c r="A12" s="65"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
     </row>
     <row r="13" ht="24" customHeight="1" spans="1:9">
-      <c r="A13" s="65"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
     </row>
     <row r="14" ht="24" customHeight="1" spans="1:9">
-      <c r="A14" s="64"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
     </row>
     <row r="15" ht="24" customHeight="1" spans="1:9">
-      <c r="A15" s="64"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
     </row>
     <row r="16" ht="24" customHeight="1" spans="1:9">
-      <c r="A16" s="64"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
     </row>
     <row r="17" ht="24" customHeight="1" spans="1:9">
-      <c r="A17" s="64"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
     </row>
     <row r="18" ht="24" customHeight="1" spans="1:9">
-      <c r="A18" s="64"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
     </row>
     <row r="19" ht="24" customHeight="1" spans="1:9">
-      <c r="A19" s="64"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
     </row>
     <row r="20" ht="24" customHeight="1" spans="1:9">
-      <c r="A20" s="64"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
     </row>
     <row r="21" ht="24" customHeight="1" spans="1:9">
-      <c r="A21" s="64"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
     </row>
     <row r="22" ht="24" customHeight="1" spans="1:9">
-      <c r="A22" s="64"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
     </row>
     <row r="23" ht="24" customHeight="1" spans="1:9">
-      <c r="A23" s="64"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
     </row>
     <row r="24" ht="24" customHeight="1" spans="1:9">
-      <c r="A24" s="64"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
     </row>
     <row r="25" ht="24" customHeight="1" spans="1:9">
-      <c r="A25" s="64"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
     </row>
     <row r="26" ht="24" customHeight="1" spans="1:9">
-      <c r="A26" s="64"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
     </row>
     <row r="27" ht="24" customHeight="1" spans="1:9">
-      <c r="A27" s="64"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
     </row>
     <row r="28" ht="24" customHeight="1" spans="1:9">
-      <c r="A28" s="64"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
     </row>
     <row r="29" ht="24" customHeight="1" spans="1:9">
-      <c r="A29" s="64"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
     </row>
     <row r="30" ht="24" customHeight="1" spans="1:9">
-      <c r="A30" s="64"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
     </row>
     <row r="31" ht="24" customHeight="1" spans="1:9">
-      <c r="A31" s="64"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
     </row>
     <row r="32" ht="24" customHeight="1" spans="1:9">
-      <c r="A32" s="64"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
     </row>
     <row r="33" ht="20.25" spans="1:5">
-      <c r="A33" s="64"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="64"/>
-      <c r="E33" s="64"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="E33" s="55"/>
     </row>
     <row r="34" ht="20.25" spans="1:5">
-      <c r="A34" s="64"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="64"/>
-      <c r="E34" s="64"/>
+      <c r="A34" s="55"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="E34" s="55"/>
     </row>
     <row r="35" ht="20.25" spans="1:5">
-      <c r="A35" s="64"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="E35" s="64"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="E35" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3638,82 +3644,82 @@
   </cols>
   <sheetData>
     <row r="1" ht="20.25" spans="1:2">
-      <c r="A1" s="55"/>
-      <c r="B1" s="56"/>
+      <c r="A1" s="46"/>
+      <c r="B1" s="47"/>
     </row>
     <row r="2" ht="40.5" spans="1:2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="49" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" ht="60.75" spans="1:2">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="49" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" ht="121.5" spans="1:2">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="49" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" ht="20.25" spans="1:2">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="58"/>
+      <c r="B5" s="49"/>
     </row>
     <row r="6" ht="20.25" spans="1:2">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="58"/>
+      <c r="B6" s="49"/>
     </row>
     <row r="7" ht="20.25" spans="1:2">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="58"/>
+      <c r="B7" s="49"/>
     </row>
     <row r="8" ht="20.25" spans="1:2">
-      <c r="A8" s="57"/>
-      <c r="B8" s="58"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="49"/>
     </row>
     <row r="9" ht="20.25" spans="1:2">
-      <c r="A9" s="57"/>
-      <c r="B9" s="58"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="49"/>
     </row>
     <row r="10" ht="20.25" spans="1:2">
-      <c r="A10" s="57"/>
-      <c r="B10" s="58"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="49"/>
     </row>
     <row r="11" ht="20.25" spans="1:2">
-      <c r="A11" s="57"/>
-      <c r="B11" s="58"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="49"/>
     </row>
     <row r="12" ht="20.25" spans="1:2">
-      <c r="A12" s="57"/>
-      <c r="B12" s="58"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="49"/>
     </row>
     <row r="13" ht="20.25" spans="1:2">
-      <c r="A13" s="57"/>
-      <c r="B13" s="58"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="49"/>
     </row>
     <row r="14" ht="20.25" spans="1:2">
-      <c r="A14" s="57"/>
-      <c r="B14" s="58"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="49"/>
     </row>
     <row r="15" ht="20.25" spans="1:2">
-      <c r="A15" s="57"/>
-      <c r="B15" s="58"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3727,9 +3733,9 @@
   <dimension ref="A1:R250"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3759,1448 +3765,1448 @@
       <c r="D1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="19"/>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="17" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="16" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="17" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="17" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="17" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="19"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19" t="s">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18" t="s">
+      <c r="D20" s="16"/>
+      <c r="E20" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="17" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="17" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="17" t="s">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20" t="s">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="17" t="s">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="17" t="s">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="17" t="s">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="18" t="s">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="18" t="s">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="18" t="s">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="19"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="19"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="19"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="19"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="19"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="19"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="19"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="19"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B46" s="15" t="s">
+      <c r="A46" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
+      <c r="B46" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="15"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="19"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="19"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
+      <c r="A48" s="18"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
     </row>
     <row r="49" ht="27" spans="1:11">
-      <c r="A49" s="19"/>
-      <c r="B49" s="15" t="s">
+      <c r="A49" s="18"/>
+      <c r="B49" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C49" s="23" t="s">
+      <c r="C49" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="D49" s="17" t="s">
+      <c r="D49" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="18"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="16"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="18"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="18"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="18"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="18"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="18"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="18"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="18"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="18"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="18"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="18"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="18"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="18"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="18"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="18"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="17"/>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="18"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="18"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="17"/>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="18"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="18"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="18"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="18"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="17"/>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="18"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="18"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="18"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="18"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="23"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="23"/>
+      <c r="B76" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="17"/>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="23"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="23"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="23"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="23"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="17"/>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="23"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="17"/>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="23"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="17"/>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="23"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="17"/>
+      <c r="K83" s="17"/>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="23"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
+      <c r="K84" s="17"/>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="23"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="17"/>
+      <c r="J85" s="17"/>
+      <c r="K85" s="17"/>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="23"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="17"/>
+      <c r="K86" s="17"/>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="23"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="17"/>
+      <c r="J87" s="17"/>
+      <c r="K87" s="17"/>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="23"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="23"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="17"/>
+      <c r="K89" s="17"/>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="23"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="17"/>
+      <c r="K90" s="17"/>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="23"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="17"/>
+      <c r="J91" s="17"/>
+      <c r="K91" s="17"/>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="23"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="17"/>
+      <c r="K92" s="17"/>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="23"/>
+      <c r="B93" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C93" s="28"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="23"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="17"/>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="23"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="17"/>
+      <c r="K95" s="17"/>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="23"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="17"/>
+      <c r="J96" s="17"/>
+      <c r="K96" s="17"/>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="23"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="17"/>
+      <c r="J97" s="17"/>
+      <c r="K97" s="17"/>
+    </row>
+    <row r="98" ht="40.5" spans="1:18">
+      <c r="A98" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B98" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E49" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="F49" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="19"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D50" s="17"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="19"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="19"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="19"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="19"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="19"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18"/>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="19"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="19"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="19"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="19"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="19"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="18"/>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="19"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18"/>
-      <c r="K61" s="18"/>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="19"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18"/>
-      <c r="K62" s="18"/>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="19"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="18"/>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="19"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="18"/>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="19"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
-      <c r="I65" s="18"/>
-      <c r="J65" s="18"/>
-      <c r="K65" s="18"/>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="19"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="18"/>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="19"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="18"/>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="19"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="18"/>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="19"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="18"/>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="19"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18"/>
-      <c r="K70" s="18"/>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="19"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="18"/>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="19"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="18"/>
-      <c r="K72" s="18"/>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="19"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="18"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="18"/>
-      <c r="K73" s="18"/>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="19"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="18"/>
-      <c r="K74" s="18"/>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="24"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="18"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="18"/>
-      <c r="K75" s="18"/>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="24"/>
-      <c r="B76" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
-      <c r="J76" s="18"/>
-      <c r="K76" s="18"/>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="24"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E77" s="18"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18"/>
-      <c r="H77" s="18"/>
-      <c r="I77" s="18"/>
-      <c r="J77" s="18"/>
-      <c r="K77" s="18"/>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="24"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="18"/>
-      <c r="I78" s="18"/>
-      <c r="J78" s="18"/>
-      <c r="K78" s="18"/>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="24"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="18"/>
-      <c r="K79" s="18"/>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="24"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="E80" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="18"/>
-    </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="24"/>
-      <c r="B81" s="24"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="18"/>
-      <c r="K81" s="18"/>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="24"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="18"/>
-      <c r="I82" s="18"/>
-      <c r="J82" s="18"/>
-      <c r="K82" s="18"/>
-    </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="24"/>
-      <c r="B83" s="24"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
-      <c r="I83" s="18"/>
-      <c r="J83" s="18"/>
-      <c r="K83" s="18"/>
-    </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="24"/>
-      <c r="B84" s="24"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
-      <c r="I84" s="18"/>
-      <c r="J84" s="18"/>
-      <c r="K84" s="18"/>
-    </row>
-    <row r="85" spans="1:11">
-      <c r="A85" s="24"/>
-      <c r="B85" s="24"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="18"/>
-      <c r="H85" s="18"/>
-      <c r="I85" s="18"/>
-      <c r="J85" s="18"/>
-      <c r="K85" s="18"/>
-    </row>
-    <row r="86" spans="1:11">
-      <c r="A86" s="24"/>
-      <c r="B86" s="24"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="18"/>
-      <c r="H86" s="18"/>
-      <c r="I86" s="18"/>
-      <c r="J86" s="18"/>
-      <c r="K86" s="18"/>
-    </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="24"/>
-      <c r="B87" s="24"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="E87" s="18"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="18"/>
-      <c r="H87" s="18"/>
-      <c r="I87" s="18"/>
-      <c r="J87" s="18"/>
-      <c r="K87" s="18"/>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="24"/>
-      <c r="B88" s="24"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E88" s="18"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="18"/>
-      <c r="H88" s="18"/>
-      <c r="I88" s="18"/>
-      <c r="J88" s="18"/>
-      <c r="K88" s="18"/>
-    </row>
-    <row r="89" spans="1:11">
-      <c r="A89" s="24"/>
-      <c r="B89" s="24"/>
-      <c r="C89" s="25"/>
-      <c r="D89" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E89" s="18"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="18"/>
-      <c r="H89" s="18"/>
-      <c r="I89" s="18"/>
-      <c r="J89" s="18"/>
-      <c r="K89" s="18"/>
-    </row>
-    <row r="90" spans="1:11">
-      <c r="A90" s="24"/>
-      <c r="B90" s="24"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="18"/>
-      <c r="I90" s="18"/>
-      <c r="J90" s="18"/>
-      <c r="K90" s="18"/>
-    </row>
-    <row r="91" spans="1:11">
-      <c r="A91" s="24"/>
-      <c r="B91" s="24"/>
-      <c r="C91" s="25"/>
-      <c r="D91" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="E91" s="18"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="18"/>
-      <c r="H91" s="18"/>
-      <c r="I91" s="18"/>
-      <c r="J91" s="18"/>
-      <c r="K91" s="18"/>
-    </row>
-    <row r="92" spans="1:11">
-      <c r="A92" s="24"/>
-      <c r="B92" s="26"/>
-      <c r="C92" s="27"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="18"/>
-      <c r="I92" s="18"/>
-      <c r="J92" s="18"/>
-      <c r="K92" s="18"/>
-    </row>
-    <row r="93" spans="1:11">
-      <c r="A93" s="24"/>
-      <c r="B93" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="C93" s="29"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="18"/>
-      <c r="H93" s="18"/>
-      <c r="I93" s="18"/>
-      <c r="J93" s="18"/>
-      <c r="K93" s="18"/>
-    </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="24"/>
-      <c r="B94" s="24"/>
-      <c r="C94" s="25"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="18"/>
-      <c r="H94" s="18"/>
-      <c r="I94" s="18"/>
-      <c r="J94" s="18"/>
-      <c r="K94" s="18"/>
-    </row>
-    <row r="95" spans="1:11">
-      <c r="A95" s="24"/>
-      <c r="B95" s="24"/>
-      <c r="C95" s="25"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="18"/>
-      <c r="F95" s="18"/>
-      <c r="G95" s="18"/>
-      <c r="H95" s="18"/>
-      <c r="I95" s="18"/>
-      <c r="J95" s="18"/>
-      <c r="K95" s="18"/>
-    </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="24"/>
-      <c r="B96" s="24"/>
-      <c r="C96" s="25"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="18"/>
-      <c r="H96" s="18"/>
-      <c r="I96" s="18"/>
-      <c r="J96" s="18"/>
-      <c r="K96" s="18"/>
-    </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="24"/>
-      <c r="B97" s="26"/>
-      <c r="C97" s="27"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="18"/>
-      <c r="H97" s="18"/>
-      <c r="I97" s="18"/>
-      <c r="J97" s="18"/>
-      <c r="K97" s="18"/>
-    </row>
-    <row r="98" ht="40.5" spans="1:18">
-      <c r="A98" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="B98" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C98" s="20"/>
-      <c r="D98" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="E98" s="18" t="s">
+      <c r="C98" s="19"/>
+      <c r="D98" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="F98" s="18"/>
-      <c r="G98" s="18"/>
-      <c r="H98" s="18"/>
-      <c r="I98" s="18"/>
-      <c r="J98" s="18"/>
-      <c r="K98" s="18"/>
+      <c r="E98" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="17"/>
       <c r="L98"/>
       <c r="M98"/>
       <c r="N98"/>
@@ -5210,19 +5216,19 @@
       <c r="R98"/>
     </row>
     <row r="99" ht="40.5" spans="1:18">
-      <c r="A99" s="19"/>
-      <c r="B99" s="21"/>
-      <c r="C99" s="22"/>
-      <c r="D99" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="18"/>
-      <c r="H99" s="18"/>
-      <c r="I99" s="18"/>
-      <c r="J99" s="18"/>
-      <c r="K99" s="18"/>
+      <c r="A99" s="18"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="17"/>
+      <c r="J99" s="17"/>
+      <c r="K99" s="17"/>
       <c r="L99"/>
       <c r="M99"/>
       <c r="N99"/>
@@ -5232,19 +5238,19 @@
       <c r="R99"/>
     </row>
     <row r="100" spans="1:18">
-      <c r="A100" s="19"/>
-      <c r="B100" s="19" t="s">
+      <c r="A100" s="18"/>
+      <c r="B100" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C100" s="20"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="18"/>
-      <c r="F100" s="18"/>
-      <c r="G100" s="18"/>
-      <c r="H100" s="18"/>
-      <c r="I100" s="18"/>
-      <c r="J100" s="18"/>
-      <c r="K100" s="18"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="17"/>
+      <c r="J100" s="17"/>
+      <c r="K100" s="17"/>
       <c r="L100"/>
       <c r="M100"/>
       <c r="N100"/>
@@ -5254,19 +5260,19 @@
       <c r="R100"/>
     </row>
     <row r="101" spans="1:18">
-      <c r="A101" s="19"/>
-      <c r="B101" s="19"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="18"/>
-      <c r="F101" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="G101" s="18"/>
-      <c r="H101" s="18"/>
-      <c r="I101" s="18"/>
-      <c r="J101" s="18"/>
-      <c r="K101" s="18"/>
+      <c r="A101" s="18"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="G101" s="17"/>
+      <c r="H101" s="17"/>
+      <c r="I101" s="17"/>
+      <c r="J101" s="17"/>
+      <c r="K101" s="17"/>
       <c r="L101"/>
       <c r="M101"/>
       <c r="N101"/>
@@ -5276,19 +5282,19 @@
       <c r="R101"/>
     </row>
     <row r="102" spans="1:18">
-      <c r="A102" s="19"/>
-      <c r="B102" s="19"/>
-      <c r="C102" s="20"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="18"/>
-      <c r="F102" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="G102" s="18"/>
-      <c r="H102" s="18"/>
-      <c r="I102" s="18"/>
-      <c r="J102" s="18"/>
-      <c r="K102" s="18"/>
+      <c r="A102" s="18"/>
+      <c r="B102" s="18"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="G102" s="17"/>
+      <c r="H102" s="17"/>
+      <c r="I102" s="17"/>
+      <c r="J102" s="17"/>
+      <c r="K102" s="17"/>
       <c r="L102"/>
       <c r="M102"/>
       <c r="N102"/>
@@ -5298,19 +5304,19 @@
       <c r="R102"/>
     </row>
     <row r="103" spans="1:18">
-      <c r="A103" s="19"/>
-      <c r="B103" s="21"/>
-      <c r="C103" s="22"/>
-      <c r="D103" s="17"/>
-      <c r="E103" s="18"/>
-      <c r="F103" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="G103" s="18"/>
-      <c r="H103" s="18"/>
-      <c r="I103" s="18"/>
-      <c r="J103" s="18"/>
-      <c r="K103" s="18"/>
+      <c r="A103" s="18"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="G103" s="17"/>
+      <c r="H103" s="17"/>
+      <c r="I103" s="17"/>
+      <c r="J103" s="17"/>
+      <c r="K103" s="17"/>
       <c r="L103"/>
       <c r="M103"/>
       <c r="N103"/>
@@ -5320,2153 +5326,2153 @@
       <c r="R103"/>
     </row>
     <row r="104" spans="1:11">
-      <c r="A104" s="19"/>
-      <c r="B104" s="19" t="s">
+      <c r="A104" s="18"/>
+      <c r="B104" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C104" s="20" t="s">
+      <c r="C104" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D104" s="17"/>
-      <c r="E104" s="18"/>
-      <c r="F104" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="G104" s="18"/>
-      <c r="H104" s="18"/>
-      <c r="I104" s="18"/>
-      <c r="J104" s="18"/>
-      <c r="K104" s="18"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G104" s="17"/>
+      <c r="H104" s="17"/>
+      <c r="I104" s="17"/>
+      <c r="J104" s="17"/>
+      <c r="K104" s="17"/>
     </row>
     <row r="105" spans="1:11">
-      <c r="A105" s="19"/>
-      <c r="B105" s="19"/>
-      <c r="C105" s="22"/>
-      <c r="D105" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E105" s="18"/>
-      <c r="F105" s="18"/>
-      <c r="G105" s="18"/>
-      <c r="H105" s="18"/>
-      <c r="I105" s="18"/>
-      <c r="J105" s="18"/>
-      <c r="K105" s="18"/>
+      <c r="A105" s="18"/>
+      <c r="B105" s="18"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="E105" s="17"/>
+      <c r="F105" s="17"/>
+      <c r="G105" s="17"/>
+      <c r="H105" s="17"/>
+      <c r="I105" s="17"/>
+      <c r="J105" s="17"/>
+      <c r="K105" s="17"/>
     </row>
     <row r="106" spans="1:11">
-      <c r="A106" s="19"/>
-      <c r="B106" s="19"/>
-      <c r="C106" s="20"/>
-      <c r="D106" s="17"/>
-      <c r="E106" s="18"/>
-      <c r="F106" s="18"/>
-      <c r="G106" s="18"/>
-      <c r="H106" s="18"/>
-      <c r="I106" s="18"/>
-      <c r="J106" s="18"/>
-      <c r="K106" s="18"/>
+      <c r="A106" s="18"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="17"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="17"/>
+      <c r="I106" s="17"/>
+      <c r="J106" s="17"/>
+      <c r="K106" s="17"/>
     </row>
     <row r="107" spans="1:11">
-      <c r="A107" s="19"/>
-      <c r="B107" s="19"/>
-      <c r="C107" s="20"/>
-      <c r="D107" s="17"/>
-      <c r="E107" s="18"/>
-      <c r="F107" s="18"/>
-      <c r="G107" s="18"/>
-      <c r="H107" s="18"/>
-      <c r="I107" s="18"/>
-      <c r="J107" s="18"/>
-      <c r="K107" s="18"/>
+      <c r="A107" s="18"/>
+      <c r="B107" s="18"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="17"/>
+      <c r="G107" s="17"/>
+      <c r="H107" s="17"/>
+      <c r="I107" s="17"/>
+      <c r="J107" s="17"/>
+      <c r="K107" s="17"/>
     </row>
     <row r="108" spans="1:11">
-      <c r="A108" s="19"/>
-      <c r="B108" s="21"/>
-      <c r="C108" s="22"/>
-      <c r="D108" s="17"/>
-      <c r="E108" s="18"/>
-      <c r="F108" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="G108" s="18"/>
-      <c r="H108" s="18"/>
-      <c r="I108" s="18"/>
-      <c r="J108" s="18"/>
-      <c r="K108" s="18"/>
+      <c r="A108" s="18"/>
+      <c r="B108" s="20"/>
+      <c r="C108" s="21"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G108" s="17"/>
+      <c r="H108" s="17"/>
+      <c r="I108" s="17"/>
+      <c r="J108" s="17"/>
+      <c r="K108" s="17"/>
     </row>
     <row r="109" spans="1:11">
-      <c r="A109" s="19"/>
-      <c r="B109" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="C109" s="20"/>
-      <c r="D109" s="17"/>
-      <c r="E109" s="18"/>
-      <c r="F109" s="18"/>
-      <c r="G109" s="18"/>
-      <c r="H109" s="18"/>
-      <c r="I109" s="18"/>
-      <c r="J109" s="18"/>
-      <c r="K109" s="18"/>
+      <c r="A109" s="18"/>
+      <c r="B109" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C109" s="19"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="17"/>
+      <c r="H109" s="17"/>
+      <c r="I109" s="17"/>
+      <c r="J109" s="17"/>
+      <c r="K109" s="17"/>
     </row>
     <row r="110" spans="1:11">
-      <c r="A110" s="21"/>
-      <c r="B110" s="21"/>
-      <c r="C110" s="22"/>
-      <c r="D110" s="17"/>
-      <c r="E110" s="18"/>
-      <c r="F110" s="18"/>
-      <c r="G110" s="18"/>
-      <c r="H110" s="18"/>
-      <c r="I110" s="18"/>
-      <c r="J110" s="18"/>
-      <c r="K110" s="18"/>
+      <c r="A110" s="20"/>
+      <c r="B110" s="20"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="17"/>
+      <c r="H110" s="17"/>
+      <c r="I110" s="17"/>
+      <c r="J110" s="17"/>
+      <c r="K110" s="17"/>
     </row>
     <row r="111" spans="1:11">
-      <c r="A111" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="B111" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="C111" s="32"/>
-      <c r="D111" s="17"/>
-      <c r="E111" s="18"/>
-      <c r="F111" s="18"/>
-      <c r="G111" s="18"/>
-      <c r="H111" s="18"/>
-      <c r="I111" s="18"/>
-      <c r="J111" s="18"/>
-      <c r="K111" s="18"/>
+      <c r="A111" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B111" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C111" s="31"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="17"/>
+      <c r="G111" s="17"/>
+      <c r="H111" s="17"/>
+      <c r="I111" s="17"/>
+      <c r="J111" s="17"/>
+      <c r="K111" s="17"/>
     </row>
     <row r="112" spans="1:11">
-      <c r="A112" s="33"/>
-      <c r="B112" s="34"/>
-      <c r="C112" s="35"/>
-      <c r="D112" s="17"/>
-      <c r="E112" s="18"/>
-      <c r="F112" s="18"/>
-      <c r="G112" s="18"/>
-      <c r="H112" s="18"/>
-      <c r="I112" s="18"/>
-      <c r="J112" s="18"/>
-      <c r="K112" s="18"/>
+      <c r="A112" s="32"/>
+      <c r="B112" s="33"/>
+      <c r="C112" s="34"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="17"/>
+      <c r="I112" s="17"/>
+      <c r="J112" s="17"/>
+      <c r="K112" s="17"/>
     </row>
     <row r="113" ht="27" spans="1:11">
-      <c r="A113" s="33"/>
-      <c r="B113" s="31" t="s">
+      <c r="A113" s="32"/>
+      <c r="B113" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C113" s="32" t="s">
+      <c r="C113" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="D113" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="E113" s="18"/>
-      <c r="F113" s="18"/>
-      <c r="G113" s="18"/>
-      <c r="H113" s="18"/>
-      <c r="I113" s="18"/>
-      <c r="J113" s="18"/>
-      <c r="K113" s="18"/>
+      <c r="D113" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E113" s="17"/>
+      <c r="F113" s="17"/>
+      <c r="G113" s="17"/>
+      <c r="H113" s="17"/>
+      <c r="I113" s="17"/>
+      <c r="J113" s="17"/>
+      <c r="K113" s="17"/>
     </row>
     <row r="114" spans="1:11">
-      <c r="A114" s="33"/>
-      <c r="B114" s="36"/>
-      <c r="C114" s="35"/>
-      <c r="D114" s="17"/>
-      <c r="E114" s="18"/>
-      <c r="F114" s="18"/>
-      <c r="G114" s="18"/>
-      <c r="H114" s="18"/>
-      <c r="I114" s="18"/>
-      <c r="J114" s="18"/>
-      <c r="K114" s="18"/>
+      <c r="A114" s="32"/>
+      <c r="B114" s="35"/>
+      <c r="C114" s="34"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="17"/>
+      <c r="G114" s="17"/>
+      <c r="H114" s="17"/>
+      <c r="I114" s="17"/>
+      <c r="J114" s="17"/>
+      <c r="K114" s="17"/>
     </row>
     <row r="115" spans="1:11">
-      <c r="A115" s="33"/>
-      <c r="B115" s="36"/>
-      <c r="C115" s="32" t="s">
+      <c r="A115" s="32"/>
+      <c r="B115" s="35"/>
+      <c r="C115" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="D115" s="17"/>
-      <c r="E115" s="18"/>
-      <c r="F115" s="18"/>
-      <c r="G115" s="18"/>
-      <c r="H115" s="18"/>
-      <c r="I115" s="18"/>
-      <c r="J115" s="18"/>
-      <c r="K115" s="18"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="17"/>
+      <c r="F115" s="17"/>
+      <c r="G115" s="17"/>
+      <c r="H115" s="17"/>
+      <c r="I115" s="17"/>
+      <c r="J115" s="17"/>
+      <c r="K115" s="17"/>
     </row>
     <row r="116" spans="1:11">
-      <c r="A116" s="33"/>
-      <c r="B116" s="37"/>
-      <c r="C116" s="38"/>
-      <c r="D116" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="E116" s="18"/>
-      <c r="F116" s="18"/>
-      <c r="G116" s="18"/>
-      <c r="H116" s="18"/>
-      <c r="I116" s="18"/>
-      <c r="J116" s="18"/>
-      <c r="K116" s="18"/>
+      <c r="A116" s="32"/>
+      <c r="B116" s="35"/>
+      <c r="C116" s="36"/>
+      <c r="D116" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="E116" s="17"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="17"/>
+      <c r="H116" s="17"/>
+      <c r="I116" s="17"/>
+      <c r="J116" s="17"/>
+      <c r="K116" s="17"/>
     </row>
     <row r="117" spans="1:11">
-      <c r="A117" s="33"/>
-      <c r="B117" s="37"/>
-      <c r="C117" s="38"/>
-      <c r="D117" s="17"/>
-      <c r="E117" s="18"/>
-      <c r="F117" s="18"/>
-      <c r="G117" s="18"/>
-      <c r="H117" s="18"/>
-      <c r="I117" s="18"/>
-      <c r="J117" s="18"/>
-      <c r="K117" s="18"/>
+      <c r="A117" s="32"/>
+      <c r="B117" s="35"/>
+      <c r="C117" s="36"/>
+      <c r="D117" s="16"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="17"/>
+      <c r="H117" s="17"/>
+      <c r="I117" s="17"/>
+      <c r="J117" s="17"/>
+      <c r="K117" s="17"/>
     </row>
     <row r="118" spans="1:11">
-      <c r="A118" s="33"/>
-      <c r="B118" s="37"/>
-      <c r="C118" s="38"/>
-      <c r="D118" s="17"/>
-      <c r="E118" s="18"/>
-      <c r="F118" s="18"/>
-      <c r="G118" s="18"/>
-      <c r="H118" s="18"/>
-      <c r="I118" s="18"/>
-      <c r="J118" s="18"/>
-      <c r="K118" s="18"/>
+      <c r="A118" s="32"/>
+      <c r="B118" s="35"/>
+      <c r="C118" s="36"/>
+      <c r="D118" s="16"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="17"/>
+      <c r="G118" s="17"/>
+      <c r="H118" s="17"/>
+      <c r="I118" s="17"/>
+      <c r="J118" s="17"/>
+      <c r="K118" s="17"/>
     </row>
     <row r="119" spans="1:11">
-      <c r="A119" s="33"/>
-      <c r="B119" s="34"/>
-      <c r="C119" s="35"/>
-      <c r="D119" s="17"/>
-      <c r="E119" s="18"/>
-      <c r="F119" s="18"/>
-      <c r="G119" s="18"/>
-      <c r="H119" s="18"/>
-      <c r="I119" s="18"/>
-      <c r="J119" s="18"/>
-      <c r="K119" s="18"/>
+      <c r="A119" s="32"/>
+      <c r="B119" s="33"/>
+      <c r="C119" s="34"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="17"/>
+      <c r="G119" s="17"/>
+      <c r="H119" s="17"/>
+      <c r="I119" s="17"/>
+      <c r="J119" s="17"/>
+      <c r="K119" s="17"/>
     </row>
     <row r="120" spans="1:11">
-      <c r="A120" s="33"/>
-      <c r="B120" s="31" t="s">
+      <c r="A120" s="32"/>
+      <c r="B120" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="C120" s="32" t="s">
+      <c r="C120" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="D120" s="17"/>
-      <c r="E120" s="18"/>
-      <c r="F120" s="18"/>
-      <c r="G120" s="18"/>
-      <c r="H120" s="18"/>
-      <c r="I120" s="18"/>
-      <c r="J120" s="18"/>
-      <c r="K120" s="18"/>
+      <c r="D120" s="16"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="17"/>
+      <c r="G120" s="17"/>
+      <c r="H120" s="17"/>
+      <c r="I120" s="17"/>
+      <c r="J120" s="17"/>
+      <c r="K120" s="17"/>
     </row>
     <row r="121" spans="1:11">
-      <c r="A121" s="33"/>
-      <c r="B121" s="36"/>
-      <c r="C121" s="35"/>
-      <c r="D121" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="E121" s="18"/>
-      <c r="F121" s="18"/>
-      <c r="G121" s="18"/>
-      <c r="H121" s="18"/>
-      <c r="I121" s="18"/>
-      <c r="J121" s="18"/>
-      <c r="K121" s="18"/>
+      <c r="A121" s="32"/>
+      <c r="B121" s="35"/>
+      <c r="C121" s="34"/>
+      <c r="D121" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E121" s="17"/>
+      <c r="F121" s="17"/>
+      <c r="G121" s="17"/>
+      <c r="H121" s="17"/>
+      <c r="I121" s="17"/>
+      <c r="J121" s="17"/>
+      <c r="K121" s="17"/>
     </row>
     <row r="122" spans="1:11">
-      <c r="A122" s="33"/>
-      <c r="B122" s="36"/>
-      <c r="C122" s="32" t="s">
+      <c r="A122" s="32"/>
+      <c r="B122" s="35"/>
+      <c r="C122" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="D122" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="E122" s="18"/>
-      <c r="F122" s="18"/>
-      <c r="G122" s="18"/>
-      <c r="H122" s="18"/>
-      <c r="I122" s="18"/>
-      <c r="J122" s="18"/>
-      <c r="K122" s="18"/>
+      <c r="D122" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="E122" s="17"/>
+      <c r="F122" s="17"/>
+      <c r="G122" s="17"/>
+      <c r="H122" s="17"/>
+      <c r="I122" s="17"/>
+      <c r="J122" s="17"/>
+      <c r="K122" s="17"/>
     </row>
     <row r="123" spans="1:11">
-      <c r="A123" s="33"/>
-      <c r="B123" s="36"/>
-      <c r="C123" s="39"/>
-      <c r="D123" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="E123" s="18"/>
-      <c r="F123" s="18"/>
-      <c r="G123" s="18"/>
-      <c r="H123" s="18"/>
-      <c r="I123" s="18"/>
-      <c r="J123" s="18"/>
-      <c r="K123" s="18"/>
+      <c r="A123" s="32"/>
+      <c r="B123" s="35"/>
+      <c r="C123" s="36"/>
+      <c r="D123" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="E123" s="17"/>
+      <c r="F123" s="17"/>
+      <c r="G123" s="17"/>
+      <c r="H123" s="17"/>
+      <c r="I123" s="17"/>
+      <c r="J123" s="17"/>
+      <c r="K123" s="17"/>
     </row>
     <row r="124" spans="1:11">
-      <c r="A124" s="33"/>
-      <c r="B124" s="36"/>
-      <c r="C124" s="39"/>
-      <c r="D124" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="E124" s="18"/>
-      <c r="F124" s="18"/>
-      <c r="G124" s="18"/>
-      <c r="H124" s="18"/>
-      <c r="I124" s="18"/>
-      <c r="J124" s="18"/>
-      <c r="K124" s="18"/>
+      <c r="A124" s="32"/>
+      <c r="B124" s="35"/>
+      <c r="C124" s="36"/>
+      <c r="D124" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="E124" s="17"/>
+      <c r="F124" s="17"/>
+      <c r="G124" s="17"/>
+      <c r="H124" s="17"/>
+      <c r="I124" s="17"/>
+      <c r="J124" s="17"/>
+      <c r="K124" s="17"/>
     </row>
     <row r="125" spans="1:11">
-      <c r="A125" s="33"/>
-      <c r="B125" s="36"/>
-      <c r="C125" s="39"/>
-      <c r="D125" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="E125" s="18"/>
-      <c r="F125" s="18"/>
-      <c r="G125" s="18"/>
-      <c r="H125" s="18"/>
-      <c r="I125" s="18"/>
-      <c r="J125" s="18"/>
-      <c r="K125" s="18"/>
+      <c r="A125" s="32"/>
+      <c r="B125" s="35"/>
+      <c r="C125" s="36"/>
+      <c r="D125" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E125" s="17"/>
+      <c r="F125" s="17"/>
+      <c r="G125" s="17"/>
+      <c r="H125" s="17"/>
+      <c r="I125" s="17"/>
+      <c r="J125" s="17"/>
+      <c r="K125" s="17"/>
     </row>
     <row r="126" spans="1:11">
-      <c r="A126" s="33"/>
-      <c r="B126" s="34"/>
-      <c r="C126" s="35"/>
-      <c r="D126" s="40"/>
-      <c r="E126" s="18"/>
-      <c r="F126" s="18"/>
-      <c r="G126" s="18"/>
-      <c r="H126" s="18"/>
-      <c r="I126" s="18"/>
-      <c r="J126" s="18"/>
-      <c r="K126" s="18"/>
+      <c r="A126" s="32"/>
+      <c r="B126" s="33"/>
+      <c r="C126" s="34"/>
+      <c r="D126" s="37"/>
+      <c r="E126" s="17"/>
+      <c r="F126" s="17"/>
+      <c r="G126" s="17"/>
+      <c r="H126" s="17"/>
+      <c r="I126" s="17"/>
+      <c r="J126" s="17"/>
+      <c r="K126" s="17"/>
     </row>
     <row r="127" spans="1:11">
-      <c r="A127" s="41"/>
-      <c r="B127" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="C127" s="43"/>
-      <c r="D127" s="40"/>
-      <c r="E127" s="18"/>
-      <c r="F127" s="18"/>
-      <c r="G127" s="18"/>
-      <c r="H127" s="18"/>
-      <c r="I127" s="18"/>
-      <c r="J127" s="18"/>
-      <c r="K127" s="18"/>
+      <c r="A127" s="38"/>
+      <c r="B127" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="C127" s="40"/>
+      <c r="D127" s="37"/>
+      <c r="E127" s="17"/>
+      <c r="F127" s="17"/>
+      <c r="G127" s="17"/>
+      <c r="H127" s="17"/>
+      <c r="I127" s="17"/>
+      <c r="J127" s="17"/>
+      <c r="K127" s="17"/>
     </row>
     <row r="128" spans="1:11">
-      <c r="A128" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="B128" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="C128" s="43"/>
-      <c r="D128" s="40"/>
-      <c r="E128" s="44"/>
-      <c r="F128" s="44"/>
-      <c r="G128" s="44"/>
-      <c r="H128" s="44"/>
-      <c r="I128" s="44"/>
-      <c r="J128" s="44"/>
-      <c r="K128" s="44"/>
+      <c r="A128" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="B128" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C128" s="40"/>
+      <c r="D128" s="37"/>
+      <c r="E128" s="41"/>
+      <c r="F128" s="41"/>
+      <c r="G128" s="41"/>
+      <c r="H128" s="41"/>
+      <c r="I128" s="41"/>
+      <c r="J128" s="41"/>
+      <c r="K128" s="41"/>
     </row>
     <row r="129" spans="1:11">
-      <c r="A129" s="33"/>
-      <c r="B129" s="34"/>
-      <c r="C129" s="43"/>
-      <c r="D129" s="40"/>
-      <c r="E129" s="44"/>
-      <c r="F129" s="44"/>
-      <c r="G129" s="44"/>
-      <c r="H129" s="44"/>
-      <c r="I129" s="44"/>
-      <c r="J129" s="44"/>
-      <c r="K129" s="44"/>
+      <c r="A129" s="32"/>
+      <c r="B129" s="33"/>
+      <c r="C129" s="40"/>
+      <c r="D129" s="37"/>
+      <c r="E129" s="41"/>
+      <c r="F129" s="41"/>
+      <c r="G129" s="41"/>
+      <c r="H129" s="41"/>
+      <c r="I129" s="41"/>
+      <c r="J129" s="41"/>
+      <c r="K129" s="41"/>
     </row>
     <row r="130" spans="1:11">
-      <c r="A130" s="33"/>
-      <c r="B130" s="31" t="s">
+      <c r="A130" s="32"/>
+      <c r="B130" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C130" s="32" t="s">
+      <c r="C130" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="D130" s="40"/>
-      <c r="E130" s="44"/>
-      <c r="F130" s="44"/>
-      <c r="G130" s="44"/>
-      <c r="H130" s="44"/>
-      <c r="I130" s="44"/>
-      <c r="J130" s="44"/>
-      <c r="K130" s="44"/>
+      <c r="D130" s="37"/>
+      <c r="E130" s="41"/>
+      <c r="F130" s="41"/>
+      <c r="G130" s="41"/>
+      <c r="H130" s="41"/>
+      <c r="I130" s="41"/>
+      <c r="J130" s="41"/>
+      <c r="K130" s="41"/>
     </row>
     <row r="131" spans="1:11">
-      <c r="A131" s="33"/>
-      <c r="B131" s="36"/>
-      <c r="C131" s="39"/>
-      <c r="D131" s="40"/>
-      <c r="E131" s="44"/>
-      <c r="F131" s="44"/>
-      <c r="G131" s="44"/>
-      <c r="H131" s="44"/>
-      <c r="I131" s="44"/>
-      <c r="J131" s="44"/>
-      <c r="K131" s="44"/>
+      <c r="A131" s="32"/>
+      <c r="B131" s="35"/>
+      <c r="C131" s="36"/>
+      <c r="D131" s="37"/>
+      <c r="E131" s="41"/>
+      <c r="F131" s="41"/>
+      <c r="G131" s="41"/>
+      <c r="H131" s="41"/>
+      <c r="I131" s="41"/>
+      <c r="J131" s="41"/>
+      <c r="K131" s="41"/>
     </row>
     <row r="132" spans="1:11">
-      <c r="A132" s="33"/>
-      <c r="B132" s="36"/>
-      <c r="C132" s="35"/>
-      <c r="D132" s="40"/>
-      <c r="E132" s="44"/>
-      <c r="F132" s="44"/>
-      <c r="G132" s="44"/>
-      <c r="H132" s="44"/>
-      <c r="I132" s="44"/>
-      <c r="J132" s="44"/>
-      <c r="K132" s="44"/>
+      <c r="A132" s="32"/>
+      <c r="B132" s="35"/>
+      <c r="C132" s="34"/>
+      <c r="D132" s="37"/>
+      <c r="E132" s="41"/>
+      <c r="F132" s="41"/>
+      <c r="G132" s="41"/>
+      <c r="H132" s="41"/>
+      <c r="I132" s="41"/>
+      <c r="J132" s="41"/>
+      <c r="K132" s="41"/>
     </row>
     <row r="133" spans="1:11">
-      <c r="A133" s="33"/>
-      <c r="B133" s="36"/>
-      <c r="C133" s="39" t="s">
+      <c r="A133" s="32"/>
+      <c r="B133" s="35"/>
+      <c r="C133" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D133" s="40"/>
-      <c r="E133" s="44"/>
-      <c r="F133" s="44"/>
-      <c r="G133" s="44"/>
-      <c r="H133" s="44"/>
-      <c r="I133" s="44"/>
-      <c r="J133" s="44"/>
-      <c r="K133" s="44"/>
+      <c r="D133" s="37"/>
+      <c r="E133" s="41"/>
+      <c r="F133" s="41"/>
+      <c r="G133" s="41"/>
+      <c r="H133" s="41"/>
+      <c r="I133" s="41"/>
+      <c r="J133" s="41"/>
+      <c r="K133" s="41"/>
     </row>
     <row r="134" spans="1:11">
-      <c r="A134" s="33"/>
-      <c r="B134" s="36"/>
-      <c r="C134" s="39"/>
-      <c r="D134" s="40"/>
-      <c r="E134" s="44"/>
-      <c r="F134" s="44"/>
-      <c r="G134" s="44"/>
-      <c r="H134" s="44"/>
-      <c r="I134" s="44"/>
-      <c r="J134" s="44"/>
-      <c r="K134" s="44"/>
+      <c r="A134" s="32"/>
+      <c r="B134" s="35"/>
+      <c r="C134" s="36"/>
+      <c r="D134" s="37"/>
+      <c r="E134" s="41"/>
+      <c r="F134" s="41"/>
+      <c r="G134" s="41"/>
+      <c r="H134" s="41"/>
+      <c r="I134" s="41"/>
+      <c r="J134" s="41"/>
+      <c r="K134" s="41"/>
     </row>
     <row r="135" spans="1:11">
-      <c r="A135" s="33"/>
-      <c r="B135" s="36"/>
-      <c r="C135" s="39"/>
-      <c r="D135" s="40"/>
-      <c r="E135" s="44"/>
-      <c r="F135" s="44"/>
-      <c r="G135" s="44"/>
-      <c r="H135" s="44"/>
-      <c r="I135" s="44"/>
-      <c r="J135" s="44"/>
-      <c r="K135" s="44"/>
+      <c r="A135" s="32"/>
+      <c r="B135" s="35"/>
+      <c r="C135" s="36"/>
+      <c r="D135" s="37"/>
+      <c r="E135" s="41"/>
+      <c r="F135" s="41"/>
+      <c r="G135" s="41"/>
+      <c r="H135" s="41"/>
+      <c r="I135" s="41"/>
+      <c r="J135" s="41"/>
+      <c r="K135" s="41"/>
     </row>
     <row r="136" spans="1:11">
-      <c r="A136" s="33"/>
-      <c r="B136" s="34"/>
-      <c r="C136" s="35"/>
-      <c r="D136" s="40"/>
-      <c r="E136" s="44"/>
-      <c r="F136" s="44"/>
-      <c r="G136" s="44"/>
-      <c r="H136" s="44"/>
-      <c r="I136" s="44"/>
-      <c r="J136" s="44"/>
-      <c r="K136" s="44"/>
+      <c r="A136" s="32"/>
+      <c r="B136" s="33"/>
+      <c r="C136" s="34"/>
+      <c r="D136" s="37"/>
+      <c r="E136" s="41"/>
+      <c r="F136" s="41"/>
+      <c r="G136" s="41"/>
+      <c r="H136" s="41"/>
+      <c r="I136" s="41"/>
+      <c r="J136" s="41"/>
+      <c r="K136" s="41"/>
     </row>
     <row r="137" spans="1:11">
-      <c r="A137" s="33"/>
-      <c r="B137" s="31" t="s">
+      <c r="A137" s="32"/>
+      <c r="B137" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="C137" s="32" t="s">
+      <c r="C137" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="D137" s="17"/>
-      <c r="E137" s="18"/>
-      <c r="F137" s="18"/>
-      <c r="G137" s="44"/>
-      <c r="H137" s="44"/>
-      <c r="I137" s="44"/>
-      <c r="J137" s="44"/>
-      <c r="K137" s="44"/>
+      <c r="D137" s="16"/>
+      <c r="E137" s="17"/>
+      <c r="F137" s="17"/>
+      <c r="G137" s="41"/>
+      <c r="H137" s="41"/>
+      <c r="I137" s="41"/>
+      <c r="J137" s="41"/>
+      <c r="K137" s="41"/>
     </row>
     <row r="138" spans="1:11">
-      <c r="A138" s="33"/>
-      <c r="B138" s="36"/>
-      <c r="C138" s="39"/>
-      <c r="D138" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="E138" s="18"/>
-      <c r="F138" s="18"/>
-      <c r="G138" s="44"/>
-      <c r="H138" s="44"/>
-      <c r="I138" s="44"/>
-      <c r="J138" s="44"/>
-      <c r="K138" s="44"/>
+      <c r="A138" s="32"/>
+      <c r="B138" s="35"/>
+      <c r="C138" s="36"/>
+      <c r="D138" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="E138" s="17"/>
+      <c r="F138" s="17"/>
+      <c r="G138" s="41"/>
+      <c r="H138" s="41"/>
+      <c r="I138" s="41"/>
+      <c r="J138" s="41"/>
+      <c r="K138" s="41"/>
     </row>
     <row r="139" spans="1:11">
-      <c r="A139" s="33"/>
-      <c r="B139" s="36"/>
-      <c r="C139" s="35"/>
-      <c r="D139" s="17"/>
-      <c r="E139" s="18"/>
-      <c r="F139" s="18"/>
-      <c r="G139" s="44"/>
-      <c r="H139" s="44"/>
-      <c r="I139" s="44"/>
-      <c r="J139" s="44"/>
-      <c r="K139" s="44"/>
+      <c r="A139" s="32"/>
+      <c r="B139" s="35"/>
+      <c r="C139" s="34"/>
+      <c r="D139" s="16"/>
+      <c r="E139" s="17"/>
+      <c r="F139" s="17"/>
+      <c r="G139" s="41"/>
+      <c r="H139" s="41"/>
+      <c r="I139" s="41"/>
+      <c r="J139" s="41"/>
+      <c r="K139" s="41"/>
     </row>
     <row r="140" spans="1:11">
-      <c r="A140" s="33"/>
-      <c r="B140" s="36"/>
-      <c r="C140" s="32" t="s">
+      <c r="A140" s="32"/>
+      <c r="B140" s="35"/>
+      <c r="C140" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="D140" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="E140" s="44"/>
-      <c r="F140" s="44"/>
-      <c r="G140" s="44"/>
-      <c r="H140" s="44"/>
-      <c r="I140" s="44"/>
-      <c r="J140" s="44"/>
-      <c r="K140" s="44"/>
+      <c r="D140" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E140" s="41"/>
+      <c r="F140" s="41"/>
+      <c r="G140" s="41"/>
+      <c r="H140" s="41"/>
+      <c r="I140" s="41"/>
+      <c r="J140" s="41"/>
+      <c r="K140" s="41"/>
     </row>
     <row r="141" spans="1:11">
-      <c r="A141" s="33"/>
-      <c r="B141" s="36"/>
-      <c r="C141" s="39"/>
-      <c r="D141" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="E141" s="44"/>
-      <c r="F141" s="44"/>
-      <c r="G141" s="44"/>
-      <c r="H141" s="44"/>
-      <c r="I141" s="44"/>
-      <c r="J141" s="44"/>
-      <c r="K141" s="44"/>
+      <c r="A141" s="32"/>
+      <c r="B141" s="35"/>
+      <c r="C141" s="36"/>
+      <c r="D141" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="E141" s="41"/>
+      <c r="F141" s="41"/>
+      <c r="G141" s="41"/>
+      <c r="H141" s="41"/>
+      <c r="I141" s="41"/>
+      <c r="J141" s="41"/>
+      <c r="K141" s="41"/>
     </row>
     <row r="142" spans="1:11">
-      <c r="A142" s="33"/>
-      <c r="B142" s="36"/>
-      <c r="C142" s="39"/>
-      <c r="D142" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="E142" s="44"/>
-      <c r="F142" s="44"/>
-      <c r="G142" s="44"/>
-      <c r="H142" s="44"/>
-      <c r="I142" s="44"/>
-      <c r="J142" s="44"/>
-      <c r="K142" s="44"/>
+      <c r="A142" s="32"/>
+      <c r="B142" s="35"/>
+      <c r="C142" s="36"/>
+      <c r="D142" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="E142" s="41"/>
+      <c r="F142" s="41"/>
+      <c r="G142" s="41"/>
+      <c r="H142" s="41"/>
+      <c r="I142" s="41"/>
+      <c r="J142" s="41"/>
+      <c r="K142" s="41"/>
     </row>
     <row r="143" spans="1:11">
-      <c r="A143" s="33"/>
-      <c r="B143" s="36"/>
-      <c r="C143" s="39"/>
-      <c r="D143" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="E143" s="44"/>
-      <c r="F143" s="44"/>
-      <c r="G143" s="44"/>
-      <c r="H143" s="44"/>
-      <c r="I143" s="44"/>
-      <c r="J143" s="44"/>
-      <c r="K143" s="44"/>
+      <c r="A143" s="32"/>
+      <c r="B143" s="35"/>
+      <c r="C143" s="36"/>
+      <c r="D143" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E143" s="41"/>
+      <c r="F143" s="41"/>
+      <c r="G143" s="41"/>
+      <c r="H143" s="41"/>
+      <c r="I143" s="41"/>
+      <c r="J143" s="41"/>
+      <c r="K143" s="41"/>
     </row>
     <row r="144" spans="1:11">
-      <c r="A144" s="33"/>
-      <c r="B144" s="34"/>
-      <c r="C144" s="35"/>
-      <c r="D144" s="40"/>
-      <c r="E144" s="44"/>
-      <c r="F144" s="44"/>
-      <c r="G144" s="44"/>
-      <c r="H144" s="44"/>
-      <c r="I144" s="44"/>
-      <c r="J144" s="44"/>
-      <c r="K144" s="44"/>
+      <c r="A144" s="32"/>
+      <c r="B144" s="33"/>
+      <c r="C144" s="34"/>
+      <c r="D144" s="37"/>
+      <c r="E144" s="41"/>
+      <c r="F144" s="41"/>
+      <c r="G144" s="41"/>
+      <c r="H144" s="41"/>
+      <c r="I144" s="41"/>
+      <c r="J144" s="41"/>
+      <c r="K144" s="41"/>
     </row>
     <row r="145" spans="1:11">
-      <c r="A145" s="33"/>
-      <c r="B145" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="C145" s="43"/>
-      <c r="D145" s="40"/>
-      <c r="E145" s="44"/>
-      <c r="F145" s="44"/>
-      <c r="G145" s="44"/>
-      <c r="H145" s="44"/>
-      <c r="I145" s="44"/>
-      <c r="J145" s="44"/>
-      <c r="K145" s="44"/>
+      <c r="A145" s="32"/>
+      <c r="B145" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="C145" s="40"/>
+      <c r="D145" s="37"/>
+      <c r="E145" s="41"/>
+      <c r="F145" s="41"/>
+      <c r="G145" s="41"/>
+      <c r="H145" s="41"/>
+      <c r="I145" s="41"/>
+      <c r="J145" s="41"/>
+      <c r="K145" s="41"/>
     </row>
     <row r="146" spans="1:11">
-      <c r="A146" s="41"/>
-      <c r="B146" s="42"/>
-      <c r="C146" s="43"/>
-      <c r="D146" s="40"/>
-      <c r="E146" s="44"/>
-      <c r="F146" s="44"/>
-      <c r="G146" s="44"/>
-      <c r="H146" s="44"/>
-      <c r="I146" s="44"/>
-      <c r="J146" s="44"/>
-      <c r="K146" s="44"/>
+      <c r="A146" s="38"/>
+      <c r="B146" s="39"/>
+      <c r="C146" s="40"/>
+      <c r="D146" s="37"/>
+      <c r="E146" s="41"/>
+      <c r="F146" s="41"/>
+      <c r="G146" s="41"/>
+      <c r="H146" s="41"/>
+      <c r="I146" s="41"/>
+      <c r="J146" s="41"/>
+      <c r="K146" s="41"/>
     </row>
     <row r="147" spans="1:11">
-      <c r="A147" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="B147" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="C147" s="43"/>
-      <c r="D147" s="40"/>
-      <c r="E147" s="44"/>
-      <c r="F147" s="44"/>
-      <c r="G147" s="44"/>
-      <c r="H147" s="44"/>
-      <c r="I147" s="44"/>
-      <c r="J147" s="44"/>
-      <c r="K147" s="44"/>
+      <c r="A147" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B147" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C147" s="40"/>
+      <c r="D147" s="37"/>
+      <c r="E147" s="41"/>
+      <c r="F147" s="41"/>
+      <c r="G147" s="41"/>
+      <c r="H147" s="41"/>
+      <c r="I147" s="41"/>
+      <c r="J147" s="41"/>
+      <c r="K147" s="41"/>
     </row>
     <row r="148" spans="1:11">
-      <c r="A148" s="33"/>
-      <c r="B148" s="34"/>
-      <c r="C148" s="43"/>
-      <c r="D148" s="40"/>
-      <c r="E148" s="44"/>
-      <c r="F148" s="44"/>
-      <c r="G148" s="44"/>
-      <c r="H148" s="44"/>
-      <c r="I148" s="44"/>
-      <c r="J148" s="44"/>
-      <c r="K148" s="44"/>
+      <c r="A148" s="32"/>
+      <c r="B148" s="33"/>
+      <c r="C148" s="40"/>
+      <c r="D148" s="37"/>
+      <c r="E148" s="41"/>
+      <c r="F148" s="41"/>
+      <c r="G148" s="41"/>
+      <c r="H148" s="41"/>
+      <c r="I148" s="41"/>
+      <c r="J148" s="41"/>
+      <c r="K148" s="41"/>
     </row>
     <row r="149" spans="1:11">
-      <c r="A149" s="33"/>
-      <c r="B149" s="31" t="s">
+      <c r="A149" s="32"/>
+      <c r="B149" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C149" s="32" t="s">
+      <c r="C149" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="D149" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="E149" s="18"/>
-      <c r="F149" s="18"/>
-      <c r="G149" s="44"/>
-      <c r="H149" s="44"/>
-      <c r="I149" s="44"/>
-      <c r="J149" s="44"/>
-      <c r="K149" s="44"/>
+      <c r="D149" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="E149" s="17"/>
+      <c r="F149" s="17"/>
+      <c r="G149" s="41"/>
+      <c r="H149" s="41"/>
+      <c r="I149" s="41"/>
+      <c r="J149" s="41"/>
+      <c r="K149" s="41"/>
     </row>
     <row r="150" spans="1:11">
-      <c r="A150" s="33"/>
-      <c r="B150" s="36"/>
-      <c r="C150" s="35"/>
-      <c r="D150" s="17"/>
-      <c r="E150" s="18"/>
-      <c r="F150" s="18"/>
-      <c r="G150" s="44"/>
-      <c r="H150" s="44"/>
-      <c r="I150" s="44"/>
-      <c r="J150" s="44"/>
-      <c r="K150" s="44"/>
+      <c r="A150" s="32"/>
+      <c r="B150" s="35"/>
+      <c r="C150" s="34"/>
+      <c r="D150" s="16"/>
+      <c r="E150" s="17"/>
+      <c r="F150" s="17"/>
+      <c r="G150" s="41"/>
+      <c r="H150" s="41"/>
+      <c r="I150" s="41"/>
+      <c r="J150" s="41"/>
+      <c r="K150" s="41"/>
     </row>
     <row r="151" spans="1:11">
-      <c r="A151" s="33"/>
-      <c r="B151" s="36"/>
-      <c r="C151" s="32" t="s">
+      <c r="A151" s="32"/>
+      <c r="B151" s="35"/>
+      <c r="C151" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="D151" s="17"/>
-      <c r="E151" s="18"/>
-      <c r="F151" s="18"/>
-      <c r="G151" s="44"/>
-      <c r="H151" s="44"/>
-      <c r="I151" s="44"/>
-      <c r="J151" s="44"/>
-      <c r="K151" s="44"/>
+      <c r="D151" s="16"/>
+      <c r="E151" s="17"/>
+      <c r="F151" s="17"/>
+      <c r="G151" s="41"/>
+      <c r="H151" s="41"/>
+      <c r="I151" s="41"/>
+      <c r="J151" s="41"/>
+      <c r="K151" s="41"/>
     </row>
     <row r="152" spans="1:11">
-      <c r="A152" s="33"/>
-      <c r="B152" s="36"/>
-      <c r="C152" s="39"/>
-      <c r="D152" s="17"/>
-      <c r="E152" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="F152" s="18"/>
-      <c r="G152" s="44"/>
-      <c r="H152" s="44"/>
-      <c r="I152" s="44"/>
-      <c r="J152" s="44"/>
-      <c r="K152" s="44"/>
+      <c r="A152" s="32"/>
+      <c r="B152" s="35"/>
+      <c r="C152" s="36"/>
+      <c r="D152" s="16"/>
+      <c r="E152" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="F152" s="17"/>
+      <c r="G152" s="41"/>
+      <c r="H152" s="41"/>
+      <c r="I152" s="41"/>
+      <c r="J152" s="41"/>
+      <c r="K152" s="41"/>
     </row>
     <row r="153" spans="1:11">
-      <c r="A153" s="33"/>
-      <c r="B153" s="36"/>
-      <c r="C153" s="39"/>
-      <c r="D153" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E153" s="18"/>
-      <c r="F153" s="18"/>
-      <c r="G153" s="44"/>
-      <c r="H153" s="44"/>
-      <c r="I153" s="44"/>
-      <c r="J153" s="44"/>
-      <c r="K153" s="44"/>
+      <c r="A153" s="32"/>
+      <c r="B153" s="35"/>
+      <c r="C153" s="36"/>
+      <c r="D153" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="E153" s="17"/>
+      <c r="F153" s="17"/>
+      <c r="G153" s="41"/>
+      <c r="H153" s="41"/>
+      <c r="I153" s="41"/>
+      <c r="J153" s="41"/>
+      <c r="K153" s="41"/>
     </row>
     <row r="154" spans="1:11">
-      <c r="A154" s="33"/>
-      <c r="B154" s="36"/>
-      <c r="C154" s="39"/>
-      <c r="D154" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="E154" s="18"/>
-      <c r="F154" s="18"/>
-      <c r="G154" s="44"/>
-      <c r="H154" s="44"/>
-      <c r="I154" s="44"/>
-      <c r="J154" s="44"/>
-      <c r="K154" s="44"/>
+      <c r="A154" s="32"/>
+      <c r="B154" s="35"/>
+      <c r="C154" s="36"/>
+      <c r="D154" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="E154" s="17"/>
+      <c r="F154" s="17"/>
+      <c r="G154" s="41"/>
+      <c r="H154" s="41"/>
+      <c r="I154" s="41"/>
+      <c r="J154" s="41"/>
+      <c r="K154" s="41"/>
     </row>
     <row r="155" spans="1:11">
-      <c r="A155" s="33"/>
-      <c r="B155" s="36"/>
-      <c r="C155" s="39"/>
-      <c r="D155" s="17"/>
-      <c r="E155" s="18"/>
-      <c r="F155" s="18"/>
-      <c r="G155" s="44"/>
-      <c r="H155" s="44"/>
-      <c r="I155" s="44"/>
-      <c r="J155" s="44"/>
-      <c r="K155" s="44"/>
+      <c r="A155" s="32"/>
+      <c r="B155" s="35"/>
+      <c r="C155" s="36"/>
+      <c r="D155" s="16"/>
+      <c r="E155" s="17"/>
+      <c r="F155" s="17"/>
+      <c r="G155" s="41"/>
+      <c r="H155" s="41"/>
+      <c r="I155" s="41"/>
+      <c r="J155" s="41"/>
+      <c r="K155" s="41"/>
     </row>
     <row r="156" spans="1:11">
-      <c r="A156" s="33"/>
-      <c r="B156" s="36"/>
-      <c r="C156" s="39"/>
-      <c r="D156" s="17"/>
-      <c r="E156" s="18"/>
-      <c r="F156" s="18"/>
-      <c r="G156" s="44"/>
-      <c r="H156" s="44"/>
-      <c r="I156" s="44"/>
-      <c r="J156" s="44"/>
-      <c r="K156" s="44"/>
+      <c r="A156" s="32"/>
+      <c r="B156" s="35"/>
+      <c r="C156" s="36"/>
+      <c r="D156" s="16"/>
+      <c r="E156" s="17"/>
+      <c r="F156" s="17"/>
+      <c r="G156" s="41"/>
+      <c r="H156" s="41"/>
+      <c r="I156" s="41"/>
+      <c r="J156" s="41"/>
+      <c r="K156" s="41"/>
     </row>
     <row r="157" spans="1:11">
-      <c r="A157" s="33"/>
-      <c r="B157" s="34"/>
-      <c r="C157" s="35"/>
-      <c r="D157" s="17"/>
-      <c r="E157" s="18"/>
-      <c r="F157" s="18"/>
-      <c r="G157" s="44"/>
-      <c r="H157" s="44"/>
-      <c r="I157" s="44"/>
-      <c r="J157" s="44"/>
-      <c r="K157" s="44"/>
+      <c r="A157" s="32"/>
+      <c r="B157" s="33"/>
+      <c r="C157" s="34"/>
+      <c r="D157" s="16"/>
+      <c r="E157" s="17"/>
+      <c r="F157" s="17"/>
+      <c r="G157" s="41"/>
+      <c r="H157" s="41"/>
+      <c r="I157" s="41"/>
+      <c r="J157" s="41"/>
+      <c r="K157" s="41"/>
     </row>
     <row r="158" spans="1:11">
-      <c r="A158" s="33"/>
-      <c r="B158" s="31" t="s">
+      <c r="A158" s="32"/>
+      <c r="B158" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="C158" s="32" t="s">
+      <c r="C158" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="D158" s="17"/>
-      <c r="E158" s="18"/>
-      <c r="F158" s="18"/>
-      <c r="G158" s="44"/>
-      <c r="H158" s="44"/>
-      <c r="I158" s="44"/>
-      <c r="J158" s="44"/>
-      <c r="K158" s="44"/>
+      <c r="D158" s="16"/>
+      <c r="E158" s="17"/>
+      <c r="F158" s="17"/>
+      <c r="G158" s="41"/>
+      <c r="H158" s="41"/>
+      <c r="I158" s="41"/>
+      <c r="J158" s="41"/>
+      <c r="K158" s="41"/>
     </row>
     <row r="159" spans="1:11">
-      <c r="A159" s="33"/>
-      <c r="B159" s="36"/>
-      <c r="C159" s="39"/>
-      <c r="D159" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="E159" s="18"/>
-      <c r="F159" s="18"/>
-      <c r="G159" s="44"/>
-      <c r="H159" s="44"/>
-      <c r="I159" s="44"/>
-      <c r="J159" s="44"/>
-      <c r="K159" s="44"/>
+      <c r="A159" s="32"/>
+      <c r="B159" s="35"/>
+      <c r="C159" s="36"/>
+      <c r="D159" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E159" s="17"/>
+      <c r="F159" s="17"/>
+      <c r="G159" s="41"/>
+      <c r="H159" s="41"/>
+      <c r="I159" s="41"/>
+      <c r="J159" s="41"/>
+      <c r="K159" s="41"/>
     </row>
     <row r="160" spans="1:11">
-      <c r="A160" s="33"/>
-      <c r="B160" s="36"/>
-      <c r="C160" s="35"/>
-      <c r="D160" s="17"/>
-      <c r="E160" s="18"/>
-      <c r="F160" s="18"/>
-      <c r="G160" s="44"/>
-      <c r="H160" s="44"/>
-      <c r="I160" s="44"/>
-      <c r="J160" s="44"/>
-      <c r="K160" s="44"/>
+      <c r="A160" s="32"/>
+      <c r="B160" s="35"/>
+      <c r="C160" s="34"/>
+      <c r="D160" s="16"/>
+      <c r="E160" s="17"/>
+      <c r="F160" s="17"/>
+      <c r="G160" s="41"/>
+      <c r="H160" s="41"/>
+      <c r="I160" s="41"/>
+      <c r="J160" s="41"/>
+      <c r="K160" s="41"/>
     </row>
     <row r="161" spans="1:11">
-      <c r="A161" s="33"/>
-      <c r="B161" s="36"/>
-      <c r="C161" s="32" t="s">
+      <c r="A161" s="32"/>
+      <c r="B161" s="35"/>
+      <c r="C161" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="D161" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="E161" s="18"/>
-      <c r="F161" s="18"/>
-      <c r="G161" s="44"/>
-      <c r="H161" s="44"/>
-      <c r="I161" s="44"/>
-      <c r="J161" s="44"/>
-      <c r="K161" s="44"/>
+      <c r="D161" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="E161" s="17"/>
+      <c r="F161" s="17"/>
+      <c r="G161" s="41"/>
+      <c r="H161" s="41"/>
+      <c r="I161" s="41"/>
+      <c r="J161" s="41"/>
+      <c r="K161" s="41"/>
     </row>
     <row r="162" spans="1:11">
-      <c r="A162" s="33"/>
-      <c r="B162" s="36"/>
-      <c r="C162" s="39"/>
-      <c r="D162" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="E162" s="18"/>
-      <c r="F162" s="18"/>
-      <c r="G162" s="44"/>
-      <c r="H162" s="44"/>
-      <c r="I162" s="44"/>
-      <c r="J162" s="44"/>
-      <c r="K162" s="44"/>
+      <c r="A162" s="32"/>
+      <c r="B162" s="35"/>
+      <c r="C162" s="36"/>
+      <c r="D162" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="E162" s="17"/>
+      <c r="F162" s="17"/>
+      <c r="G162" s="41"/>
+      <c r="H162" s="41"/>
+      <c r="I162" s="41"/>
+      <c r="J162" s="41"/>
+      <c r="K162" s="41"/>
     </row>
     <row r="163" spans="1:11">
-      <c r="A163" s="33"/>
-      <c r="B163" s="36"/>
-      <c r="C163" s="39"/>
-      <c r="D163" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="E163" s="18"/>
-      <c r="F163" s="18"/>
-      <c r="G163" s="44"/>
-      <c r="H163" s="44"/>
-      <c r="I163" s="44"/>
-      <c r="J163" s="44"/>
-      <c r="K163" s="44"/>
+      <c r="A163" s="32"/>
+      <c r="B163" s="35"/>
+      <c r="C163" s="36"/>
+      <c r="D163" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="E163" s="17"/>
+      <c r="F163" s="17"/>
+      <c r="G163" s="41"/>
+      <c r="H163" s="41"/>
+      <c r="I163" s="41"/>
+      <c r="J163" s="41"/>
+      <c r="K163" s="41"/>
     </row>
     <row r="164" spans="1:11">
-      <c r="A164" s="33"/>
-      <c r="B164" s="36"/>
-      <c r="C164" s="39"/>
-      <c r="D164" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="E164" s="18"/>
-      <c r="F164" s="18"/>
-      <c r="G164" s="44"/>
-      <c r="H164" s="44"/>
-      <c r="I164" s="44"/>
-      <c r="J164" s="44"/>
-      <c r="K164" s="44"/>
+      <c r="A164" s="32"/>
+      <c r="B164" s="35"/>
+      <c r="C164" s="36"/>
+      <c r="D164" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="E164" s="17"/>
+      <c r="F164" s="17"/>
+      <c r="G164" s="41"/>
+      <c r="H164" s="41"/>
+      <c r="I164" s="41"/>
+      <c r="J164" s="41"/>
+      <c r="K164" s="41"/>
     </row>
     <row r="165" spans="1:11">
-      <c r="A165" s="33"/>
-      <c r="B165" s="36"/>
-      <c r="C165" s="39"/>
-      <c r="D165" s="17"/>
-      <c r="E165" s="18"/>
-      <c r="F165" s="18"/>
-      <c r="G165" s="44"/>
-      <c r="H165" s="44"/>
-      <c r="I165" s="44"/>
-      <c r="J165" s="44"/>
-      <c r="K165" s="44"/>
+      <c r="A165" s="32"/>
+      <c r="B165" s="35"/>
+      <c r="C165" s="36"/>
+      <c r="D165" s="16"/>
+      <c r="E165" s="17"/>
+      <c r="F165" s="17"/>
+      <c r="G165" s="41"/>
+      <c r="H165" s="41"/>
+      <c r="I165" s="41"/>
+      <c r="J165" s="41"/>
+      <c r="K165" s="41"/>
     </row>
     <row r="166" spans="1:11">
-      <c r="A166" s="33"/>
-      <c r="B166" s="34"/>
-      <c r="C166" s="35"/>
-      <c r="D166" s="40"/>
-      <c r="E166" s="44"/>
-      <c r="F166" s="44"/>
-      <c r="G166" s="44"/>
-      <c r="H166" s="44"/>
-      <c r="I166" s="44"/>
-      <c r="J166" s="44"/>
-      <c r="K166" s="44"/>
+      <c r="A166" s="32"/>
+      <c r="B166" s="33"/>
+      <c r="C166" s="34"/>
+      <c r="D166" s="37"/>
+      <c r="E166" s="41"/>
+      <c r="F166" s="41"/>
+      <c r="G166" s="41"/>
+      <c r="H166" s="41"/>
+      <c r="I166" s="41"/>
+      <c r="J166" s="41"/>
+      <c r="K166" s="41"/>
     </row>
     <row r="167" spans="1:11">
-      <c r="A167" s="33"/>
-      <c r="B167" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="C167" s="43"/>
-      <c r="D167" s="40"/>
-      <c r="E167" s="44"/>
-      <c r="F167" s="44"/>
-      <c r="G167" s="44"/>
-      <c r="H167" s="44"/>
-      <c r="I167" s="44"/>
-      <c r="J167" s="44"/>
-      <c r="K167" s="44"/>
+      <c r="A167" s="32"/>
+      <c r="B167" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="C167" s="40"/>
+      <c r="D167" s="37"/>
+      <c r="E167" s="41"/>
+      <c r="F167" s="41"/>
+      <c r="G167" s="41"/>
+      <c r="H167" s="41"/>
+      <c r="I167" s="41"/>
+      <c r="J167" s="41"/>
+      <c r="K167" s="41"/>
     </row>
     <row r="168" ht="27" spans="1:11">
-      <c r="A168" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="B168" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="C168" s="43"/>
-      <c r="D168" s="17" t="s">
+      <c r="A168" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="E168" s="18"/>
-      <c r="F168" s="18"/>
-      <c r="G168" s="18"/>
-      <c r="H168" s="18"/>
-      <c r="I168" s="18"/>
-      <c r="J168" s="18"/>
-      <c r="K168" s="18"/>
+      <c r="B168" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C168" s="40"/>
+      <c r="D168" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="E168" s="17"/>
+      <c r="F168" s="17"/>
+      <c r="G168" s="17"/>
+      <c r="H168" s="17"/>
+      <c r="I168" s="17"/>
+      <c r="J168" s="17"/>
+      <c r="K168" s="17"/>
     </row>
     <row r="169" ht="27" spans="1:11">
-      <c r="A169" s="36"/>
-      <c r="B169" s="34"/>
-      <c r="C169" s="43"/>
-      <c r="D169" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="E169" s="18"/>
-      <c r="F169" s="18"/>
-      <c r="G169" s="18"/>
-      <c r="H169" s="18"/>
-      <c r="I169" s="18"/>
-      <c r="J169" s="18"/>
-      <c r="K169" s="18"/>
+      <c r="A169" s="35"/>
+      <c r="B169" s="33"/>
+      <c r="C169" s="40"/>
+      <c r="D169" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="E169" s="17"/>
+      <c r="F169" s="17"/>
+      <c r="G169" s="17"/>
+      <c r="H169" s="17"/>
+      <c r="I169" s="17"/>
+      <c r="J169" s="17"/>
+      <c r="K169" s="17"/>
     </row>
     <row r="170" ht="27" spans="1:11">
-      <c r="A170" s="36"/>
-      <c r="B170" s="31" t="s">
+      <c r="A170" s="35"/>
+      <c r="B170" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="C170" s="43"/>
-      <c r="D170" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="E170" s="18"/>
-      <c r="F170" s="18"/>
-      <c r="G170" s="18"/>
-      <c r="H170" s="18"/>
-      <c r="I170" s="18"/>
-      <c r="J170" s="18"/>
-      <c r="K170" s="18"/>
+      <c r="C170" s="40"/>
+      <c r="D170" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E170" s="17"/>
+      <c r="F170" s="17"/>
+      <c r="G170" s="17"/>
+      <c r="H170" s="17"/>
+      <c r="I170" s="17"/>
+      <c r="J170" s="17"/>
+      <c r="K170" s="17"/>
     </row>
     <row r="171" ht="27" spans="1:11">
-      <c r="A171" s="36"/>
-      <c r="B171" s="36"/>
-      <c r="C171" s="43"/>
-      <c r="D171" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="E171" s="18"/>
-      <c r="F171" s="18"/>
-      <c r="G171" s="18"/>
-      <c r="H171" s="18"/>
-      <c r="I171" s="18"/>
-      <c r="J171" s="18"/>
-      <c r="K171" s="18"/>
+      <c r="A171" s="35"/>
+      <c r="B171" s="35"/>
+      <c r="C171" s="40"/>
+      <c r="D171" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E171" s="17"/>
+      <c r="F171" s="17"/>
+      <c r="G171" s="17"/>
+      <c r="H171" s="17"/>
+      <c r="I171" s="17"/>
+      <c r="J171" s="17"/>
+      <c r="K171" s="17"/>
     </row>
     <row r="172" spans="1:11">
-      <c r="A172" s="36"/>
-      <c r="B172" s="36"/>
-      <c r="C172" s="43"/>
-      <c r="D172" s="17"/>
-      <c r="E172" s="18"/>
-      <c r="F172" s="18"/>
-      <c r="G172" s="18"/>
-      <c r="H172" s="18"/>
-      <c r="I172" s="18"/>
-      <c r="J172" s="18"/>
-      <c r="K172" s="18"/>
+      <c r="A172" s="35"/>
+      <c r="B172" s="35"/>
+      <c r="C172" s="40"/>
+      <c r="D172" s="16"/>
+      <c r="E172" s="17"/>
+      <c r="F172" s="17"/>
+      <c r="G172" s="17"/>
+      <c r="H172" s="17"/>
+      <c r="I172" s="17"/>
+      <c r="J172" s="17"/>
+      <c r="K172" s="17"/>
     </row>
     <row r="173" spans="1:11">
-      <c r="A173" s="36"/>
-      <c r="B173" s="36"/>
-      <c r="C173" s="43"/>
-      <c r="D173" s="17"/>
-      <c r="E173" s="18"/>
-      <c r="F173" s="18"/>
-      <c r="G173" s="18"/>
-      <c r="H173" s="18"/>
-      <c r="I173" s="18"/>
-      <c r="J173" s="18"/>
-      <c r="K173" s="18"/>
+      <c r="A173" s="35"/>
+      <c r="B173" s="35"/>
+      <c r="C173" s="40"/>
+      <c r="D173" s="16"/>
+      <c r="E173" s="17"/>
+      <c r="F173" s="17"/>
+      <c r="G173" s="17"/>
+      <c r="H173" s="17"/>
+      <c r="I173" s="17"/>
+      <c r="J173" s="17"/>
+      <c r="K173" s="17"/>
     </row>
     <row r="174" spans="1:11">
-      <c r="A174" s="36"/>
-      <c r="B174" s="36"/>
-      <c r="C174" s="43"/>
-      <c r="D174" s="17"/>
-      <c r="E174" s="18"/>
-      <c r="F174" s="18"/>
-      <c r="G174" s="18"/>
-      <c r="H174" s="18"/>
-      <c r="I174" s="18"/>
-      <c r="J174" s="18"/>
-      <c r="K174" s="18"/>
+      <c r="A174" s="35"/>
+      <c r="B174" s="35"/>
+      <c r="C174" s="40"/>
+      <c r="D174" s="16"/>
+      <c r="E174" s="17"/>
+      <c r="F174" s="17"/>
+      <c r="G174" s="17"/>
+      <c r="H174" s="17"/>
+      <c r="I174" s="17"/>
+      <c r="J174" s="17"/>
+      <c r="K174" s="17"/>
     </row>
     <row r="175" spans="1:11">
-      <c r="A175" s="36"/>
-      <c r="B175" s="34"/>
-      <c r="C175" s="43"/>
-      <c r="D175" s="17"/>
-      <c r="E175" s="18"/>
-      <c r="F175" s="18"/>
-      <c r="G175" s="18"/>
-      <c r="H175" s="18"/>
-      <c r="I175" s="18"/>
-      <c r="J175" s="18"/>
-      <c r="K175" s="18"/>
+      <c r="A175" s="35"/>
+      <c r="B175" s="33"/>
+      <c r="C175" s="40"/>
+      <c r="D175" s="16"/>
+      <c r="E175" s="17"/>
+      <c r="F175" s="17"/>
+      <c r="G175" s="17"/>
+      <c r="H175" s="17"/>
+      <c r="I175" s="17"/>
+      <c r="J175" s="17"/>
+      <c r="K175" s="17"/>
     </row>
     <row r="176" ht="27" spans="1:11">
-      <c r="A176" s="34"/>
-      <c r="B176" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="C176" s="43"/>
-      <c r="D176" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E176" s="18"/>
-      <c r="F176" s="18"/>
-      <c r="G176" s="18"/>
-      <c r="H176" s="18"/>
-      <c r="I176" s="18"/>
-      <c r="J176" s="18"/>
-      <c r="K176" s="18"/>
+      <c r="A176" s="33"/>
+      <c r="B176" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="C176" s="40"/>
+      <c r="D176" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="E176" s="17"/>
+      <c r="F176" s="17"/>
+      <c r="G176" s="17"/>
+      <c r="H176" s="17"/>
+      <c r="I176" s="17"/>
+      <c r="J176" s="17"/>
+      <c r="K176" s="17"/>
     </row>
     <row r="177" ht="40.5" spans="1:11">
-      <c r="A177" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="B177" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="C177" s="43"/>
-      <c r="D177" s="17" t="s">
+      <c r="A177" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="E177" s="18"/>
-      <c r="F177" s="18"/>
-      <c r="G177" s="18"/>
-      <c r="H177" s="18"/>
-      <c r="I177" s="18"/>
-      <c r="J177" s="18"/>
-      <c r="K177" s="18"/>
+      <c r="B177" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C177" s="40"/>
+      <c r="D177" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="E177" s="17"/>
+      <c r="F177" s="17"/>
+      <c r="G177" s="17"/>
+      <c r="H177" s="17"/>
+      <c r="I177" s="17"/>
+      <c r="J177" s="17"/>
+      <c r="K177" s="17"/>
     </row>
     <row r="178" ht="54" spans="1:11">
-      <c r="A178" s="36"/>
-      <c r="B178" s="34"/>
-      <c r="C178" s="43"/>
-      <c r="D178" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="E178" s="18"/>
-      <c r="F178" s="18"/>
-      <c r="G178" s="18"/>
-      <c r="H178" s="18"/>
-      <c r="I178" s="18"/>
-      <c r="J178" s="18"/>
-      <c r="K178" s="18"/>
+      <c r="A178" s="35"/>
+      <c r="B178" s="33"/>
+      <c r="C178" s="40"/>
+      <c r="D178" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="E178" s="17"/>
+      <c r="F178" s="17"/>
+      <c r="G178" s="17"/>
+      <c r="H178" s="17"/>
+      <c r="I178" s="17"/>
+      <c r="J178" s="17"/>
+      <c r="K178" s="17"/>
     </row>
     <row r="179" ht="40.5" spans="1:11">
-      <c r="A179" s="36"/>
-      <c r="B179" s="31" t="s">
+      <c r="A179" s="35"/>
+      <c r="B179" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C179" s="43" t="s">
+      <c r="C179" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="D179" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="E179" s="18"/>
-      <c r="F179" s="18"/>
-      <c r="G179" s="18"/>
-      <c r="H179" s="18"/>
-      <c r="I179" s="18"/>
-      <c r="J179" s="18"/>
-      <c r="K179" s="18"/>
+      <c r="D179" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="E179" s="17"/>
+      <c r="F179" s="17"/>
+      <c r="G179" s="17"/>
+      <c r="H179" s="17"/>
+      <c r="I179" s="17"/>
+      <c r="J179" s="17"/>
+      <c r="K179" s="17"/>
     </row>
     <row r="180" spans="1:11">
-      <c r="A180" s="36"/>
-      <c r="B180" s="36"/>
-      <c r="C180" s="32"/>
-      <c r="D180" s="17"/>
-      <c r="E180" s="18"/>
-      <c r="F180" s="18"/>
-      <c r="G180" s="18"/>
-      <c r="H180" s="18"/>
-      <c r="I180" s="18"/>
-      <c r="J180" s="18"/>
-      <c r="K180" s="18"/>
+      <c r="A180" s="35"/>
+      <c r="B180" s="35"/>
+      <c r="C180" s="31"/>
+      <c r="D180" s="16"/>
+      <c r="E180" s="17"/>
+      <c r="F180" s="17"/>
+      <c r="G180" s="17"/>
+      <c r="H180" s="17"/>
+      <c r="I180" s="17"/>
+      <c r="J180" s="17"/>
+      <c r="K180" s="17"/>
     </row>
     <row r="181" spans="1:11">
-      <c r="A181" s="36"/>
-      <c r="B181" s="36"/>
-      <c r="C181" s="39"/>
-      <c r="D181" s="17"/>
-      <c r="E181" s="18"/>
-      <c r="F181" s="18"/>
-      <c r="G181" s="18"/>
-      <c r="H181" s="18"/>
-      <c r="I181" s="18"/>
-      <c r="J181" s="18"/>
-      <c r="K181" s="18"/>
+      <c r="A181" s="35"/>
+      <c r="B181" s="35"/>
+      <c r="C181" s="36"/>
+      <c r="D181" s="16"/>
+      <c r="E181" s="17"/>
+      <c r="F181" s="17"/>
+      <c r="G181" s="17"/>
+      <c r="H181" s="17"/>
+      <c r="I181" s="17"/>
+      <c r="J181" s="17"/>
+      <c r="K181" s="17"/>
     </row>
     <row r="182" spans="1:11">
-      <c r="A182" s="36"/>
-      <c r="B182" s="34"/>
-      <c r="C182" s="35"/>
-      <c r="D182" s="17"/>
-      <c r="E182" s="18"/>
-      <c r="F182" s="18"/>
-      <c r="G182" s="18"/>
-      <c r="H182" s="18"/>
-      <c r="I182" s="18"/>
-      <c r="J182" s="18"/>
-      <c r="K182" s="18"/>
+      <c r="A182" s="35"/>
+      <c r="B182" s="33"/>
+      <c r="C182" s="34"/>
+      <c r="D182" s="16"/>
+      <c r="E182" s="17"/>
+      <c r="F182" s="17"/>
+      <c r="G182" s="17"/>
+      <c r="H182" s="17"/>
+      <c r="I182" s="17"/>
+      <c r="J182" s="17"/>
+      <c r="K182" s="17"/>
     </row>
     <row r="183" spans="1:11">
-      <c r="A183" s="36"/>
-      <c r="B183" s="31" t="s">
+      <c r="A183" s="35"/>
+      <c r="B183" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="C183" s="32" t="s">
+      <c r="C183" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="D183" s="17"/>
-      <c r="E183" s="18"/>
-      <c r="F183" s="18"/>
-      <c r="G183" s="18"/>
-      <c r="H183" s="18"/>
-      <c r="I183" s="18"/>
-      <c r="J183" s="18"/>
-      <c r="K183" s="18"/>
+      <c r="D183" s="16"/>
+      <c r="E183" s="17"/>
+      <c r="F183" s="17"/>
+      <c r="G183" s="17"/>
+      <c r="H183" s="17"/>
+      <c r="I183" s="17"/>
+      <c r="J183" s="17"/>
+      <c r="K183" s="17"/>
     </row>
     <row r="184" spans="1:11">
-      <c r="A184" s="36"/>
-      <c r="B184" s="36"/>
-      <c r="C184" s="39"/>
-      <c r="D184" s="17"/>
-      <c r="E184" s="18"/>
-      <c r="F184" s="18"/>
-      <c r="G184" s="18"/>
-      <c r="H184" s="18"/>
-      <c r="I184" s="18"/>
-      <c r="J184" s="18"/>
-      <c r="K184" s="18"/>
+      <c r="A184" s="35"/>
+      <c r="B184" s="35"/>
+      <c r="C184" s="36"/>
+      <c r="D184" s="16"/>
+      <c r="E184" s="17"/>
+      <c r="F184" s="17"/>
+      <c r="G184" s="17"/>
+      <c r="H184" s="17"/>
+      <c r="I184" s="17"/>
+      <c r="J184" s="17"/>
+      <c r="K184" s="17"/>
     </row>
     <row r="185" spans="1:11">
-      <c r="A185" s="36"/>
-      <c r="B185" s="36"/>
-      <c r="C185" s="35"/>
-      <c r="D185" s="17"/>
-      <c r="E185" s="18"/>
-      <c r="F185" s="18"/>
-      <c r="G185" s="18"/>
-      <c r="H185" s="18"/>
-      <c r="I185" s="18"/>
-      <c r="J185" s="18"/>
-      <c r="K185" s="18"/>
+      <c r="A185" s="35"/>
+      <c r="B185" s="35"/>
+      <c r="C185" s="34"/>
+      <c r="D185" s="16"/>
+      <c r="E185" s="17"/>
+      <c r="F185" s="17"/>
+      <c r="G185" s="17"/>
+      <c r="H185" s="17"/>
+      <c r="I185" s="17"/>
+      <c r="J185" s="17"/>
+      <c r="K185" s="17"/>
     </row>
     <row r="186" spans="1:11">
-      <c r="A186" s="36"/>
-      <c r="B186" s="36"/>
-      <c r="C186" s="32" t="s">
+      <c r="A186" s="35"/>
+      <c r="B186" s="35"/>
+      <c r="C186" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="D186" s="17"/>
-      <c r="E186" s="18"/>
-      <c r="F186" s="18"/>
-      <c r="G186" s="18"/>
-      <c r="H186" s="18"/>
-      <c r="I186" s="18"/>
-      <c r="J186" s="18"/>
-      <c r="K186" s="18"/>
+      <c r="D186" s="16"/>
+      <c r="E186" s="17"/>
+      <c r="F186" s="17"/>
+      <c r="G186" s="17"/>
+      <c r="H186" s="17"/>
+      <c r="I186" s="17"/>
+      <c r="J186" s="17"/>
+      <c r="K186" s="17"/>
     </row>
     <row r="187" spans="1:11">
-      <c r="A187" s="36"/>
-      <c r="B187" s="36"/>
-      <c r="C187" s="39"/>
-      <c r="D187" s="17"/>
-      <c r="E187" s="18"/>
-      <c r="F187" s="18"/>
-      <c r="G187" s="18"/>
-      <c r="H187" s="18"/>
-      <c r="I187" s="18"/>
-      <c r="J187" s="18"/>
-      <c r="K187" s="18"/>
+      <c r="A187" s="35"/>
+      <c r="B187" s="35"/>
+      <c r="C187" s="36"/>
+      <c r="D187" s="16"/>
+      <c r="E187" s="17"/>
+      <c r="F187" s="17"/>
+      <c r="G187" s="17"/>
+      <c r="H187" s="17"/>
+      <c r="I187" s="17"/>
+      <c r="J187" s="17"/>
+      <c r="K187" s="17"/>
     </row>
     <row r="188" spans="1:11">
-      <c r="A188" s="36"/>
-      <c r="B188" s="34"/>
-      <c r="C188" s="35"/>
-      <c r="D188" s="17"/>
-      <c r="E188" s="18"/>
-      <c r="F188" s="18"/>
-      <c r="G188" s="18"/>
-      <c r="H188" s="18"/>
-      <c r="I188" s="18"/>
-      <c r="J188" s="18"/>
-      <c r="K188" s="18"/>
+      <c r="A188" s="35"/>
+      <c r="B188" s="33"/>
+      <c r="C188" s="34"/>
+      <c r="D188" s="16"/>
+      <c r="E188" s="17"/>
+      <c r="F188" s="17"/>
+      <c r="G188" s="17"/>
+      <c r="H188" s="17"/>
+      <c r="I188" s="17"/>
+      <c r="J188" s="17"/>
+      <c r="K188" s="17"/>
     </row>
     <row r="189" ht="67.5" spans="1:11">
-      <c r="A189" s="34"/>
-      <c r="B189" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="C189" s="43"/>
-      <c r="D189" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="E189" s="18"/>
-      <c r="F189" s="18"/>
-      <c r="G189" s="18"/>
-      <c r="H189" s="18"/>
-      <c r="I189" s="18"/>
-      <c r="J189" s="18"/>
-      <c r="K189" s="18"/>
+      <c r="A189" s="33"/>
+      <c r="B189" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="C189" s="40"/>
+      <c r="D189" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="E189" s="17"/>
+      <c r="F189" s="17"/>
+      <c r="G189" s="17"/>
+      <c r="H189" s="17"/>
+      <c r="I189" s="17"/>
+      <c r="J189" s="17"/>
+      <c r="K189" s="17"/>
     </row>
     <row r="190" spans="1:11">
-      <c r="A190" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="B190" s="31" t="s">
+      <c r="A190" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B190" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="C190" s="45" t="s">
+      <c r="C190" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="D190" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="E190" s="18"/>
-      <c r="F190" s="18"/>
-      <c r="G190" s="18"/>
-      <c r="H190" s="18"/>
-      <c r="I190" s="18"/>
-      <c r="J190" s="18"/>
-      <c r="K190" s="18"/>
+      <c r="D190" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="E190" s="17"/>
+      <c r="F190" s="17"/>
+      <c r="G190" s="17"/>
+      <c r="H190" s="17"/>
+      <c r="I190" s="17"/>
+      <c r="J190" s="17"/>
+      <c r="K190" s="17"/>
     </row>
     <row r="191" spans="1:11">
-      <c r="A191" s="36"/>
-      <c r="B191" s="36"/>
-      <c r="C191" s="46"/>
-      <c r="D191" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="E191" s="18"/>
-      <c r="F191" s="18"/>
-      <c r="G191" s="18"/>
-      <c r="H191" s="18"/>
-      <c r="I191" s="18"/>
-      <c r="J191" s="18"/>
-      <c r="K191" s="18"/>
+      <c r="A191" s="35"/>
+      <c r="B191" s="35"/>
+      <c r="C191" s="35"/>
+      <c r="D191" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E191" s="17"/>
+      <c r="F191" s="17"/>
+      <c r="G191" s="17"/>
+      <c r="H191" s="17"/>
+      <c r="I191" s="17"/>
+      <c r="J191" s="17"/>
+      <c r="K191" s="17"/>
     </row>
     <row r="192" spans="1:11">
-      <c r="A192" s="36"/>
-      <c r="B192" s="36"/>
-      <c r="C192" s="46"/>
-      <c r="D192" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="E192" s="18"/>
-      <c r="F192" s="18"/>
-      <c r="G192" s="18"/>
-      <c r="H192" s="18"/>
-      <c r="I192" s="18"/>
-      <c r="J192" s="18"/>
-      <c r="K192" s="18"/>
+      <c r="A192" s="35"/>
+      <c r="B192" s="35"/>
+      <c r="C192" s="35"/>
+      <c r="D192" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="E192" s="17"/>
+      <c r="F192" s="17"/>
+      <c r="G192" s="17"/>
+      <c r="H192" s="17"/>
+      <c r="I192" s="17"/>
+      <c r="J192" s="17"/>
+      <c r="K192" s="17"/>
     </row>
     <row r="193" spans="1:11">
-      <c r="A193" s="36"/>
-      <c r="B193" s="36"/>
-      <c r="C193" s="46"/>
-      <c r="D193" s="17" t="s">
+      <c r="A193" s="35"/>
+      <c r="B193" s="35"/>
+      <c r="C193" s="35"/>
+      <c r="D193" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E193" s="18"/>
-      <c r="F193" s="18"/>
-      <c r="G193" s="18"/>
-      <c r="H193" s="18"/>
-      <c r="I193" s="18"/>
-      <c r="J193" s="18"/>
-      <c r="K193" s="18"/>
+      <c r="E193" s="17"/>
+      <c r="F193" s="17"/>
+      <c r="G193" s="17"/>
+      <c r="H193" s="17"/>
+      <c r="I193" s="17"/>
+      <c r="J193" s="17"/>
+      <c r="K193" s="17"/>
     </row>
     <row r="194" spans="1:11">
-      <c r="A194" s="36"/>
-      <c r="B194" s="36"/>
-      <c r="C194" s="46"/>
-      <c r="D194" s="17" t="s">
+      <c r="A194" s="35"/>
+      <c r="B194" s="35"/>
+      <c r="C194" s="35"/>
+      <c r="D194" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E194" s="18"/>
-      <c r="F194" s="18"/>
-      <c r="G194" s="18"/>
-      <c r="H194" s="18"/>
-      <c r="I194" s="18"/>
-      <c r="J194" s="18"/>
-      <c r="K194" s="18"/>
+      <c r="E194" s="17"/>
+      <c r="F194" s="17"/>
+      <c r="G194" s="17"/>
+      <c r="H194" s="17"/>
+      <c r="I194" s="17"/>
+      <c r="J194" s="17"/>
+      <c r="K194" s="17"/>
     </row>
     <row r="195" spans="1:11">
-      <c r="A195" s="36"/>
-      <c r="B195" s="36"/>
-      <c r="C195" s="46"/>
-      <c r="D195" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E195" s="18"/>
-      <c r="F195" s="18"/>
-      <c r="G195" s="18"/>
-      <c r="H195" s="18"/>
-      <c r="I195" s="18"/>
-      <c r="J195" s="18"/>
-      <c r="K195" s="18"/>
+      <c r="A195" s="35"/>
+      <c r="B195" s="35"/>
+      <c r="C195" s="35"/>
+      <c r="D195" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E195" s="17"/>
+      <c r="F195" s="17"/>
+      <c r="G195" s="17"/>
+      <c r="H195" s="17"/>
+      <c r="I195" s="17"/>
+      <c r="J195" s="17"/>
+      <c r="K195" s="17"/>
     </row>
     <row r="196" spans="1:11">
-      <c r="A196" s="36"/>
-      <c r="B196" s="36"/>
-      <c r="C196" s="46"/>
-      <c r="D196" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E196" s="18"/>
-      <c r="F196" s="18"/>
-      <c r="G196" s="18"/>
-      <c r="H196" s="18"/>
-      <c r="I196" s="18"/>
-      <c r="J196" s="18"/>
-      <c r="K196" s="18"/>
+      <c r="A196" s="35"/>
+      <c r="B196" s="35"/>
+      <c r="C196" s="35"/>
+      <c r="D196" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E196" s="17"/>
+      <c r="F196" s="17"/>
+      <c r="G196" s="17"/>
+      <c r="H196" s="17"/>
+      <c r="I196" s="17"/>
+      <c r="J196" s="17"/>
+      <c r="K196" s="17"/>
     </row>
     <row r="197" spans="1:11">
-      <c r="A197" s="36"/>
-      <c r="B197" s="36"/>
-      <c r="C197" s="46"/>
-      <c r="D197" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E197" s="18"/>
-      <c r="F197" s="18"/>
-      <c r="G197" s="18"/>
-      <c r="H197" s="18"/>
-      <c r="I197" s="18"/>
-      <c r="J197" s="18"/>
-      <c r="K197" s="18"/>
+      <c r="A197" s="35"/>
+      <c r="B197" s="35"/>
+      <c r="C197" s="35"/>
+      <c r="D197" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E197" s="17"/>
+      <c r="F197" s="17"/>
+      <c r="G197" s="17"/>
+      <c r="H197" s="17"/>
+      <c r="I197" s="17"/>
+      <c r="J197" s="17"/>
+      <c r="K197" s="17"/>
     </row>
     <row r="198" spans="1:11">
-      <c r="A198" s="36"/>
-      <c r="B198" s="36"/>
-      <c r="C198" s="46"/>
-      <c r="D198" s="17"/>
-      <c r="E198" s="18"/>
-      <c r="F198" s="18"/>
-      <c r="G198" s="18"/>
-      <c r="H198" s="18"/>
-      <c r="I198" s="18"/>
-      <c r="J198" s="18"/>
-      <c r="K198" s="18"/>
+      <c r="A198" s="35"/>
+      <c r="B198" s="35"/>
+      <c r="C198" s="35"/>
+      <c r="D198" s="16"/>
+      <c r="E198" s="17"/>
+      <c r="F198" s="17"/>
+      <c r="G198" s="17"/>
+      <c r="H198" s="17"/>
+      <c r="I198" s="17"/>
+      <c r="J198" s="17"/>
+      <c r="K198" s="17"/>
     </row>
     <row r="199" spans="1:11">
-      <c r="A199" s="36"/>
-      <c r="B199" s="36"/>
-      <c r="C199" s="46"/>
-      <c r="D199" s="17" t="s">
+      <c r="A199" s="35"/>
+      <c r="B199" s="35"/>
+      <c r="C199" s="35"/>
+      <c r="D199" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="E199" s="18"/>
-      <c r="F199" s="18"/>
-      <c r="G199" s="18"/>
-      <c r="H199" s="18"/>
-      <c r="I199" s="18"/>
-      <c r="J199" s="18"/>
-      <c r="K199" s="18"/>
+      <c r="E199" s="17"/>
+      <c r="F199" s="17"/>
+      <c r="G199" s="17"/>
+      <c r="H199" s="17"/>
+      <c r="I199" s="17"/>
+      <c r="J199" s="17"/>
+      <c r="K199" s="17"/>
     </row>
     <row r="200" spans="1:11">
-      <c r="A200" s="36"/>
-      <c r="B200" s="36"/>
-      <c r="C200" s="46"/>
-      <c r="D200" s="17" t="s">
+      <c r="A200" s="35"/>
+      <c r="B200" s="35"/>
+      <c r="C200" s="35"/>
+      <c r="D200" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E200" s="18"/>
-      <c r="F200" s="18"/>
-      <c r="G200" s="18"/>
-      <c r="H200" s="18"/>
-      <c r="I200" s="18"/>
-      <c r="J200" s="18"/>
-      <c r="K200" s="18"/>
+      <c r="E200" s="17"/>
+      <c r="F200" s="17"/>
+      <c r="G200" s="17"/>
+      <c r="H200" s="17"/>
+      <c r="I200" s="17"/>
+      <c r="J200" s="17"/>
+      <c r="K200" s="17"/>
     </row>
     <row r="201" spans="1:11">
-      <c r="A201" s="36"/>
-      <c r="B201" s="36"/>
-      <c r="C201" s="47"/>
-      <c r="D201" s="17"/>
-      <c r="E201" s="18"/>
-      <c r="F201" s="18"/>
-      <c r="G201" s="18"/>
-      <c r="H201" s="18"/>
-      <c r="I201" s="18"/>
-      <c r="J201" s="18"/>
-      <c r="K201" s="18"/>
+      <c r="A201" s="35"/>
+      <c r="B201" s="35"/>
+      <c r="C201" s="33"/>
+      <c r="D201" s="16"/>
+      <c r="E201" s="17"/>
+      <c r="F201" s="17"/>
+      <c r="G201" s="17"/>
+      <c r="H201" s="17"/>
+      <c r="I201" s="17"/>
+      <c r="J201" s="17"/>
+      <c r="K201" s="17"/>
     </row>
     <row r="202" spans="1:11">
-      <c r="A202" s="36"/>
-      <c r="B202" s="36"/>
-      <c r="C202" s="48" t="s">
+      <c r="A202" s="35"/>
+      <c r="B202" s="35"/>
+      <c r="C202" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D202" s="17"/>
-      <c r="E202" s="18"/>
-      <c r="F202" s="18"/>
-      <c r="G202" s="18"/>
-      <c r="H202" s="18"/>
-      <c r="I202" s="18"/>
-      <c r="J202" s="18"/>
-      <c r="K202" s="18"/>
+      <c r="D202" s="16"/>
+      <c r="E202" s="17"/>
+      <c r="F202" s="17"/>
+      <c r="G202" s="17"/>
+      <c r="H202" s="17"/>
+      <c r="I202" s="17"/>
+      <c r="J202" s="17"/>
+      <c r="K202" s="17"/>
     </row>
     <row r="203" spans="1:11">
-      <c r="A203" s="36"/>
-      <c r="B203" s="36"/>
-      <c r="C203" s="48"/>
-      <c r="D203" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="E203" s="18"/>
-      <c r="F203" s="18"/>
-      <c r="G203" s="18"/>
-      <c r="H203" s="18"/>
-      <c r="I203" s="18"/>
-      <c r="J203" s="18"/>
-      <c r="K203" s="18"/>
+      <c r="A203" s="35"/>
+      <c r="B203" s="35"/>
+      <c r="C203" s="36"/>
+      <c r="D203" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="E203" s="17"/>
+      <c r="F203" s="17"/>
+      <c r="G203" s="17"/>
+      <c r="H203" s="17"/>
+      <c r="I203" s="17"/>
+      <c r="J203" s="17"/>
+      <c r="K203" s="17"/>
     </row>
     <row r="204" spans="1:11">
-      <c r="A204" s="36"/>
-      <c r="B204" s="36"/>
-      <c r="C204" s="48"/>
-      <c r="D204" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="E204" s="18"/>
-      <c r="F204" s="18"/>
-      <c r="G204" s="18"/>
-      <c r="H204" s="18"/>
-      <c r="I204" s="18"/>
-      <c r="J204" s="18"/>
-      <c r="K204" s="18"/>
+      <c r="A204" s="35"/>
+      <c r="B204" s="35"/>
+      <c r="C204" s="36"/>
+      <c r="D204" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="E204" s="17"/>
+      <c r="F204" s="17"/>
+      <c r="G204" s="17"/>
+      <c r="H204" s="17"/>
+      <c r="I204" s="17"/>
+      <c r="J204" s="17"/>
+      <c r="K204" s="17"/>
     </row>
     <row r="205" spans="1:11">
-      <c r="A205" s="34"/>
-      <c r="B205" s="34"/>
-      <c r="C205" s="49"/>
-      <c r="D205" s="17"/>
-      <c r="E205" s="18"/>
-      <c r="F205" s="18"/>
-      <c r="G205" s="18"/>
-      <c r="H205" s="18"/>
-      <c r="I205" s="18"/>
-      <c r="J205" s="18"/>
-      <c r="K205" s="18"/>
+      <c r="A205" s="33"/>
+      <c r="B205" s="33"/>
+      <c r="C205" s="34"/>
+      <c r="D205" s="16"/>
+      <c r="E205" s="17"/>
+      <c r="F205" s="17"/>
+      <c r="G205" s="17"/>
+      <c r="H205" s="17"/>
+      <c r="I205" s="17"/>
+      <c r="J205" s="17"/>
+      <c r="K205" s="17"/>
     </row>
     <row r="206" spans="1:11">
-      <c r="A206" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="B206" s="31" t="s">
+      <c r="A206" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B206" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="C206" s="50" t="s">
+      <c r="C206" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="D206" s="18"/>
-      <c r="E206" s="18"/>
-      <c r="F206" s="18"/>
-      <c r="G206" s="18"/>
-      <c r="H206" s="18"/>
-      <c r="I206" s="18"/>
-      <c r="J206" s="18"/>
-      <c r="K206" s="18"/>
+      <c r="D206" s="17"/>
+      <c r="E206" s="17"/>
+      <c r="F206" s="17"/>
+      <c r="G206" s="17"/>
+      <c r="H206" s="17"/>
+      <c r="I206" s="17"/>
+      <c r="J206" s="17"/>
+      <c r="K206" s="17"/>
     </row>
     <row r="207" spans="1:11">
-      <c r="A207" s="33"/>
-      <c r="B207" s="36"/>
-      <c r="C207" s="48"/>
-      <c r="D207" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E207" s="18"/>
-      <c r="F207" s="18"/>
-      <c r="G207" s="18"/>
-      <c r="H207" s="18"/>
-      <c r="I207" s="18"/>
-      <c r="J207" s="18"/>
-      <c r="K207" s="18"/>
+      <c r="A207" s="32"/>
+      <c r="B207" s="35"/>
+      <c r="C207" s="36"/>
+      <c r="D207" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="E207" s="17"/>
+      <c r="F207" s="17"/>
+      <c r="G207" s="17"/>
+      <c r="H207" s="17"/>
+      <c r="I207" s="17"/>
+      <c r="J207" s="17"/>
+      <c r="K207" s="17"/>
     </row>
     <row r="208" spans="1:11">
-      <c r="A208" s="36"/>
-      <c r="B208" s="36"/>
-      <c r="C208" s="48"/>
-      <c r="D208" s="44"/>
-      <c r="E208" s="44"/>
-      <c r="F208" s="44"/>
-      <c r="G208" s="44"/>
-      <c r="H208" s="44"/>
-      <c r="I208" s="44"/>
-      <c r="J208" s="44"/>
-      <c r="K208" s="44"/>
+      <c r="A208" s="35"/>
+      <c r="B208" s="35"/>
+      <c r="C208" s="36"/>
+      <c r="D208" s="41"/>
+      <c r="E208" s="41"/>
+      <c r="F208" s="41"/>
+      <c r="G208" s="41"/>
+      <c r="H208" s="41"/>
+      <c r="I208" s="41"/>
+      <c r="J208" s="41"/>
+      <c r="K208" s="41"/>
     </row>
     <row r="209" spans="1:11">
-      <c r="A209" s="36"/>
-      <c r="B209" s="36"/>
-      <c r="C209" s="50" t="s">
+      <c r="A209" s="35"/>
+      <c r="B209" s="35"/>
+      <c r="C209" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="D209" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="E209" s="44"/>
-      <c r="F209" s="44"/>
-      <c r="G209" s="44"/>
-      <c r="H209" s="44"/>
-      <c r="I209" s="44"/>
-      <c r="J209" s="44"/>
-      <c r="K209" s="44"/>
+      <c r="D209" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="E209" s="41"/>
+      <c r="F209" s="41"/>
+      <c r="G209" s="41"/>
+      <c r="H209" s="41"/>
+      <c r="I209" s="41"/>
+      <c r="J209" s="41"/>
+      <c r="K209" s="41"/>
     </row>
     <row r="210" spans="1:11">
-      <c r="A210" s="36"/>
-      <c r="B210" s="36"/>
-      <c r="C210" s="48"/>
-      <c r="D210" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="E210" s="44"/>
-      <c r="F210" s="44"/>
-      <c r="G210" s="44"/>
-      <c r="H210" s="44"/>
-      <c r="I210" s="44"/>
-      <c r="J210" s="44"/>
-      <c r="K210" s="44"/>
+      <c r="A210" s="35"/>
+      <c r="B210" s="35"/>
+      <c r="C210" s="36"/>
+      <c r="D210" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="E210" s="41"/>
+      <c r="F210" s="41"/>
+      <c r="G210" s="41"/>
+      <c r="H210" s="41"/>
+      <c r="I210" s="41"/>
+      <c r="J210" s="41"/>
+      <c r="K210" s="41"/>
     </row>
     <row r="211" spans="1:11">
-      <c r="A211" s="36"/>
-      <c r="B211" s="36"/>
-      <c r="C211" s="48"/>
-      <c r="D211" s="17"/>
-      <c r="E211" s="44"/>
-      <c r="F211" s="44"/>
-      <c r="G211" s="44"/>
-      <c r="H211" s="44"/>
-      <c r="I211" s="44"/>
-      <c r="J211" s="44"/>
-      <c r="K211" s="44"/>
+      <c r="A211" s="35"/>
+      <c r="B211" s="35"/>
+      <c r="C211" s="36"/>
+      <c r="D211" s="16"/>
+      <c r="E211" s="41"/>
+      <c r="F211" s="41"/>
+      <c r="G211" s="41"/>
+      <c r="H211" s="41"/>
+      <c r="I211" s="41"/>
+      <c r="J211" s="41"/>
+      <c r="K211" s="41"/>
     </row>
     <row r="212" spans="1:11">
-      <c r="A212" s="36"/>
-      <c r="B212" s="36"/>
-      <c r="C212" s="48"/>
-      <c r="D212" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="E212" s="44"/>
-      <c r="F212" s="44"/>
-      <c r="G212" s="44"/>
-      <c r="H212" s="44"/>
-      <c r="I212" s="44"/>
-      <c r="J212" s="44"/>
-      <c r="K212" s="44"/>
+      <c r="A212" s="35"/>
+      <c r="B212" s="35"/>
+      <c r="C212" s="36"/>
+      <c r="D212" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="E212" s="41"/>
+      <c r="F212" s="41"/>
+      <c r="G212" s="41"/>
+      <c r="H212" s="41"/>
+      <c r="I212" s="41"/>
+      <c r="J212" s="41"/>
+      <c r="K212" s="41"/>
     </row>
     <row r="213" spans="1:11">
-      <c r="A213" s="36"/>
-      <c r="B213" s="36"/>
-      <c r="C213" s="48"/>
-      <c r="D213" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="E213" s="44"/>
-      <c r="F213" s="44"/>
-      <c r="G213" s="44"/>
-      <c r="H213" s="44"/>
-      <c r="I213" s="44"/>
-      <c r="J213" s="44"/>
-      <c r="K213" s="44"/>
+      <c r="A213" s="35"/>
+      <c r="B213" s="35"/>
+      <c r="C213" s="36"/>
+      <c r="D213" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="E213" s="41"/>
+      <c r="F213" s="41"/>
+      <c r="G213" s="41"/>
+      <c r="H213" s="41"/>
+      <c r="I213" s="41"/>
+      <c r="J213" s="41"/>
+      <c r="K213" s="41"/>
     </row>
     <row r="214" spans="1:11">
-      <c r="A214" s="36"/>
-      <c r="B214" s="36"/>
-      <c r="C214" s="48"/>
-      <c r="D214" s="17"/>
-      <c r="E214" s="44"/>
-      <c r="F214" s="44"/>
-      <c r="G214" s="44"/>
-      <c r="H214" s="44"/>
-      <c r="I214" s="44"/>
-      <c r="J214" s="44"/>
-      <c r="K214" s="44"/>
+      <c r="A214" s="35"/>
+      <c r="B214" s="35"/>
+      <c r="C214" s="36"/>
+      <c r="D214" s="16"/>
+      <c r="E214" s="41"/>
+      <c r="F214" s="41"/>
+      <c r="G214" s="41"/>
+      <c r="H214" s="41"/>
+      <c r="I214" s="41"/>
+      <c r="J214" s="41"/>
+      <c r="K214" s="41"/>
     </row>
     <row r="215" spans="1:11">
-      <c r="A215" s="36"/>
-      <c r="B215" s="36"/>
-      <c r="C215" s="48"/>
-      <c r="D215" s="17"/>
-      <c r="E215" s="44"/>
-      <c r="F215" s="44"/>
-      <c r="G215" s="44"/>
-      <c r="H215" s="44"/>
-      <c r="I215" s="44"/>
-      <c r="J215" s="44"/>
-      <c r="K215" s="44"/>
+      <c r="A215" s="35"/>
+      <c r="B215" s="35"/>
+      <c r="C215" s="36"/>
+      <c r="D215" s="16"/>
+      <c r="E215" s="41"/>
+      <c r="F215" s="41"/>
+      <c r="G215" s="41"/>
+      <c r="H215" s="41"/>
+      <c r="I215" s="41"/>
+      <c r="J215" s="41"/>
+      <c r="K215" s="41"/>
     </row>
     <row r="216" spans="1:11">
-      <c r="A216" s="36"/>
-      <c r="B216" s="36"/>
-      <c r="C216" s="48"/>
-      <c r="D216" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="E216" s="44"/>
-      <c r="F216" s="44"/>
-      <c r="G216" s="44"/>
-      <c r="H216" s="44"/>
-      <c r="I216" s="44"/>
-      <c r="J216" s="44"/>
-      <c r="K216" s="44"/>
+      <c r="A216" s="35"/>
+      <c r="B216" s="35"/>
+      <c r="C216" s="36"/>
+      <c r="D216" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="E216" s="41"/>
+      <c r="F216" s="41"/>
+      <c r="G216" s="41"/>
+      <c r="H216" s="41"/>
+      <c r="I216" s="41"/>
+      <c r="J216" s="41"/>
+      <c r="K216" s="41"/>
     </row>
     <row r="217" spans="1:11">
-      <c r="A217" s="36"/>
-      <c r="B217" s="36"/>
-      <c r="C217" s="48"/>
-      <c r="D217" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="E217" s="44"/>
-      <c r="F217" s="44"/>
-      <c r="G217" s="44"/>
-      <c r="H217" s="44"/>
-      <c r="I217" s="44"/>
-      <c r="J217" s="44"/>
-      <c r="K217" s="44"/>
+      <c r="A217" s="35"/>
+      <c r="B217" s="35"/>
+      <c r="C217" s="36"/>
+      <c r="D217" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="E217" s="41"/>
+      <c r="F217" s="41"/>
+      <c r="G217" s="41"/>
+      <c r="H217" s="41"/>
+      <c r="I217" s="41"/>
+      <c r="J217" s="41"/>
+      <c r="K217" s="41"/>
     </row>
     <row r="218" spans="1:11">
-      <c r="A218" s="36"/>
-      <c r="B218" s="36"/>
-      <c r="C218" s="48"/>
-      <c r="D218" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="E218" s="44"/>
-      <c r="F218" s="44"/>
-      <c r="G218" s="44"/>
-      <c r="H218" s="44"/>
-      <c r="I218" s="44"/>
-      <c r="J218" s="44"/>
-      <c r="K218" s="44"/>
+      <c r="A218" s="35"/>
+      <c r="B218" s="35"/>
+      <c r="C218" s="36"/>
+      <c r="D218" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E218" s="41"/>
+      <c r="F218" s="41"/>
+      <c r="G218" s="41"/>
+      <c r="H218" s="41"/>
+      <c r="I218" s="41"/>
+      <c r="J218" s="41"/>
+      <c r="K218" s="41"/>
     </row>
     <row r="219" spans="1:11">
-      <c r="A219" s="36"/>
-      <c r="B219" s="36"/>
-      <c r="C219" s="48"/>
-      <c r="D219" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="E219" s="44"/>
-      <c r="F219" s="44"/>
-      <c r="G219" s="44"/>
-      <c r="H219" s="44"/>
-      <c r="I219" s="44"/>
-      <c r="J219" s="44"/>
-      <c r="K219" s="44"/>
+      <c r="A219" s="35"/>
+      <c r="B219" s="35"/>
+      <c r="C219" s="36"/>
+      <c r="D219" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="E219" s="41"/>
+      <c r="F219" s="41"/>
+      <c r="G219" s="41"/>
+      <c r="H219" s="41"/>
+      <c r="I219" s="41"/>
+      <c r="J219" s="41"/>
+      <c r="K219" s="41"/>
     </row>
     <row r="220" spans="1:11">
-      <c r="A220" s="36"/>
-      <c r="B220" s="36"/>
-      <c r="C220" s="48"/>
-      <c r="D220" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="E220" s="44"/>
-      <c r="F220" s="44"/>
-      <c r="G220" s="44"/>
-      <c r="H220" s="44"/>
-      <c r="I220" s="44"/>
-      <c r="J220" s="44"/>
-      <c r="K220" s="44"/>
+      <c r="A220" s="35"/>
+      <c r="B220" s="35"/>
+      <c r="C220" s="36"/>
+      <c r="D220" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E220" s="41"/>
+      <c r="F220" s="41"/>
+      <c r="G220" s="41"/>
+      <c r="H220" s="41"/>
+      <c r="I220" s="41"/>
+      <c r="J220" s="41"/>
+      <c r="K220" s="41"/>
     </row>
     <row r="221" spans="1:11">
-      <c r="A221" s="36"/>
-      <c r="B221" s="36"/>
-      <c r="C221" s="48"/>
-      <c r="D221" s="17"/>
-      <c r="E221" s="44"/>
-      <c r="F221" s="44"/>
-      <c r="G221" s="44"/>
-      <c r="H221" s="44"/>
-      <c r="I221" s="44"/>
-      <c r="J221" s="44"/>
-      <c r="K221" s="44"/>
+      <c r="A221" s="35"/>
+      <c r="B221" s="35"/>
+      <c r="C221" s="36"/>
+      <c r="D221" s="16"/>
+      <c r="E221" s="41"/>
+      <c r="F221" s="41"/>
+      <c r="G221" s="41"/>
+      <c r="H221" s="41"/>
+      <c r="I221" s="41"/>
+      <c r="J221" s="41"/>
+      <c r="K221" s="41"/>
     </row>
     <row r="222" spans="1:11">
-      <c r="A222" s="36"/>
-      <c r="B222" s="36"/>
-      <c r="C222" s="48"/>
-      <c r="D222" s="17"/>
-      <c r="E222" s="44"/>
-      <c r="F222" s="44"/>
-      <c r="G222" s="44"/>
-      <c r="H222" s="44"/>
-      <c r="I222" s="44"/>
-      <c r="J222" s="44"/>
-      <c r="K222" s="44"/>
+      <c r="A222" s="35"/>
+      <c r="B222" s="35"/>
+      <c r="C222" s="36"/>
+      <c r="D222" s="16"/>
+      <c r="E222" s="41"/>
+      <c r="F222" s="41"/>
+      <c r="G222" s="41"/>
+      <c r="H222" s="41"/>
+      <c r="I222" s="41"/>
+      <c r="J222" s="41"/>
+      <c r="K222" s="41"/>
     </row>
     <row r="223" spans="1:11">
-      <c r="A223" s="36"/>
-      <c r="B223" s="36"/>
-      <c r="C223" s="48"/>
-      <c r="D223" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="E223" s="44"/>
-      <c r="F223" s="44"/>
-      <c r="G223" s="44"/>
-      <c r="H223" s="44"/>
-      <c r="I223" s="44"/>
-      <c r="J223" s="44"/>
-      <c r="K223" s="44"/>
+      <c r="A223" s="35"/>
+      <c r="B223" s="35"/>
+      <c r="C223" s="36"/>
+      <c r="D223" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="E223" s="41"/>
+      <c r="F223" s="41"/>
+      <c r="G223" s="41"/>
+      <c r="H223" s="41"/>
+      <c r="I223" s="41"/>
+      <c r="J223" s="41"/>
+      <c r="K223" s="41"/>
     </row>
     <row r="224" spans="1:11">
-      <c r="A224" s="36"/>
-      <c r="B224" s="36"/>
-      <c r="C224" s="48"/>
-      <c r="D224" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="E224" s="44"/>
-      <c r="F224" s="44"/>
-      <c r="G224" s="44"/>
-      <c r="H224" s="44"/>
-      <c r="I224" s="44"/>
-      <c r="J224" s="44"/>
-      <c r="K224" s="44"/>
+      <c r="A224" s="35"/>
+      <c r="B224" s="35"/>
+      <c r="C224" s="36"/>
+      <c r="D224" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="E224" s="41"/>
+      <c r="F224" s="41"/>
+      <c r="G224" s="41"/>
+      <c r="H224" s="41"/>
+      <c r="I224" s="41"/>
+      <c r="J224" s="41"/>
+      <c r="K224" s="41"/>
     </row>
     <row r="225" spans="1:11">
-      <c r="A225" s="36"/>
-      <c r="B225" s="36"/>
-      <c r="C225" s="48"/>
-      <c r="D225" s="17"/>
-      <c r="E225" s="44"/>
-      <c r="F225" s="44"/>
-      <c r="G225" s="44"/>
-      <c r="H225" s="44"/>
-      <c r="I225" s="44"/>
-      <c r="J225" s="44"/>
-      <c r="K225" s="44"/>
+      <c r="A225" s="35"/>
+      <c r="B225" s="35"/>
+      <c r="C225" s="36"/>
+      <c r="D225" s="16"/>
+      <c r="E225" s="41"/>
+      <c r="F225" s="41"/>
+      <c r="G225" s="41"/>
+      <c r="H225" s="41"/>
+      <c r="I225" s="41"/>
+      <c r="J225" s="41"/>
+      <c r="K225" s="41"/>
     </row>
     <row r="226" spans="1:11">
-      <c r="A226" s="36"/>
-      <c r="B226" s="36"/>
-      <c r="C226" s="48"/>
-      <c r="D226" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="E226" s="44"/>
-      <c r="F226" s="44"/>
-      <c r="G226" s="44"/>
-      <c r="H226" s="44"/>
-      <c r="I226" s="44"/>
-      <c r="J226" s="44"/>
-      <c r="K226" s="44"/>
+      <c r="A226" s="35"/>
+      <c r="B226" s="35"/>
+      <c r="C226" s="36"/>
+      <c r="D226" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="E226" s="41"/>
+      <c r="F226" s="41"/>
+      <c r="G226" s="41"/>
+      <c r="H226" s="41"/>
+      <c r="I226" s="41"/>
+      <c r="J226" s="41"/>
+      <c r="K226" s="41"/>
     </row>
     <row r="227" spans="1:11">
-      <c r="A227" s="36"/>
-      <c r="B227" s="36"/>
-      <c r="C227" s="48"/>
-      <c r="D227" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="E227" s="44"/>
-      <c r="F227" s="44"/>
-      <c r="G227" s="44"/>
-      <c r="H227" s="44"/>
-      <c r="I227" s="44"/>
-      <c r="J227" s="44"/>
-      <c r="K227" s="44"/>
+      <c r="A227" s="35"/>
+      <c r="B227" s="35"/>
+      <c r="C227" s="36"/>
+      <c r="D227" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="E227" s="41"/>
+      <c r="F227" s="41"/>
+      <c r="G227" s="41"/>
+      <c r="H227" s="41"/>
+      <c r="I227" s="41"/>
+      <c r="J227" s="41"/>
+      <c r="K227" s="41"/>
     </row>
     <row r="228" spans="1:11">
-      <c r="A228" s="36"/>
-      <c r="B228" s="36"/>
-      <c r="C228" s="48"/>
-      <c r="D228" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="E228" s="44"/>
-      <c r="F228" s="44"/>
-      <c r="G228" s="44"/>
-      <c r="H228" s="44"/>
-      <c r="I228" s="44"/>
-      <c r="J228" s="44"/>
-      <c r="K228" s="44"/>
+      <c r="A228" s="35"/>
+      <c r="B228" s="35"/>
+      <c r="C228" s="36"/>
+      <c r="D228" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="E228" s="41"/>
+      <c r="F228" s="41"/>
+      <c r="G228" s="41"/>
+      <c r="H228" s="41"/>
+      <c r="I228" s="41"/>
+      <c r="J228" s="41"/>
+      <c r="K228" s="41"/>
     </row>
     <row r="229" spans="1:11">
-      <c r="A229" s="36"/>
-      <c r="B229" s="36"/>
-      <c r="C229" s="48"/>
-      <c r="D229" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E229" s="44"/>
-      <c r="F229" s="44"/>
-      <c r="G229" s="44"/>
-      <c r="H229" s="44"/>
-      <c r="I229" s="44"/>
-      <c r="J229" s="44"/>
-      <c r="K229" s="44"/>
+      <c r="A229" s="35"/>
+      <c r="B229" s="35"/>
+      <c r="C229" s="36"/>
+      <c r="D229" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="E229" s="41"/>
+      <c r="F229" s="41"/>
+      <c r="G229" s="41"/>
+      <c r="H229" s="41"/>
+      <c r="I229" s="41"/>
+      <c r="J229" s="41"/>
+      <c r="K229" s="41"/>
     </row>
     <row r="230" spans="1:11">
-      <c r="A230" s="36"/>
-      <c r="B230" s="36"/>
-      <c r="C230" s="48"/>
-      <c r="D230" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="E230" s="44"/>
-      <c r="F230" s="44"/>
-      <c r="G230" s="44"/>
-      <c r="H230" s="44"/>
-      <c r="I230" s="44"/>
-      <c r="J230" s="44"/>
-      <c r="K230" s="44"/>
+      <c r="A230" s="35"/>
+      <c r="B230" s="35"/>
+      <c r="C230" s="36"/>
+      <c r="D230" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="E230" s="41"/>
+      <c r="F230" s="41"/>
+      <c r="G230" s="41"/>
+      <c r="H230" s="41"/>
+      <c r="I230" s="41"/>
+      <c r="J230" s="41"/>
+      <c r="K230" s="41"/>
     </row>
     <row r="231" spans="1:11">
-      <c r="A231" s="36"/>
-      <c r="B231" s="36"/>
-      <c r="C231" s="49"/>
-      <c r="D231" s="17"/>
-      <c r="E231" s="44"/>
-      <c r="F231" s="44"/>
-      <c r="G231" s="44"/>
-      <c r="H231" s="44"/>
-      <c r="I231" s="44"/>
-      <c r="J231" s="44"/>
-      <c r="K231" s="44"/>
+      <c r="A231" s="35"/>
+      <c r="B231" s="35"/>
+      <c r="C231" s="34"/>
+      <c r="D231" s="16"/>
+      <c r="E231" s="41"/>
+      <c r="F231" s="41"/>
+      <c r="G231" s="41"/>
+      <c r="H231" s="41"/>
+      <c r="I231" s="41"/>
+      <c r="J231" s="41"/>
+      <c r="K231" s="41"/>
     </row>
     <row r="232" ht="27" spans="1:11">
-      <c r="A232" s="51" t="s">
-        <v>199</v>
-      </c>
-      <c r="B232" s="42"/>
-      <c r="C232" s="43"/>
-      <c r="D232" s="17"/>
-      <c r="E232" s="44"/>
-      <c r="F232" s="44"/>
-      <c r="G232" s="44"/>
-      <c r="H232" s="44"/>
-      <c r="I232" s="44"/>
-      <c r="J232" s="44"/>
-      <c r="K232" s="44"/>
+      <c r="A232" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="B232" s="39"/>
+      <c r="C232" s="40"/>
+      <c r="D232" s="16"/>
+      <c r="E232" s="41"/>
+      <c r="F232" s="41"/>
+      <c r="G232" s="41"/>
+      <c r="H232" s="41"/>
+      <c r="I232" s="41"/>
+      <c r="J232" s="41"/>
+      <c r="K232" s="41"/>
     </row>
     <row r="233" ht="27" spans="1:11">
-      <c r="A233" s="51" t="s">
-        <v>200</v>
-      </c>
-      <c r="B233" s="42"/>
-      <c r="C233" s="43"/>
-      <c r="D233" s="17"/>
-      <c r="E233" s="44"/>
-      <c r="F233" s="44"/>
-      <c r="G233" s="44"/>
-      <c r="H233" s="44"/>
-      <c r="I233" s="44"/>
-      <c r="J233" s="44"/>
-      <c r="K233" s="44"/>
+      <c r="A233" s="42" t="s">
+        <v>201</v>
+      </c>
+      <c r="B233" s="39"/>
+      <c r="C233" s="40"/>
+      <c r="D233" s="16"/>
+      <c r="E233" s="41"/>
+      <c r="F233" s="41"/>
+      <c r="G233" s="41"/>
+      <c r="H233" s="41"/>
+      <c r="I233" s="41"/>
+      <c r="J233" s="41"/>
+      <c r="K233" s="41"/>
     </row>
     <row r="234" ht="27" spans="1:11">
-      <c r="A234" s="51" t="s">
-        <v>201</v>
-      </c>
-      <c r="B234" s="42"/>
-      <c r="C234" s="43"/>
-      <c r="D234" s="17"/>
-      <c r="E234" s="44"/>
-      <c r="F234" s="44"/>
-      <c r="G234" s="44"/>
-      <c r="H234" s="44"/>
-      <c r="I234" s="44"/>
-      <c r="J234" s="44"/>
-      <c r="K234" s="44"/>
+      <c r="A234" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="B234" s="39"/>
+      <c r="C234" s="40"/>
+      <c r="D234" s="16"/>
+      <c r="E234" s="41"/>
+      <c r="F234" s="41"/>
+      <c r="G234" s="41"/>
+      <c r="H234" s="41"/>
+      <c r="I234" s="41"/>
+      <c r="J234" s="41"/>
+      <c r="K234" s="41"/>
     </row>
     <row r="235" ht="27" spans="1:11">
-      <c r="A235" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="B235" s="42"/>
-      <c r="C235" s="43"/>
-      <c r="D235" s="17"/>
-      <c r="E235" s="44"/>
-      <c r="F235" s="44"/>
-      <c r="G235" s="44"/>
-      <c r="H235" s="44"/>
-      <c r="I235" s="44"/>
-      <c r="J235" s="44"/>
-      <c r="K235" s="44"/>
+      <c r="A235" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="B235" s="39"/>
+      <c r="C235" s="40"/>
+      <c r="D235" s="16"/>
+      <c r="E235" s="41"/>
+      <c r="F235" s="41"/>
+      <c r="G235" s="41"/>
+      <c r="H235" s="41"/>
+      <c r="I235" s="41"/>
+      <c r="J235" s="41"/>
+      <c r="K235" s="41"/>
     </row>
     <row r="236" ht="27" spans="1:11">
-      <c r="A236" s="51" t="s">
-        <v>203</v>
-      </c>
-      <c r="B236" s="42"/>
-      <c r="C236" s="43"/>
-      <c r="D236" s="17"/>
-      <c r="E236" s="44"/>
-      <c r="F236" s="44"/>
-      <c r="G236" s="44"/>
-      <c r="H236" s="44"/>
-      <c r="I236" s="44"/>
-      <c r="J236" s="44"/>
-      <c r="K236" s="44"/>
+      <c r="A236" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="B236" s="39"/>
+      <c r="C236" s="40"/>
+      <c r="D236" s="16"/>
+      <c r="E236" s="41"/>
+      <c r="F236" s="41"/>
+      <c r="G236" s="41"/>
+      <c r="H236" s="41"/>
+      <c r="I236" s="41"/>
+      <c r="J236" s="41"/>
+      <c r="K236" s="41"/>
     </row>
     <row r="237" ht="27" spans="1:11">
-      <c r="A237" s="51" t="s">
-        <v>204</v>
-      </c>
-      <c r="B237" s="42"/>
-      <c r="C237" s="43"/>
-      <c r="D237" s="17"/>
-      <c r="E237" s="44"/>
-      <c r="F237" s="44"/>
-      <c r="G237" s="44"/>
-      <c r="H237" s="44"/>
-      <c r="I237" s="44"/>
-      <c r="J237" s="44"/>
-      <c r="K237" s="44"/>
+      <c r="A237" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="B237" s="39"/>
+      <c r="C237" s="40"/>
+      <c r="D237" s="16"/>
+      <c r="E237" s="41"/>
+      <c r="F237" s="41"/>
+      <c r="G237" s="41"/>
+      <c r="H237" s="41"/>
+      <c r="I237" s="41"/>
+      <c r="J237" s="41"/>
+      <c r="K237" s="41"/>
     </row>
     <row r="238" spans="1:11">
-      <c r="A238" s="52" t="s">
+      <c r="A238" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B238" s="52"/>
-      <c r="C238" s="53"/>
-      <c r="D238" s="17"/>
-      <c r="E238" s="18"/>
-      <c r="F238" s="18"/>
-      <c r="G238" s="18"/>
-      <c r="H238" s="18"/>
-      <c r="I238" s="18"/>
-      <c r="J238" s="18"/>
-      <c r="K238" s="18"/>
+      <c r="B238" s="43"/>
+      <c r="C238" s="44"/>
+      <c r="D238" s="16"/>
+      <c r="E238" s="17"/>
+      <c r="F238" s="17"/>
+      <c r="G238" s="17"/>
+      <c r="H238" s="17"/>
+      <c r="I238" s="17"/>
+      <c r="J238" s="17"/>
+      <c r="K238" s="17"/>
     </row>
     <row r="239" ht="20.25" spans="1:11">
-      <c r="A239" s="54"/>
-      <c r="B239" s="54"/>
-      <c r="C239" s="54"/>
-      <c r="D239" s="54"/>
-      <c r="E239" s="54"/>
-      <c r="F239" s="54"/>
-      <c r="G239" s="54"/>
-      <c r="H239" s="54"/>
-      <c r="I239" s="54"/>
-      <c r="J239" s="54"/>
-      <c r="K239" s="54"/>
+      <c r="A239" s="45"/>
+      <c r="B239" s="45"/>
+      <c r="C239" s="45"/>
+      <c r="D239" s="45"/>
+      <c r="E239" s="45"/>
+      <c r="F239" s="45"/>
+      <c r="G239" s="45"/>
+      <c r="H239" s="45"/>
+      <c r="I239" s="45"/>
+      <c r="J239" s="45"/>
+      <c r="K239" s="45"/>
     </row>
     <row r="240" ht="20.25" spans="1:11">
-      <c r="A240" s="54"/>
-      <c r="B240" s="54"/>
-      <c r="C240" s="54"/>
-      <c r="D240" s="54"/>
-      <c r="E240" s="54"/>
-      <c r="F240" s="54"/>
-      <c r="G240" s="54"/>
-      <c r="H240" s="54"/>
-      <c r="I240" s="54"/>
-      <c r="J240" s="54"/>
-      <c r="K240" s="54"/>
+      <c r="A240" s="45"/>
+      <c r="B240" s="45"/>
+      <c r="C240" s="45"/>
+      <c r="D240" s="45"/>
+      <c r="E240" s="45"/>
+      <c r="F240" s="45"/>
+      <c r="G240" s="45"/>
+      <c r="H240" s="45"/>
+      <c r="I240" s="45"/>
+      <c r="J240" s="45"/>
+      <c r="K240" s="45"/>
     </row>
     <row r="241" ht="20.25" spans="1:11">
       <c r="A241"/>
       <c r="B241"/>
       <c r="C241"/>
-      <c r="D241" s="54"/>
-      <c r="E241" s="54"/>
-      <c r="F241" s="54"/>
-      <c r="G241" s="54"/>
-      <c r="H241" s="54"/>
-      <c r="I241" s="54"/>
-      <c r="J241" s="54"/>
-      <c r="K241" s="54"/>
+      <c r="D241" s="45"/>
+      <c r="E241" s="45"/>
+      <c r="F241" s="45"/>
+      <c r="G241" s="45"/>
+      <c r="H241" s="45"/>
+      <c r="I241" s="45"/>
+      <c r="J241" s="45"/>
+      <c r="K241" s="45"/>
     </row>
     <row r="242" ht="20.25" spans="1:11">
       <c r="A242"/>
       <c r="B242"/>
       <c r="C242"/>
-      <c r="D242" s="54"/>
-      <c r="E242" s="54"/>
-      <c r="F242" s="54"/>
-      <c r="G242" s="54"/>
-      <c r="H242" s="54"/>
-      <c r="I242" s="54"/>
-      <c r="J242" s="54"/>
-      <c r="K242" s="54"/>
+      <c r="D242" s="45"/>
+      <c r="E242" s="45"/>
+      <c r="F242" s="45"/>
+      <c r="G242" s="45"/>
+      <c r="H242" s="45"/>
+      <c r="I242" s="45"/>
+      <c r="J242" s="45"/>
+      <c r="K242" s="45"/>
     </row>
     <row r="243" ht="20.25" spans="1:11">
-      <c r="A243" s="54"/>
-      <c r="B243" s="54"/>
-      <c r="C243" s="54"/>
-      <c r="D243" s="54"/>
-      <c r="E243" s="54"/>
-      <c r="F243" s="54"/>
-      <c r="G243" s="54"/>
-      <c r="H243" s="54"/>
-      <c r="I243" s="54"/>
-      <c r="J243" s="54"/>
-      <c r="K243" s="54"/>
+      <c r="A243" s="45"/>
+      <c r="B243" s="45"/>
+      <c r="C243" s="45"/>
+      <c r="D243" s="45"/>
+      <c r="E243" s="45"/>
+      <c r="F243" s="45"/>
+      <c r="G243" s="45"/>
+      <c r="H243" s="45"/>
+      <c r="I243" s="45"/>
+      <c r="J243" s="45"/>
+      <c r="K243" s="45"/>
     </row>
     <row r="244" ht="20.25" spans="1:11">
-      <c r="A244" s="54"/>
-      <c r="B244" s="54"/>
-      <c r="C244" s="54"/>
-      <c r="D244" s="54"/>
-      <c r="E244" s="54"/>
-      <c r="F244" s="54"/>
-      <c r="G244" s="54"/>
-      <c r="H244" s="54"/>
-      <c r="I244" s="54"/>
-      <c r="J244" s="54"/>
-      <c r="K244" s="54"/>
+      <c r="A244" s="45"/>
+      <c r="B244" s="45"/>
+      <c r="C244" s="45"/>
+      <c r="D244" s="45"/>
+      <c r="E244" s="45"/>
+      <c r="F244" s="45"/>
+      <c r="G244" s="45"/>
+      <c r="H244" s="45"/>
+      <c r="I244" s="45"/>
+      <c r="J244" s="45"/>
+      <c r="K244" s="45"/>
     </row>
     <row r="245" ht="20.25" spans="1:11">
-      <c r="A245" s="54"/>
-      <c r="B245" s="54"/>
-      <c r="C245" s="54"/>
-      <c r="D245" s="54"/>
-      <c r="E245" s="54"/>
-      <c r="F245" s="54"/>
-      <c r="G245" s="54"/>
-      <c r="H245" s="54"/>
-      <c r="I245" s="54"/>
-      <c r="J245" s="54"/>
-      <c r="K245" s="54"/>
+      <c r="A245" s="45"/>
+      <c r="B245" s="45"/>
+      <c r="C245" s="45"/>
+      <c r="D245" s="45"/>
+      <c r="E245" s="45"/>
+      <c r="F245" s="45"/>
+      <c r="G245" s="45"/>
+      <c r="H245" s="45"/>
+      <c r="I245" s="45"/>
+      <c r="J245" s="45"/>
+      <c r="K245" s="45"/>
     </row>
     <row r="246" ht="20.25" spans="1:11">
-      <c r="A246" s="54"/>
-      <c r="B246" s="54"/>
-      <c r="C246" s="54"/>
-      <c r="D246" s="54"/>
-      <c r="E246" s="54"/>
-      <c r="F246" s="54"/>
-      <c r="G246" s="54"/>
-      <c r="H246" s="54"/>
-      <c r="I246" s="54"/>
-      <c r="J246" s="54"/>
-      <c r="K246" s="54"/>
+      <c r="A246" s="45"/>
+      <c r="B246" s="45"/>
+      <c r="C246" s="45"/>
+      <c r="D246" s="45"/>
+      <c r="E246" s="45"/>
+      <c r="F246" s="45"/>
+      <c r="G246" s="45"/>
+      <c r="H246" s="45"/>
+      <c r="I246" s="45"/>
+      <c r="J246" s="45"/>
+      <c r="K246" s="45"/>
     </row>
     <row r="247" ht="20.25" spans="1:11">
-      <c r="A247" s="54"/>
-      <c r="B247" s="54"/>
-      <c r="C247" s="54"/>
-      <c r="D247" s="54"/>
-      <c r="E247" s="54"/>
-      <c r="F247" s="54"/>
-      <c r="G247" s="54"/>
-      <c r="H247" s="54"/>
-      <c r="I247" s="54"/>
-      <c r="J247" s="54"/>
-      <c r="K247" s="54"/>
+      <c r="A247" s="45"/>
+      <c r="B247" s="45"/>
+      <c r="C247" s="45"/>
+      <c r="D247" s="45"/>
+      <c r="E247" s="45"/>
+      <c r="F247" s="45"/>
+      <c r="G247" s="45"/>
+      <c r="H247" s="45"/>
+      <c r="I247" s="45"/>
+      <c r="J247" s="45"/>
+      <c r="K247" s="45"/>
     </row>
     <row r="248" ht="20.25" spans="1:11">
-      <c r="A248" s="54"/>
-      <c r="B248" s="54"/>
-      <c r="C248" s="54"/>
-      <c r="D248" s="54"/>
-      <c r="E248" s="54"/>
-      <c r="F248" s="54"/>
-      <c r="G248" s="54"/>
-      <c r="H248" s="54"/>
-      <c r="I248" s="54"/>
-      <c r="J248" s="54"/>
-      <c r="K248" s="54"/>
+      <c r="A248" s="45"/>
+      <c r="B248" s="45"/>
+      <c r="C248" s="45"/>
+      <c r="D248" s="45"/>
+      <c r="E248" s="45"/>
+      <c r="F248" s="45"/>
+      <c r="G248" s="45"/>
+      <c r="H248" s="45"/>
+      <c r="I248" s="45"/>
+      <c r="J248" s="45"/>
+      <c r="K248" s="45"/>
     </row>
     <row r="249" ht="20.25" spans="1:11">
-      <c r="A249" s="54"/>
-      <c r="B249" s="54"/>
-      <c r="C249" s="54"/>
-      <c r="D249" s="54"/>
-      <c r="E249" s="54"/>
-      <c r="F249" s="54"/>
-      <c r="G249" s="54"/>
-      <c r="H249" s="54"/>
-      <c r="I249" s="54"/>
-      <c r="J249" s="54"/>
-      <c r="K249" s="54"/>
+      <c r="A249" s="45"/>
+      <c r="B249" s="45"/>
+      <c r="C249" s="45"/>
+      <c r="D249" s="45"/>
+      <c r="E249" s="45"/>
+      <c r="F249" s="45"/>
+      <c r="G249" s="45"/>
+      <c r="H249" s="45"/>
+      <c r="I249" s="45"/>
+      <c r="J249" s="45"/>
+      <c r="K249" s="45"/>
     </row>
     <row r="250" ht="20.25" spans="1:11">
-      <c r="A250" s="54"/>
-      <c r="B250" s="54"/>
-      <c r="C250" s="54"/>
-      <c r="D250" s="54"/>
-      <c r="E250" s="54"/>
-      <c r="F250" s="54"/>
-      <c r="G250" s="54"/>
-      <c r="H250" s="54"/>
-      <c r="I250" s="54"/>
-      <c r="J250" s="54"/>
-      <c r="K250" s="54"/>
+      <c r="A250" s="45"/>
+      <c r="B250" s="45"/>
+      <c r="C250" s="45"/>
+      <c r="D250" s="45"/>
+      <c r="E250" s="45"/>
+      <c r="F250" s="45"/>
+      <c r="G250" s="45"/>
+      <c r="H250" s="45"/>
+      <c r="I250" s="45"/>
+      <c r="J250" s="45"/>
+      <c r="K250" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="69">
@@ -7578,18 +7584,18 @@
     <row r="3" s="1" customFormat="1" ht="40" customHeight="1"/>
     <row r="4" s="1" customFormat="1" ht="40" customHeight="1" spans="6:7">
       <c r="F4" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="40" customHeight="1" spans="6:7">
       <c r="F5" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" ht="40" customHeight="1" spans="1:25">
@@ -7598,17 +7604,17 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -7633,11 +7639,11 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -7701,14 +7707,14 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G10" s="2"/>
       <c r="J10" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -7732,7 +7738,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -7754,7 +7760,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J12" s="2"/>
       <c r="M12" s="2"/>
@@ -8500,37 +8506,37 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/media/caltivation.xlsx
+++ b/media/caltivation.xlsx
@@ -8,11 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="总计" sheetId="1" r:id="rId1"/>
-    <sheet name="卡牌设计" sheetId="5" r:id="rId2"/>
-    <sheet name="关键词" sheetId="6" r:id="rId3"/>
-    <sheet name="卡牌" sheetId="2" r:id="rId4"/>
-    <sheet name="天赋树" sheetId="4" r:id="rId5"/>
-    <sheet name="设计灵感" sheetId="3" r:id="rId6"/>
+    <sheet name="资源、增益和减益" sheetId="6" r:id="rId2"/>
+    <sheet name="卡牌" sheetId="2" r:id="rId3"/>
+    <sheet name="天赋树" sheetId="4" r:id="rId4"/>
+    <sheet name="设计灵感" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="239">
   <si>
     <t>流派  境界</t>
   </si>
@@ -135,140 +134,106 @@
 卡牌合计</t>
   </si>
   <si>
-    <t>词缀</t>
-  </si>
-  <si>
-    <t>说明</t>
-  </si>
-  <si>
-    <t>等级</t>
-  </si>
-  <si>
-    <t>精炼类型</t>
-  </si>
-  <si>
-    <t>卡牌类型</t>
-  </si>
-  <si>
-    <t>攻击（普通攻击，法术攻击或使对方获得减益）</t>
-  </si>
-  <si>
-    <t>1，每种类型卡牌有单独的词条列表
-2，每个词条都会有自己的灵气消耗（可能为负或者百分比），卡牌总消耗为所有词缀的灵气消耗之和</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="锐字云字库隶变体GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>词条本身可以通过卡牌升级强化。但词条等级不能超过卡牌等级。
-随机生成的卡牌，其词条等级也是在1-卡牌等级之间随机的。
-词条本身的随机值只能通过精炼·混元调整，但这种调整永远不会随机出满数值（太古词条</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>✹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="锐字云字库隶变体GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）
-太古词条只能在化神或以上境界的卡牌上才能出现。</t>
-    </r>
-  </si>
-  <si>
-    <t>以下所有功能都可以撤回，但撤回不返还消耗的材料
-1，（待定）随机化一个主词条或额外词条的数值（精炼·混元）（随机数取0-1，但不包括1，太古词条不能再执行此项精炼）
-2，随机增加一个额外词条（不能超过境界允许的词条上限）（精炼·灵宝）
-3，随机替换一个额外词条（精炼·神照）
-4，（待定）随机提升一个额外词条等级（不能超过卡牌等级上限）（精炼·璇玑）
-5，提升卡牌等级（精炼·灵悟），同时提升基础词条等级，等级不能超过当前境界上限
-5，提升卡牌境界（卡牌本身升级满后才能提升境界，每个境界需要的材料不同）（精炼·破境）</t>
-  </si>
-  <si>
-    <t>加持（自身获得资源或增益）</t>
-  </si>
-  <si>
-    <t>卡牌本身可以被精炼
-卡牌升级会附带卡牌主词条的升级。</t>
-  </si>
-  <si>
-    <t>特殊（其他效果）</t>
-  </si>
-  <si>
-    <t>提升境界后会增加词条数量的下限和上限。
-提升境界后，如果词条数量不足下限，会随机增加词条。</t>
-  </si>
-  <si>
-    <t>卡牌固定词条
-每个流派有数张不同的固定词条的卡牌</t>
-  </si>
-  <si>
-    <t>每个流派都有固定的几张卡牌，它们会有一个固定的词条，这个固定词条本身就决定了卡牌的类型</t>
-  </si>
-  <si>
-    <t>词条本身的数值有上限和下限，具体数值将会处于这两者之间。游戏数据中保存的实际上是一个0-1之间的数，表示上下限之间的具体位置（取整）。</t>
-  </si>
-  <si>
-    <t>打造卡牌词缀时，只能从已知的词条库中随机获取
-获得新卡牌并领悟后，可以将新词条加入词条库</t>
-  </si>
-  <si>
-    <t>当卡牌升级时，这个0-1之间的数值不变，但上下限会提升。因此实际数值也会因此而提升。</t>
-  </si>
-  <si>
-    <t>额外随机词条
-每张卡牌可能有多个随机词条</t>
-  </si>
-  <si>
-    <t>每张卡牌，根据其境界，还可能拥有其他词条，这些随机词条从该类型和流派的全部词条中随机选取。</t>
-  </si>
-  <si>
-    <t>词条模型</t>
+    <t>通用</t>
+  </si>
+  <si>
+    <t>资源</t>
+  </si>
+  <si>
+    <t>灵气</t>
+  </si>
+  <si>
+    <t>某些词条会消耗灵气以获得某种效果。</t>
+  </si>
+  <si>
+    <t>增益</t>
+  </si>
+  <si>
+    <t>加攻</t>
+  </si>
+  <si>
+    <t>如果在减攻大于0时获得加攻，那么会减少对应数值的加攻。
+每有一点加攻，造成的伤害增加10%</t>
   </si>
   <si>
     <t>防御</t>
   </si>
   <si>
-    <t>受到攻击时，每一点防御可以抵消一点伤害
-回合开始时，防御减半</t>
+    <t>如果在易伤大于0时获得防御，那么会减少对应数值的易伤。
+防御：受到伤害时，每消耗一点防御可以抵消一点伤害。回合开始时，防御减半。</t>
+  </si>
+  <si>
+    <t>速度</t>
+  </si>
+  <si>
+    <t>如果在缓慢大于0时获得速度，那么会减少对应数值的缓慢。
+回合结束时：如果速度大于等于10，减少10点速度，获得一个额外回合。此效果每个回合只能触发一次。</t>
   </si>
   <si>
     <t>闪避</t>
   </si>
   <si>
-    <t>回合结束时：
-如果闪避大于等于10，减少10点闪避，在接下来的对手回合不会受到任何攻击伤害。</t>
-  </si>
-  <si>
-    <t>速度</t>
-  </si>
-  <si>
-    <t>回合开始时：
-如果速度小于等于-10，增加10点速度，跳过这个回合。
-回合结束时：
-如果你的速度大于等于10，你减少10点速度，你获得一个额外回合。</t>
+    <t>如果在闪避大于0时获得迟钝，那么会减少对应数值的闪避。
+回合结束时：如果闪避大于等于10，减少10点闪避，在接下来的对手回合受到的伤害减少50%。</t>
+  </si>
+  <si>
+    <t>减益</t>
+  </si>
+  <si>
+    <t>减攻</t>
+  </si>
+  <si>
+    <t>如果在加攻大于0时获得减攻，那么会减少对应数值的减攻。
+每有一点减攻，造成的伤害减少10%</t>
+  </si>
+  <si>
+    <t>易伤</t>
+  </si>
+  <si>
+    <t>如果在防御大于0时获得易伤，那么会减少对应数值的防御。
+受到伤害时，每消耗一点易伤可以增加一点伤害。回合开始时，易伤减半。</t>
+  </si>
+  <si>
+    <t>缓慢</t>
+  </si>
+  <si>
+    <t>如果在速度大于0时获得缓慢，那么会减少当前的速度。
+回合开始时：如果缓慢大于等于10，减少10点缓慢，跳过这个回合。</t>
+  </si>
+  <si>
+    <t>迟钝</t>
+  </si>
+  <si>
+    <t>如果在迟钝大于0时获得闪避，那么会减少对应数值的迟钝。
+回合开始时：如果迟钝大于等于10，减少10点迟钝，此回合受到的伤害增加50%。</t>
   </si>
   <si>
     <t>剑气</t>
   </si>
   <si>
+    <t>每1点剑气使飞剑攻击所造成的伤害增加1
+某些词条会消耗剑气以获得某种效果。</t>
+  </si>
+  <si>
+    <t>剑鸣</t>
+  </si>
+  <si>
+    <t>回合开始时：如果己方的剑</t>
+  </si>
+  <si>
+    <t>剑阵</t>
+  </si>
+  <si>
     <t>流血</t>
   </si>
   <si>
     <t>外伤</t>
+  </si>
+  <si>
+    <t>道法</t>
+  </si>
+  <si>
+    <t>某些词条会消耗剑气以获得某种效果。</t>
   </si>
   <si>
     <t>类型</t>
@@ -299,12 +264,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="锐字云字库隶变体GBK"/>
-        <charset val="134"/>
-      </rPr>
       <t>化神(21-25)
 1个基础词条+4个额外词条（包含0-1个太古</t>
     </r>
@@ -331,12 +290,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="锐字云字库隶变体GBK"/>
-        <charset val="134"/>
-      </rPr>
       <t>炼虚(26-30)
 1个基础词条+4个额外词条（包含1-2个太古</t>
     </r>
@@ -363,12 +316,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="锐字云字库隶变体GBK"/>
-        <charset val="134"/>
-      </rPr>
       <t>合体(31-35)
 1个基础词条+4个额外词条（包含2-3个太古</t>
     </r>
@@ -395,12 +342,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="锐字云字库隶变体GBK"/>
-        <charset val="134"/>
-      </rPr>
       <t>大乘(36-40)
 1个基础词条+4个额外词条（包含3-4个太古</t>
     </r>
@@ -442,7 +383,8 @@
     <t>主词条</t>
   </si>
   <si>
-    <t>剑：剑攻击：造成6点伤害(14)</t>
+    <t>剑：剑攻击：造成6点伤害(14)
+需求</t>
   </si>
   <si>
     <t>拳：拳头攻击：造成4点伤害(8)</t>
@@ -512,9 +454,6 @@
 Blade</t>
   </si>
   <si>
-    <t>通用</t>
-  </si>
-  <si>
     <t>飞剑攻击：造成9点伤害(17)
 每级提升2点</t>
   </si>
@@ -579,7 +518,7 @@
     <t>消耗全部剑气：每1点剑气获得3点速度</t>
   </si>
   <si>
-    <t>剑气+1(3)(每1点剑气使飞剑攻击所造成的伤害增加10%)</t>
+    <t>剑气+3(5)(每1点剑气使飞剑攻击所造成的伤害增加1</t>
   </si>
   <si>
     <t>速度+6(10)</t>
@@ -882,16 +821,37 @@
 Theurgy</t>
   </si>
   <si>
-    <t>剑修卡牌伤害增加5</t>
-  </si>
-  <si>
-    <t>战斗开始时获得2点速度</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>战斗开始时获得10点防御</t>
+  </si>
+  <si>
+    <t>再次行动的速度上限减1</t>
+  </si>
+  <si>
+    <t>获得的速度+1</t>
+  </si>
+  <si>
+    <t>获得的灵气+1</t>
+  </si>
+  <si>
+    <t>获得的防御+5</t>
+  </si>
+  <si>
+    <t>战斗开始时获得1点速度</t>
+  </si>
+  <si>
+    <t>武器伤害增加3</t>
+  </si>
+  <si>
+    <t>灵气上限 + 1</t>
   </si>
   <si>
     <t>战斗开始时获得1点灵气</t>
   </si>
   <si>
-    <t>法术卡牌伤害增加5</t>
+    <t>法术伤害增加5</t>
   </si>
   <si>
     <t>剑修
@@ -905,6 +865,9 @@
 获得打坐恢复灵气的能力</t>
   </si>
   <si>
+    <t>徒手伤害增加3</t>
+  </si>
+  <si>
     <t>化身
 可以使用化身卡牌
 获得神识探知能力。可以探查地块、对手属性、物品和卡组等等</t>
@@ -915,12 +878,36 @@
 获得打坐恢复生命的能力</t>
   </si>
   <si>
+    <t>战斗开始时获得1点闪避</t>
+  </si>
+  <si>
+    <t>获得的闪避+1</t>
+  </si>
+  <si>
     <t>受到的所有伤害减少15%</t>
+  </si>
+  <si>
+    <t>从闪避获得的减伤增加5%</t>
   </si>
   <si>
     <t>炼魂
 可以使用炼魂卡牌
 获得收集阴气、煞气、怨气的能力</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>战斗中对手可以同时获得的负面效果种类上限+1（初始为3）</t>
+  </si>
+  <si>
+    <t>生命上限+10</t>
+  </si>
+  <si>
+    <t>回合结束时回复5点生命</t>
+  </si>
+  <si>
+    <t>获得的生命+5</t>
   </si>
   <si>
     <t>下一张灵气卡牌无需消耗灵气</t>
@@ -955,7 +942,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1016,13 +1003,6 @@
       <color theme="1"/>
       <name val="锐字云字库隶变体GBK"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
@@ -1414,21 +1394,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -1440,6 +1405,21 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1705,149 +1685,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1875,7 +1855,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1887,7 +1867,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1899,72 +1879,72 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1980,61 +1960,49 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2376,654 +2344,654 @@
       <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="50" t="s">
         <v>7</v>
       </c>
       <c r="I1"/>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="56" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="M1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="N1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="O1" s="56" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="20.25" spans="1:15">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="63">
+      <c r="B2" s="59">
         <v>10</v>
       </c>
-      <c r="C2" s="63">
+      <c r="C2" s="59">
         <v>10</v>
       </c>
-      <c r="D2" s="63">
+      <c r="D2" s="59">
         <v>10</v>
       </c>
-      <c r="E2" s="63">
+      <c r="E2" s="59">
         <v>10</v>
       </c>
-      <c r="F2" s="64">
+      <c r="F2" s="60">
         <v>10</v>
       </c>
-      <c r="G2" s="64">
+      <c r="G2" s="60">
         <f>SUM(B2:F2)</f>
         <v>50</v>
       </c>
-      <c r="H2" s="63" t="s">
+      <c r="H2" s="59" t="s">
         <v>10</v>
       </c>
       <c r="I2"/>
       <c r="J2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="63">
+      <c r="K2" s="59">
         <v>14</v>
       </c>
-      <c r="L2" s="63">
+      <c r="L2" s="59">
         <v>37</v>
       </c>
-      <c r="M2" s="63">
+      <c r="M2" s="59">
         <v>77</v>
       </c>
-      <c r="N2" s="63">
+      <c r="N2" s="59">
         <v>147</v>
       </c>
-      <c r="O2" s="63"/>
+      <c r="O2" s="59"/>
     </row>
     <row r="3" ht="20.25" spans="1:15">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="63">
+      <c r="B3" s="59">
         <v>10</v>
       </c>
-      <c r="C3" s="63">
+      <c r="C3" s="59">
         <v>10</v>
       </c>
-      <c r="D3" s="63">
+      <c r="D3" s="59">
         <v>10</v>
       </c>
-      <c r="E3" s="63">
+      <c r="E3" s="59">
         <v>10</v>
       </c>
-      <c r="F3" s="64">
+      <c r="F3" s="60">
         <v>10</v>
       </c>
-      <c r="G3" s="64">
+      <c r="G3" s="60">
         <f>SUM(B3:F3)</f>
         <v>50</v>
       </c>
-      <c r="H3" s="63" t="s">
+      <c r="H3" s="59" t="s">
         <v>10</v>
       </c>
       <c r="I3"/>
       <c r="J3" s="47"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
     </row>
     <row r="4" ht="20.25" spans="1:15">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="63">
+      <c r="B4" s="59">
         <v>9</v>
       </c>
-      <c r="C4" s="63">
+      <c r="C4" s="59">
         <v>10</v>
       </c>
-      <c r="D4" s="63">
+      <c r="D4" s="59">
         <v>10</v>
       </c>
-      <c r="E4" s="63">
+      <c r="E4" s="59">
         <v>10</v>
       </c>
-      <c r="F4" s="64">
+      <c r="F4" s="60">
         <v>10</v>
       </c>
-      <c r="G4" s="64">
+      <c r="G4" s="60">
         <f t="shared" ref="G4:G10" si="0">SUM(B4:F4)</f>
         <v>49</v>
       </c>
-      <c r="H4" s="63" t="s">
+      <c r="H4" s="59" t="s">
         <v>10</v>
       </c>
       <c r="I4"/>
       <c r="J4" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="66">
+      <c r="K4" s="62">
         <f>K2/B18</f>
         <v>0.333333333333333</v>
       </c>
-      <c r="L4" s="66">
+      <c r="L4" s="62">
         <f>L2/C18</f>
         <v>0.420454545454545</v>
       </c>
-      <c r="M4" s="66">
+      <c r="M4" s="62">
         <f>M2/D18</f>
         <v>0.574626865671642</v>
       </c>
-      <c r="N4" s="66">
+      <c r="N4" s="62">
         <f>N2/E18</f>
         <v>0.816666666666667</v>
       </c>
-      <c r="O4" s="63"/>
+      <c r="O4" s="59"/>
     </row>
     <row r="5" ht="20.25" spans="1:15">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="64">
+      <c r="B5" s="60">
         <v>10</v>
       </c>
-      <c r="C5" s="64">
+      <c r="C5" s="60">
         <v>10</v>
       </c>
-      <c r="D5" s="64">
+      <c r="D5" s="60">
         <v>10</v>
       </c>
-      <c r="E5" s="64">
+      <c r="E5" s="60">
         <v>10</v>
       </c>
-      <c r="F5" s="64">
+      <c r="F5" s="60">
         <v>10</v>
       </c>
-      <c r="G5" s="64">
+      <c r="G5" s="60">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H5" s="63"/>
+      <c r="H5" s="59"/>
       <c r="I5"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
     </row>
     <row r="6" ht="20.25" spans="1:15">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="64">
+      <c r="B6" s="60">
         <v>10</v>
       </c>
-      <c r="C6" s="64">
+      <c r="C6" s="60">
         <v>10</v>
       </c>
-      <c r="D6" s="64">
+      <c r="D6" s="60">
         <v>10</v>
       </c>
-      <c r="E6" s="64">
+      <c r="E6" s="60">
         <v>10</v>
       </c>
-      <c r="F6" s="64">
+      <c r="F6" s="60">
         <v>10</v>
       </c>
-      <c r="G6" s="64">
+      <c r="G6" s="60">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H6" s="63"/>
+      <c r="H6" s="59"/>
       <c r="I6"/>
       <c r="J6"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
     </row>
     <row r="7" ht="20.25" spans="1:15">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="64">
+      <c r="B7" s="60">
         <v>10</v>
       </c>
-      <c r="C7" s="64">
+      <c r="C7" s="60">
         <v>10</v>
       </c>
-      <c r="D7" s="64">
+      <c r="D7" s="60">
         <v>10</v>
       </c>
-      <c r="E7" s="64">
+      <c r="E7" s="60">
         <v>10</v>
       </c>
-      <c r="F7" s="64">
+      <c r="F7" s="60">
         <v>10</v>
       </c>
-      <c r="G7" s="64">
+      <c r="G7" s="60">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H7" s="63"/>
+      <c r="H7" s="59"/>
       <c r="I7"/>
       <c r="J7"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
     </row>
     <row r="8" ht="20.25" spans="1:15">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="63">
+      <c r="B8" s="59">
         <v>5</v>
       </c>
-      <c r="C8" s="63">
+      <c r="C8" s="59">
         <v>4</v>
       </c>
-      <c r="D8" s="63">
+      <c r="D8" s="59">
         <v>4</v>
       </c>
-      <c r="E8" s="63">
+      <c r="E8" s="59">
         <v>4</v>
       </c>
-      <c r="F8" s="64">
+      <c r="F8" s="60">
         <v>4</v>
       </c>
-      <c r="G8" s="64">
+      <c r="G8" s="60">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H8" s="63" t="s">
+      <c r="H8" s="59" t="s">
         <v>10</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
     </row>
     <row r="9" ht="20.25" spans="1:15">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="63">
+      <c r="B9" s="59">
         <v>4</v>
       </c>
-      <c r="C9" s="63">
+      <c r="C9" s="59">
         <v>4</v>
       </c>
-      <c r="D9" s="63">
+      <c r="D9" s="59">
         <v>4</v>
       </c>
-      <c r="E9" s="63">
+      <c r="E9" s="59">
         <v>4</v>
       </c>
-      <c r="F9" s="64">
+      <c r="F9" s="60">
         <v>4</v>
       </c>
-      <c r="G9" s="64">
+      <c r="G9" s="60">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H9" s="63" t="s">
+      <c r="H9" s="59" t="s">
         <v>10</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
     </row>
     <row r="10" ht="20.25" spans="1:15">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="63">
+      <c r="B10" s="59">
         <v>2</v>
       </c>
-      <c r="C10" s="63">
+      <c r="C10" s="59">
         <v>4</v>
       </c>
-      <c r="D10" s="63">
+      <c r="D10" s="59">
         <v>4</v>
       </c>
-      <c r="E10" s="63">
+      <c r="E10" s="59">
         <v>4</v>
       </c>
-      <c r="F10" s="64">
+      <c r="F10" s="60">
         <v>4</v>
       </c>
-      <c r="G10" s="64">
+      <c r="G10" s="60">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H10" s="63" t="s">
+      <c r="H10" s="59" t="s">
         <v>10</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
     </row>
     <row r="11" ht="20.25" spans="1:15">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="63">
+      <c r="B11" s="59">
         <v>2</v>
       </c>
-      <c r="C11" s="63">
+      <c r="C11" s="59">
         <v>4</v>
       </c>
-      <c r="D11" s="63">
+      <c r="D11" s="59">
         <v>4</v>
       </c>
-      <c r="E11" s="63">
+      <c r="E11" s="59">
         <v>4</v>
       </c>
-      <c r="F11" s="64">
+      <c r="F11" s="60">
         <v>4</v>
       </c>
-      <c r="G11" s="64">
+      <c r="G11" s="60">
         <f t="shared" ref="G11:G17" si="1">SUM(B11:F11)</f>
         <v>18</v>
       </c>
-      <c r="H11" s="63" t="s">
+      <c r="H11" s="59" t="s">
         <v>10</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
     </row>
     <row r="12" ht="20.25" spans="1:15">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="64">
+      <c r="B12" s="60">
         <v>4</v>
       </c>
-      <c r="C12" s="64">
+      <c r="C12" s="60">
         <v>4</v>
       </c>
-      <c r="D12" s="64">
+      <c r="D12" s="60">
         <v>4</v>
       </c>
-      <c r="E12" s="64">
+      <c r="E12" s="60">
         <v>4</v>
       </c>
-      <c r="F12" s="64">
+      <c r="F12" s="60">
         <v>4</v>
       </c>
-      <c r="G12" s="64">
+      <c r="G12" s="60">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H12" s="63"/>
+      <c r="H12" s="59"/>
       <c r="I12"/>
       <c r="J12"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
     </row>
     <row r="13" ht="20.25" spans="1:15">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="64">
+      <c r="B13" s="60">
         <v>4</v>
       </c>
-      <c r="C13" s="64">
+      <c r="C13" s="60">
         <v>4</v>
       </c>
-      <c r="D13" s="64">
+      <c r="D13" s="60">
         <v>4</v>
       </c>
-      <c r="E13" s="64">
+      <c r="E13" s="60">
         <v>4</v>
       </c>
-      <c r="F13" s="64">
+      <c r="F13" s="60">
         <v>4</v>
       </c>
-      <c r="G13" s="64">
+      <c r="G13" s="60">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H13" s="63"/>
+      <c r="H13" s="59"/>
       <c r="I13"/>
       <c r="J13"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
     </row>
     <row r="14" ht="20.25" spans="1:15">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="64">
+      <c r="B14" s="60">
         <v>4</v>
       </c>
-      <c r="C14" s="64">
+      <c r="C14" s="60">
         <v>4</v>
       </c>
-      <c r="D14" s="64">
+      <c r="D14" s="60">
         <v>4</v>
       </c>
-      <c r="E14" s="64">
+      <c r="E14" s="60">
         <v>4</v>
       </c>
-      <c r="F14" s="64">
+      <c r="F14" s="60">
         <v>4</v>
       </c>
-      <c r="G14" s="64">
+      <c r="G14" s="60">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H14" s="63"/>
+      <c r="H14" s="59"/>
       <c r="I14"/>
       <c r="J14"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
     </row>
     <row r="15" ht="20.25" spans="1:15">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="64">
+      <c r="B15" s="60">
         <v>4</v>
       </c>
-      <c r="C15" s="64">
+      <c r="C15" s="60">
         <v>4</v>
       </c>
-      <c r="D15" s="64">
+      <c r="D15" s="60">
         <v>4</v>
       </c>
-      <c r="E15" s="64">
+      <c r="E15" s="60">
         <v>4</v>
       </c>
-      <c r="F15" s="64">
+      <c r="F15" s="60">
         <v>4</v>
       </c>
-      <c r="G15" s="64">
+      <c r="G15" s="60">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H15" s="63"/>
+      <c r="H15" s="59"/>
       <c r="I15"/>
       <c r="J15"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
     </row>
     <row r="16" ht="20.25" spans="1:15">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="64">
+      <c r="B16" s="60">
         <v>4</v>
       </c>
-      <c r="C16" s="64">
+      <c r="C16" s="60">
         <v>4</v>
       </c>
-      <c r="D16" s="64">
+      <c r="D16" s="60">
         <v>4</v>
       </c>
-      <c r="E16" s="64">
+      <c r="E16" s="60">
         <v>4</v>
       </c>
-      <c r="F16" s="64">
+      <c r="F16" s="60">
         <v>4</v>
       </c>
-      <c r="G16" s="64">
+      <c r="G16" s="60">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H16" s="63"/>
+      <c r="H16" s="59"/>
       <c r="I16"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
     </row>
     <row r="17" ht="20.25" spans="1:15">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="64">
+      <c r="B17" s="60">
         <v>4</v>
       </c>
-      <c r="C17" s="64">
+      <c r="C17" s="60">
         <v>4</v>
       </c>
-      <c r="D17" s="64">
+      <c r="D17" s="60">
         <v>4</v>
       </c>
-      <c r="E17" s="64">
+      <c r="E17" s="60">
         <v>4</v>
       </c>
-      <c r="F17" s="64">
+      <c r="F17" s="60">
         <v>4</v>
       </c>
-      <c r="G17" s="64">
+      <c r="G17" s="60">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H17" s="63"/>
+      <c r="H17" s="59"/>
       <c r="I17"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
     </row>
     <row r="18" ht="48" customHeight="1" spans="1:15">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="63">
+      <c r="B18" s="59">
         <f>SUM(B2:B4,B8:B11)</f>
         <v>42</v>
       </c>
-      <c r="C18" s="63">
+      <c r="C18" s="59">
         <f>SUM(B2:C4,B8:C11)</f>
         <v>88</v>
       </c>
-      <c r="D18" s="63">
+      <c r="D18" s="59">
         <f>SUM(B2:D4,B8:D11)</f>
         <v>134</v>
       </c>
-      <c r="E18" s="63">
+      <c r="E18" s="59">
         <f>SUM(B2:E4,B8:E11)</f>
         <v>180</v>
       </c>
-      <c r="F18" s="63">
+      <c r="F18" s="59">
         <f>SUM(B2:F4,B8:F11)</f>
         <v>226</v>
       </c>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
       <c r="I18"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="68"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
     </row>
     <row r="19" ht="48" customHeight="1" spans="1:11">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="63">
+      <c r="B19" s="59">
         <f>SUM(B2:B17)</f>
         <v>96</v>
       </c>
-      <c r="C19" s="63">
+      <c r="C19" s="59">
         <f>SUM(B2:C17)</f>
         <v>196</v>
       </c>
-      <c r="D19" s="63">
+      <c r="D19" s="59">
         <f>SUM(B2:D17)</f>
         <v>296</v>
       </c>
-      <c r="E19" s="63">
+      <c r="E19" s="59">
         <f>SUM(B2:E17)</f>
         <v>396</v>
       </c>
-      <c r="F19" s="63">
+      <c r="F19" s="59">
         <f>SUM(B2:F17)</f>
         <v>496</v>
       </c>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
       <c r="I19" s="45"/>
       <c r="J19" s="45"/>
       <c r="K19" s="45"/>
@@ -3181,447 +3149,243 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="6.375" customWidth="1"/>
-    <col min="2" max="2" width="27.25" customWidth="1"/>
-    <col min="3" max="3" width="38.75" customWidth="1"/>
-    <col min="4" max="4" width="50.875" customWidth="1"/>
-    <col min="5" max="5" width="62.125" customWidth="1"/>
-    <col min="6" max="6" width="34.25" customWidth="1"/>
+    <col min="1" max="3" width="8.625" customWidth="1"/>
+    <col min="4" max="4" width="116.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" customHeight="1" spans="1:6">
-      <c r="A1" s="50"/>
-      <c r="B1" s="50"/>
-      <c r="C1" s="49" t="s">
+    <row r="1" ht="20.25" spans="1:4">
+      <c r="A1" s="46"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47"/>
+    </row>
+    <row r="2" ht="93" customHeight="1" spans="1:4">
+      <c r="A2" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="B2" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="C2" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="D2" s="51" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" ht="166" customHeight="1" spans="1:9">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51" t="s">
+    <row r="3" ht="93" customHeight="1" spans="1:4">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C3" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D3" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="53" t="s">
+    </row>
+    <row r="4" ht="93" customHeight="1" spans="1:4">
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="D4" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-    </row>
-    <row r="3" ht="100" customHeight="1" spans="1:9">
-      <c r="A3" s="56"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="49" t="s">
+    </row>
+    <row r="5" ht="93" customHeight="1" spans="1:4">
+      <c r="A5" s="52"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="53" t="s">
+      <c r="D5" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-    </row>
-    <row r="4" ht="288" customHeight="1" spans="1:9">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="49" t="s">
+    </row>
+    <row r="6" ht="112" customHeight="1" spans="1:4">
+      <c r="A6" s="52"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="53" t="s">
+      <c r="D6" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-    </row>
-    <row r="5" ht="60.75" spans="1:9">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51" t="s">
+    </row>
+    <row r="7" ht="112" customHeight="1" spans="1:4">
+      <c r="A7" s="52"/>
+      <c r="B7" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="52" t="s">
+      <c r="C7" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="D7" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="54" t="s">
+    </row>
+    <row r="8" ht="112" customHeight="1" spans="1:4">
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-    </row>
-    <row r="6" ht="47" customHeight="1" spans="1:9">
-      <c r="A6" s="56"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="53" t="s">
+      <c r="D8" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="58"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-    </row>
-    <row r="7" ht="47" customHeight="1" spans="1:9">
-      <c r="A7" s="56"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-    </row>
-    <row r="8" ht="47" customHeight="1" spans="1:9">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51" t="s">
+    </row>
+    <row r="9" ht="112" customHeight="1" spans="1:4">
+      <c r="A9" s="52"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="52" t="s">
+      <c r="D9" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-    </row>
-    <row r="9" ht="47" customHeight="1" spans="1:9">
-      <c r="A9" s="56"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-    </row>
-    <row r="10" ht="47" customHeight="1" spans="1:9">
-      <c r="A10" s="56"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-    </row>
-    <row r="11" ht="24" customHeight="1" spans="1:9">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51" t="s">
+    </row>
+    <row r="10" ht="96" customHeight="1" spans="1:4">
+      <c r="A10" s="53"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-    </row>
-    <row r="12" ht="24" customHeight="1" spans="1:9">
-      <c r="A12" s="56"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-    </row>
-    <row r="13" ht="24" customHeight="1" spans="1:9">
-      <c r="A13" s="56"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-    </row>
-    <row r="14" ht="24" customHeight="1" spans="1:9">
-      <c r="A14" s="55"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-    </row>
-    <row r="15" ht="24" customHeight="1" spans="1:9">
-      <c r="A15" s="55"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-    </row>
-    <row r="16" ht="24" customHeight="1" spans="1:9">
-      <c r="A16" s="55"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-    </row>
-    <row r="17" ht="24" customHeight="1" spans="1:9">
-      <c r="A17" s="55"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-    </row>
-    <row r="18" ht="24" customHeight="1" spans="1:9">
-      <c r="A18" s="55"/>
+      <c r="D10" s="51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" ht="63" customHeight="1" spans="1:4">
+      <c r="A11" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" ht="52" customHeight="1" spans="1:4">
+      <c r="A12" s="57"/>
+      <c r="B12" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" ht="44" customHeight="1" spans="1:4">
+      <c r="A13" s="57"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="51"/>
+    </row>
+    <row r="14" ht="75" customHeight="1" spans="1:4">
+      <c r="A14" s="57"/>
+      <c r="B14" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="51"/>
+    </row>
+    <row r="15" ht="80" customHeight="1" spans="1:4">
+      <c r="A15" s="58"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="51"/>
+    </row>
+    <row r="16" ht="72" customHeight="1" spans="1:4">
+      <c r="A16" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="56"/>
+      <c r="D16" s="51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" ht="111" customHeight="1" spans="1:4">
+      <c r="A17" s="57"/>
+      <c r="B17" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="56"/>
+      <c r="D17" s="51"/>
+    </row>
+    <row r="18" ht="54" customHeight="1" spans="1:4">
+      <c r="A18" s="57"/>
       <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-    </row>
-    <row r="19" ht="24" customHeight="1" spans="1:9">
-      <c r="A19" s="55"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-    </row>
-    <row r="20" ht="24" customHeight="1" spans="1:9">
-      <c r="A20" s="55"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-    </row>
-    <row r="21" ht="24" customHeight="1" spans="1:9">
-      <c r="A21" s="55"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-    </row>
-    <row r="22" ht="24" customHeight="1" spans="1:9">
-      <c r="A22" s="55"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-    </row>
-    <row r="23" ht="24" customHeight="1" spans="1:9">
-      <c r="A23" s="55"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-    </row>
-    <row r="24" ht="24" customHeight="1" spans="1:9">
-      <c r="A24" s="55"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-    </row>
-    <row r="25" ht="24" customHeight="1" spans="1:9">
-      <c r="A25" s="55"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-    </row>
-    <row r="26" ht="24" customHeight="1" spans="1:9">
-      <c r="A26" s="55"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-    </row>
-    <row r="27" ht="24" customHeight="1" spans="1:9">
-      <c r="A27" s="55"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-    </row>
-    <row r="28" ht="24" customHeight="1" spans="1:9">
-      <c r="A28" s="55"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-    </row>
-    <row r="29" ht="24" customHeight="1" spans="1:9">
-      <c r="A29" s="55"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-    </row>
-    <row r="30" ht="24" customHeight="1" spans="1:9">
-      <c r="A30" s="55"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-    </row>
-    <row r="31" ht="24" customHeight="1" spans="1:9">
-      <c r="A31" s="55"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-    </row>
-    <row r="32" ht="24" customHeight="1" spans="1:9">
-      <c r="A32" s="55"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-    </row>
-    <row r="33" ht="20.25" spans="1:5">
-      <c r="A33" s="55"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="E33" s="55"/>
-    </row>
-    <row r="34" ht="20.25" spans="1:5">
-      <c r="A34" s="55"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="E34" s="55"/>
-    </row>
-    <row r="35" ht="20.25" spans="1:5">
-      <c r="A35" s="55"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-      <c r="E35" s="55"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="51"/>
+    </row>
+    <row r="19" ht="72" customHeight="1" spans="1:4">
+      <c r="A19" s="57"/>
+      <c r="B19" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="56"/>
+      <c r="D19" s="51"/>
+    </row>
+    <row r="20" ht="72" customHeight="1" spans="1:4">
+      <c r="A20" s="58"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="51"/>
+    </row>
+    <row r="21" ht="20.25" spans="1:4">
+      <c r="A21" s="56"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="51"/>
+    </row>
+    <row r="22" ht="20.25" spans="1:4">
+      <c r="A22" s="56"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="51"/>
+    </row>
+    <row r="23" ht="20.25" spans="1:4">
+      <c r="A23" s="56"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F5:F7"/>
+  <mergeCells count="9">
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3631,111 +3395,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="18.125" customWidth="1"/>
-    <col min="2" max="2" width="58.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="20.25" spans="1:2">
-      <c r="A1" s="46"/>
-      <c r="B1" s="47"/>
-    </row>
-    <row r="2" ht="40.5" spans="1:2">
-      <c r="A2" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" ht="60.75" spans="1:2">
-      <c r="A3" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" ht="121.5" spans="1:2">
-      <c r="A4" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" ht="20.25" spans="1:2">
-      <c r="A5" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="49"/>
-    </row>
-    <row r="6" ht="20.25" spans="1:2">
-      <c r="A6" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="49"/>
-    </row>
-    <row r="7" ht="20.25" spans="1:2">
-      <c r="A7" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="49"/>
-    </row>
-    <row r="8" ht="20.25" spans="1:2">
-      <c r="A8" s="48"/>
-      <c r="B8" s="49"/>
-    </row>
-    <row r="9" ht="20.25" spans="1:2">
-      <c r="A9" s="48"/>
-      <c r="B9" s="49"/>
-    </row>
-    <row r="10" ht="20.25" spans="1:2">
-      <c r="A10" s="48"/>
-      <c r="B10" s="49"/>
-    </row>
-    <row r="11" ht="20.25" spans="1:2">
-      <c r="A11" s="48"/>
-      <c r="B11" s="49"/>
-    </row>
-    <row r="12" ht="20.25" spans="1:2">
-      <c r="A12" s="48"/>
-      <c r="B12" s="49"/>
-    </row>
-    <row r="13" ht="20.25" spans="1:2">
-      <c r="A13" s="48"/>
-      <c r="B13" s="49"/>
-    </row>
-    <row r="14" ht="20.25" spans="1:2">
-      <c r="A14" s="48"/>
-      <c r="B14" s="49"/>
-    </row>
-    <row r="15" ht="20.25" spans="1:2">
-      <c r="A15" s="48"/>
-      <c r="B15" s="49"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:R250"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3759,43 +3424,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
@@ -3832,16 +3497,16 @@
       <c r="J4" s="17"/>
       <c r="K4" s="17"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" ht="27" spans="1:11">
       <c r="A5" s="18"/>
       <c r="B5" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
@@ -3856,7 +3521,7 @@
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>
       <c r="D6" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
@@ -3896,13 +3561,13 @@
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
       <c r="C9" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
@@ -3916,10 +3581,10 @@
       <c r="B10" s="18"/>
       <c r="C10" s="19"/>
       <c r="D10" s="16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
@@ -3933,10 +3598,10 @@
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
       <c r="D11" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
@@ -3950,10 +3615,10 @@
       <c r="B12" s="18"/>
       <c r="C12" s="19"/>
       <c r="D12" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
@@ -3968,7 +3633,7 @@
       <c r="C13" s="19"/>
       <c r="D13" s="16"/>
       <c r="E13" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
@@ -4058,14 +3723,14 @@
     <row r="20" spans="1:11">
       <c r="A20" s="18"/>
       <c r="B20" s="18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
@@ -4079,10 +3744,10 @@
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
       <c r="D21" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
@@ -4096,10 +3761,10 @@
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
       <c r="D22" s="16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
@@ -4113,7 +3778,7 @@
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
       <c r="D23" s="16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
@@ -4153,7 +3818,7 @@
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
       <c r="C26" s="19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="17"/>
@@ -4169,7 +3834,7 @@
       <c r="B27" s="18"/>
       <c r="C27" s="19"/>
       <c r="D27" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
@@ -4184,7 +3849,7 @@
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
       <c r="D28" s="16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
@@ -4199,7 +3864,7 @@
       <c r="B29" s="18"/>
       <c r="C29" s="19"/>
       <c r="D29" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
@@ -4214,7 +3879,7 @@
       <c r="B30" s="18"/>
       <c r="C30" s="19"/>
       <c r="D30" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
@@ -4256,7 +3921,7 @@
       <c r="C33" s="19"/>
       <c r="D33" s="16"/>
       <c r="E33" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
@@ -4271,7 +3936,7 @@
       <c r="C34" s="19"/>
       <c r="D34" s="16"/>
       <c r="E34" s="17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
@@ -4286,7 +3951,7 @@
       <c r="C35" s="19"/>
       <c r="D35" s="16"/>
       <c r="E35" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
@@ -4314,7 +3979,7 @@
       <c r="C37" s="19"/>
       <c r="D37" s="16"/>
       <c r="E37" s="17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
@@ -4329,7 +3994,7 @@
       <c r="C38" s="19"/>
       <c r="D38" s="16"/>
       <c r="E38" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
@@ -4344,7 +4009,7 @@
       <c r="C39" s="19"/>
       <c r="D39" s="16"/>
       <c r="E39" s="17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
@@ -4433,10 +4098,10 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="16"/>
@@ -4477,10 +4142,10 @@
     <row r="49" ht="27" spans="1:11">
       <c r="A49" s="18"/>
       <c r="B49" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D49" s="16" t="s">
         <v>98</v>
@@ -4501,7 +4166,7 @@
       <c r="A50" s="18"/>
       <c r="B50" s="18"/>
       <c r="C50" s="19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D50" s="16"/>
       <c r="E50" s="17"/>
@@ -4876,10 +4541,10 @@
     <row r="76" spans="1:11">
       <c r="A76" s="23"/>
       <c r="B76" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D76" s="16" t="s">
         <v>119</v>
@@ -5192,7 +4857,7 @@
         <v>131</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="C98" s="19"/>
       <c r="D98" s="16" t="s">
@@ -5240,7 +4905,7 @@
     <row r="100" spans="1:18">
       <c r="A100" s="18"/>
       <c r="B100" s="18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C100" s="19"/>
       <c r="D100" s="16"/>
@@ -5328,10 +4993,10 @@
     <row r="104" spans="1:11">
       <c r="A104" s="18"/>
       <c r="B104" s="18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D104" s="16"/>
       <c r="E104" s="17"/>
@@ -5433,7 +5098,7 @@
         <v>141</v>
       </c>
       <c r="B111" s="30" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="C111" s="31"/>
       <c r="D111" s="16"/>
@@ -5461,10 +5126,10 @@
     <row r="113" ht="27" spans="1:11">
       <c r="A113" s="32"/>
       <c r="B113" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C113" s="31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D113" s="16" t="s">
         <v>142</v>
@@ -5494,7 +5159,7 @@
       <c r="A115" s="32"/>
       <c r="B115" s="35"/>
       <c r="C115" s="31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D115" s="16"/>
       <c r="E115" s="17"/>
@@ -5562,10 +5227,10 @@
     <row r="120" spans="1:11">
       <c r="A120" s="32"/>
       <c r="B120" s="30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C120" s="31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D120" s="16"/>
       <c r="E120" s="17"/>
@@ -5595,7 +5260,7 @@
       <c r="A122" s="32"/>
       <c r="B122" s="35"/>
       <c r="C122" s="31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D122" s="16" t="s">
         <v>145</v>
@@ -5686,7 +5351,7 @@
         <v>149</v>
       </c>
       <c r="B128" s="30" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="C128" s="40"/>
       <c r="D128" s="37"/>
@@ -5714,10 +5379,10 @@
     <row r="130" spans="1:11">
       <c r="A130" s="32"/>
       <c r="B130" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C130" s="31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D130" s="37"/>
       <c r="E130" s="41"/>
@@ -5758,7 +5423,7 @@
       <c r="A133" s="32"/>
       <c r="B133" s="35"/>
       <c r="C133" s="36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D133" s="37"/>
       <c r="E133" s="41"/>
@@ -5811,10 +5476,10 @@
     <row r="137" spans="1:11">
       <c r="A137" s="32"/>
       <c r="B137" s="30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C137" s="31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D137" s="16"/>
       <c r="E137" s="17"/>
@@ -5857,7 +5522,7 @@
       <c r="A140" s="32"/>
       <c r="B140" s="35"/>
       <c r="C140" s="31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D140" s="16" t="s">
         <v>151</v>
@@ -5961,7 +5626,7 @@
         <v>155</v>
       </c>
       <c r="B147" s="30" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="C147" s="40"/>
       <c r="D147" s="37"/>
@@ -5989,10 +5654,10 @@
     <row r="149" spans="1:11">
       <c r="A149" s="32"/>
       <c r="B149" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C149" s="31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D149" s="16" t="s">
         <v>156</v>
@@ -6022,7 +5687,7 @@
       <c r="A151" s="32"/>
       <c r="B151" s="35"/>
       <c r="C151" s="31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D151" s="16"/>
       <c r="E151" s="17"/>
@@ -6120,10 +5785,10 @@
     <row r="158" spans="1:11">
       <c r="A158" s="32"/>
       <c r="B158" s="30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C158" s="31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D158" s="16"/>
       <c r="E158" s="17"/>
@@ -6166,7 +5831,7 @@
       <c r="A161" s="32"/>
       <c r="B161" s="35"/>
       <c r="C161" s="31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D161" s="16" t="s">
         <v>161</v>
@@ -6270,7 +5935,7 @@
         <v>165</v>
       </c>
       <c r="B168" s="30" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="C168" s="40"/>
       <c r="D168" s="16" t="s">
@@ -6302,7 +5967,7 @@
     <row r="170" ht="27" spans="1:11">
       <c r="A170" s="35"/>
       <c r="B170" s="30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C170" s="40"/>
       <c r="D170" s="16" t="s">
@@ -6405,7 +6070,7 @@
         <v>171</v>
       </c>
       <c r="B177" s="30" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="C177" s="40"/>
       <c r="D177" s="16" t="s">
@@ -6437,10 +6102,10 @@
     <row r="179" ht="40.5" spans="1:11">
       <c r="A179" s="35"/>
       <c r="B179" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C179" s="40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D179" s="16" t="s">
         <v>174</v>
@@ -6495,10 +6160,10 @@
     <row r="183" spans="1:11">
       <c r="A183" s="35"/>
       <c r="B183" s="30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C183" s="31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D183" s="16"/>
       <c r="E183" s="17"/>
@@ -6539,7 +6204,7 @@
       <c r="A186" s="35"/>
       <c r="B186" s="35"/>
       <c r="C186" s="31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D186" s="16"/>
       <c r="E186" s="17"/>
@@ -6598,10 +6263,10 @@
         <v>176</v>
       </c>
       <c r="B190" s="30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C190" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D190" s="16" t="s">
         <v>177</v>
@@ -6649,7 +6314,7 @@
       <c r="B193" s="35"/>
       <c r="C193" s="35"/>
       <c r="D193" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E193" s="17"/>
       <c r="F193" s="17"/>
@@ -6664,7 +6329,7 @@
       <c r="B194" s="35"/>
       <c r="C194" s="35"/>
       <c r="D194" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E194" s="17"/>
       <c r="F194" s="17"/>
@@ -6679,7 +6344,7 @@
       <c r="B195" s="35"/>
       <c r="C195" s="35"/>
       <c r="D195" s="16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E195" s="17"/>
       <c r="F195" s="17"/>
@@ -6694,7 +6359,7 @@
       <c r="B196" s="35"/>
       <c r="C196" s="35"/>
       <c r="D196" s="16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E196" s="17"/>
       <c r="F196" s="17"/>
@@ -6709,7 +6374,7 @@
       <c r="B197" s="35"/>
       <c r="C197" s="35"/>
       <c r="D197" s="16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E197" s="17"/>
       <c r="F197" s="17"/>
@@ -6737,7 +6402,7 @@
       <c r="B199" s="35"/>
       <c r="C199" s="35"/>
       <c r="D199" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E199" s="17"/>
       <c r="F199" s="17"/>
@@ -6752,7 +6417,7 @@
       <c r="B200" s="35"/>
       <c r="C200" s="35"/>
       <c r="D200" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E200" s="17"/>
       <c r="F200" s="17"/>
@@ -6779,7 +6444,7 @@
       <c r="A202" s="35"/>
       <c r="B202" s="35"/>
       <c r="C202" s="36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D202" s="16"/>
       <c r="E202" s="17"/>
@@ -6838,10 +6503,10 @@
         <v>182</v>
       </c>
       <c r="B206" s="30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C206" s="31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D206" s="17"/>
       <c r="E206" s="17"/>
@@ -6884,7 +6549,7 @@
       <c r="A209" s="35"/>
       <c r="B209" s="35"/>
       <c r="C209" s="31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D209" s="16" t="s">
         <v>184</v>
@@ -7552,937 +7217,1220 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y40"/>
+  <dimension ref="A1:AF47"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="10.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="52.35" style="1" customWidth="1"/>
-    <col min="4" max="5" width="10.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.2583333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.15" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="26.9083333333333" style="1" customWidth="1"/>
-    <col min="10" max="11" width="31.3166666666667" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.8833333333333" style="1" customWidth="1"/>
-    <col min="13" max="17" width="10.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="17.3416666666667" style="1" customWidth="1"/>
-    <col min="19" max="25" width="10.625" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="21.7666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.675" style="1" customWidth="1"/>
+    <col min="3" max="11" width="29.9916666666667" style="1" customWidth="1"/>
+    <col min="12" max="12" width="35.1416666666667" style="1" customWidth="1"/>
+    <col min="13" max="13" width="29.2583333333333" style="1" customWidth="1"/>
+    <col min="14" max="14" width="25.15" style="1" customWidth="1"/>
+    <col min="15" max="15" width="27.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="26.9083333333333" style="1" customWidth="1"/>
+    <col min="17" max="18" width="31.3166666666667" style="1" customWidth="1"/>
+    <col min="19" max="19" width="34.7" style="1" customWidth="1"/>
+    <col min="20" max="24" width="10.625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="17.3416666666667" style="1" customWidth="1"/>
+    <col min="26" max="32" width="10.625" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="40" customHeight="1"/>
-    <row r="2" s="1" customFormat="1" ht="40" customHeight="1"/>
-    <row r="3" s="1" customFormat="1" ht="40" customHeight="1"/>
-    <row r="4" s="1" customFormat="1" ht="40" customHeight="1" spans="6:7">
-      <c r="F4" s="1" t="s">
+    <row r="1" spans="4:4">
+      <c r="D1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="G4" s="2" t="s">
+    </row>
+    <row r="8" s="1" customFormat="1" ht="40" customHeight="1" spans="11:11">
+      <c r="K8" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="40" customHeight="1" spans="6:7">
-      <c r="F5" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" ht="40" customHeight="1" spans="1:25">
-      <c r="A6" s="3"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
+    <row r="9" s="1" customFormat="1" ht="40" customHeight="1"/>
+    <row r="10" s="1" customFormat="1" ht="40" customHeight="1" spans="12:12">
+      <c r="L10" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J6" s="2" t="s">
+    </row>
+    <row r="11" s="1" customFormat="1" ht="40" customHeight="1" spans="12:17">
+      <c r="L11" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="7"/>
-    </row>
-    <row r="7" ht="67" customHeight="1" spans="1:25">
-      <c r="A7" s="3"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="4" t="s">
+      <c r="M11" s="1"/>
+      <c r="N11" s="3"/>
+      <c r="Q11" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="4" t="s">
+    </row>
+    <row r="12" s="1" customFormat="1" ht="40" customHeight="1" spans="11:18">
+      <c r="K12" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="7"/>
-    </row>
-    <row r="8" ht="40" customHeight="1" spans="1:25">
-      <c r="A8" s="3"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="7"/>
-    </row>
-    <row r="9" ht="40" customHeight="1" spans="1:25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="7"/>
-    </row>
-    <row r="10" ht="112" customHeight="1" spans="1:25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="4" t="s">
+      <c r="L12" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="J10" s="4" t="s">
+      <c r="M12" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="N12" s="3"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="7"/>
-    </row>
-    <row r="11" ht="40" customHeight="1" spans="1:25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="K11" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="7"/>
-    </row>
-    <row r="12" ht="90" customHeight="1" spans="1:25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="4" t="s">
+      <c r="Q12" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="7"/>
-    </row>
-    <row r="13" ht="40" customHeight="1" spans="1:25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="7"/>
-    </row>
-    <row r="14" ht="40" customHeight="1" spans="1:25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="7"/>
-    </row>
-    <row r="15" ht="40" customHeight="1" spans="1:25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="7"/>
-    </row>
-    <row r="16" ht="40" customHeight="1" spans="1:25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="7"/>
-    </row>
-    <row r="17" ht="40" customHeight="1" spans="1:25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="7"/>
-    </row>
-    <row r="18" ht="40" customHeight="1" spans="1:25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="7"/>
-    </row>
-    <row r="19" ht="40" customHeight="1" spans="1:25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="7"/>
-    </row>
-    <row r="20" ht="40" customHeight="1" spans="1:25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="7"/>
-    </row>
-    <row r="21" ht="40" customHeight="1" spans="1:25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="7"/>
-    </row>
-    <row r="22" ht="40" customHeight="1" spans="1:25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="7"/>
-    </row>
-    <row r="23" ht="40" customHeight="1" spans="1:25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="7"/>
-    </row>
-    <row r="24" ht="40" customHeight="1" spans="1:25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="7"/>
-    </row>
-    <row r="25" ht="40" customHeight="1" spans="1:25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="7"/>
-    </row>
-    <row r="26" ht="40" customHeight="1" spans="1:25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="7"/>
-    </row>
-    <row r="27" ht="40" customHeight="1" spans="1:25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="7"/>
-    </row>
-    <row r="28" ht="40" customHeight="1" spans="1:25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="7"/>
-    </row>
-    <row r="29" ht="40" customHeight="1" spans="1:25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="7"/>
-    </row>
-    <row r="30" ht="40" customHeight="1" spans="1:25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="7"/>
-    </row>
-    <row r="31" ht="40" customHeight="1" spans="1:25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="7"/>
-    </row>
-    <row r="32" ht="40" customHeight="1" spans="1:25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="7"/>
-    </row>
-    <row r="33" ht="40" customHeight="1" spans="1:25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-      <c r="W33" s="2"/>
-      <c r="X33" s="2"/>
-      <c r="Y33" s="7"/>
-    </row>
-    <row r="34" ht="40" customHeight="1" spans="1:25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="7"/>
-    </row>
-    <row r="35" ht="40" customHeight="1" spans="1:25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-      <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
-      <c r="Y35" s="7"/>
-    </row>
-    <row r="36" ht="40" customHeight="1" spans="1:25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="7"/>
-    </row>
-    <row r="37" ht="40" customHeight="1" spans="1:25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-      <c r="W37" s="2"/>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="7"/>
-    </row>
-    <row r="38" ht="40" customHeight="1" spans="1:25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-      <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="7"/>
-    </row>
-    <row r="39" ht="40" customHeight="1" spans="1:25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="7"/>
-    </row>
-    <row r="40" ht="40" customHeight="1" spans="1:25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
-      <c r="W40" s="6"/>
-      <c r="X40" s="6"/>
-      <c r="Y40" s="8"/>
+      <c r="R12" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" ht="40" customHeight="1" spans="1:32">
+      <c r="A13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="7"/>
+    </row>
+    <row r="14" ht="90" customHeight="1" spans="1:32">
+      <c r="A14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="Q14" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="7"/>
+    </row>
+    <row r="15" ht="40" customHeight="1" spans="1:32">
+      <c r="A15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="7"/>
+    </row>
+    <row r="16" ht="40" customHeight="1" spans="1:32">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="3"/>
+      <c r="R16" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="7"/>
+    </row>
+    <row r="17" ht="90" customHeight="1" spans="1:32">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="N17" s="3"/>
+      <c r="Q17" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="7"/>
+    </row>
+    <row r="18" ht="40" customHeight="1" spans="1:32">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="R18" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="7"/>
+    </row>
+    <row r="19" ht="90" customHeight="1" spans="1:32">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="1"/>
+      <c r="T19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="7"/>
+    </row>
+    <row r="20" ht="40" customHeight="1" spans="1:32">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="7"/>
+    </row>
+    <row r="21" ht="40" customHeight="1" spans="1:32">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="7"/>
+    </row>
+    <row r="22" ht="40" customHeight="1" spans="1:32">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="7"/>
+    </row>
+    <row r="23" ht="40" customHeight="1" spans="1:32">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="7"/>
+    </row>
+    <row r="24" ht="40" customHeight="1" spans="1:32">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="7"/>
+    </row>
+    <row r="25" ht="40" customHeight="1" spans="1:32">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="7"/>
+    </row>
+    <row r="26" ht="40" customHeight="1" spans="1:32">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="7"/>
+    </row>
+    <row r="27" ht="40" customHeight="1" spans="1:32">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="7"/>
+    </row>
+    <row r="28" ht="40" customHeight="1" spans="1:32">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="7"/>
+    </row>
+    <row r="29" ht="40" customHeight="1" spans="1:32">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="7"/>
+    </row>
+    <row r="30" ht="40" customHeight="1" spans="1:32">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="7"/>
+    </row>
+    <row r="31" ht="40" customHeight="1" spans="1:32">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="7"/>
+    </row>
+    <row r="32" ht="40" customHeight="1" spans="1:32">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="7"/>
+    </row>
+    <row r="33" ht="40" customHeight="1" spans="1:32">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="7"/>
+    </row>
+    <row r="34" ht="40" customHeight="1" spans="1:32">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="7"/>
+    </row>
+    <row r="35" ht="40" customHeight="1" spans="1:32">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="7"/>
+    </row>
+    <row r="36" ht="40" customHeight="1" spans="1:32">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="7"/>
+    </row>
+    <row r="37" ht="40" customHeight="1" spans="1:32">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3"/>
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="7"/>
+    </row>
+    <row r="38" ht="40" customHeight="1" spans="1:32">
+      <c r="A38" s="2"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
+      <c r="AE38" s="3"/>
+      <c r="AF38" s="7"/>
+    </row>
+    <row r="39" ht="40" customHeight="1" spans="1:32">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="7"/>
+    </row>
+    <row r="40" ht="40" customHeight="1" spans="1:32">
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="7"/>
+    </row>
+    <row r="41" ht="40" customHeight="1" spans="1:32">
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
+      <c r="AB41" s="3"/>
+      <c r="AC41" s="3"/>
+      <c r="AD41" s="3"/>
+      <c r="AE41" s="3"/>
+      <c r="AF41" s="7"/>
+    </row>
+    <row r="42" ht="40" customHeight="1" spans="1:32">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
+      <c r="AB42" s="3"/>
+      <c r="AC42" s="3"/>
+      <c r="AD42" s="3"/>
+      <c r="AE42" s="3"/>
+      <c r="AF42" s="7"/>
+    </row>
+    <row r="43" ht="40" customHeight="1" spans="1:32">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+      <c r="AB43" s="3"/>
+      <c r="AC43" s="3"/>
+      <c r="AD43" s="3"/>
+      <c r="AE43" s="3"/>
+      <c r="AF43" s="7"/>
+    </row>
+    <row r="44" ht="40" customHeight="1" spans="1:32">
+      <c r="A44" s="2"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3"/>
+      <c r="AB44" s="3"/>
+      <c r="AC44" s="3"/>
+      <c r="AD44" s="3"/>
+      <c r="AE44" s="3"/>
+      <c r="AF44" s="7"/>
+    </row>
+    <row r="45" ht="40" customHeight="1" spans="1:32">
+      <c r="A45" s="2"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="3"/>
+      <c r="AC45" s="3"/>
+      <c r="AD45" s="3"/>
+      <c r="AE45" s="3"/>
+      <c r="AF45" s="7"/>
+    </row>
+    <row r="46" ht="40" customHeight="1" spans="1:32">
+      <c r="A46" s="2"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="3"/>
+      <c r="AB46" s="3"/>
+      <c r="AC46" s="3"/>
+      <c r="AD46" s="3"/>
+      <c r="AE46" s="3"/>
+      <c r="AF46" s="7"/>
+    </row>
+    <row r="47" ht="40" customHeight="1" spans="1:32">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="5"/>
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="5"/>
+      <c r="AC47" s="5"/>
+      <c r="AD47" s="5"/>
+      <c r="AE47" s="5"/>
+      <c r="AF47" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8490,13 +8438,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -8506,37 +8454,37 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/media/caltivation.xlsx
+++ b/media/caltivation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="总计" sheetId="1" r:id="rId1"/>
@@ -239,7 +239,7 @@
     <t>类型</t>
   </si>
   <si>
-    <t>凝气(1-5)
+    <t>凝气(0-5)
 1个基础词条，0-1个额外词条
 卡牌名字长度（1）
 卡组上限：3（最多1张消耗或持续牌）</t>
@@ -264,6 +264,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="锐字云字库隶变体GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>化神(21-25)
 1个基础词条+4个额外词条（包含0-1个太古</t>
     </r>
@@ -290,6 +296,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="锐字云字库隶变体GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>炼虚(26-30)
 1个基础词条+4个额外词条（包含1-2个太古</t>
     </r>
@@ -316,6 +328,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="锐字云字库隶变体GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>合体(31-35)
 1个基础词条+4个额外词条（包含2-3个太古</t>
     </r>
@@ -342,6 +360,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="锐字云字库隶变体GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>大乘(36-40)
 1个基础词条+4个额外词条（包含3-4个太古</t>
     </r>
@@ -1815,7 +1839,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1966,9 +1990,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1979,9 +2000,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2344,654 +2362,654 @@
       <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="49" t="s">
         <v>7</v>
       </c>
       <c r="I1"/>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="54" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="56" t="s">
+      <c r="L1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="M1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="56" t="s">
+      <c r="N1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="56" t="s">
+      <c r="O1" s="54" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="20.25" spans="1:15">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="59">
+      <c r="B2" s="57">
         <v>10</v>
       </c>
-      <c r="C2" s="59">
+      <c r="C2" s="57">
         <v>10</v>
       </c>
-      <c r="D2" s="59">
+      <c r="D2" s="57">
         <v>10</v>
       </c>
-      <c r="E2" s="59">
+      <c r="E2" s="57">
         <v>10</v>
       </c>
-      <c r="F2" s="60">
+      <c r="F2" s="58">
         <v>10</v>
       </c>
-      <c r="G2" s="60">
+      <c r="G2" s="58">
         <f>SUM(B2:F2)</f>
         <v>50</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="57" t="s">
         <v>10</v>
       </c>
       <c r="I2"/>
       <c r="J2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="59">
+      <c r="K2" s="57">
         <v>14</v>
       </c>
-      <c r="L2" s="59">
+      <c r="L2" s="57">
         <v>37</v>
       </c>
-      <c r="M2" s="59">
+      <c r="M2" s="57">
         <v>77</v>
       </c>
-      <c r="N2" s="59">
+      <c r="N2" s="57">
         <v>147</v>
       </c>
-      <c r="O2" s="59"/>
+      <c r="O2" s="57"/>
     </row>
     <row r="3" ht="20.25" spans="1:15">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="59">
+      <c r="B3" s="57">
         <v>10</v>
       </c>
-      <c r="C3" s="59">
+      <c r="C3" s="57">
         <v>10</v>
       </c>
-      <c r="D3" s="59">
+      <c r="D3" s="57">
         <v>10</v>
       </c>
-      <c r="E3" s="59">
+      <c r="E3" s="57">
         <v>10</v>
       </c>
-      <c r="F3" s="60">
+      <c r="F3" s="58">
         <v>10</v>
       </c>
-      <c r="G3" s="60">
+      <c r="G3" s="58">
         <f>SUM(B3:F3)</f>
         <v>50</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="57" t="s">
         <v>10</v>
       </c>
       <c r="I3"/>
       <c r="J3" s="47"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
     </row>
     <row r="4" ht="20.25" spans="1:15">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="59">
+      <c r="B4" s="57">
         <v>9</v>
       </c>
-      <c r="C4" s="59">
+      <c r="C4" s="57">
         <v>10</v>
       </c>
-      <c r="D4" s="59">
+      <c r="D4" s="57">
         <v>10</v>
       </c>
-      <c r="E4" s="59">
+      <c r="E4" s="57">
         <v>10</v>
       </c>
-      <c r="F4" s="60">
+      <c r="F4" s="58">
         <v>10</v>
       </c>
-      <c r="G4" s="60">
+      <c r="G4" s="58">
         <f t="shared" ref="G4:G10" si="0">SUM(B4:F4)</f>
         <v>49</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="57" t="s">
         <v>10</v>
       </c>
       <c r="I4"/>
       <c r="J4" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="62">
+      <c r="K4" s="60">
         <f>K2/B18</f>
         <v>0.333333333333333</v>
       </c>
-      <c r="L4" s="62">
+      <c r="L4" s="60">
         <f>L2/C18</f>
         <v>0.420454545454545</v>
       </c>
-      <c r="M4" s="62">
+      <c r="M4" s="60">
         <f>M2/D18</f>
         <v>0.574626865671642</v>
       </c>
-      <c r="N4" s="62">
+      <c r="N4" s="60">
         <f>N2/E18</f>
         <v>0.816666666666667</v>
       </c>
-      <c r="O4" s="59"/>
+      <c r="O4" s="57"/>
     </row>
     <row r="5" ht="20.25" spans="1:15">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="60">
+      <c r="B5" s="58">
         <v>10</v>
       </c>
-      <c r="C5" s="60">
+      <c r="C5" s="58">
         <v>10</v>
       </c>
-      <c r="D5" s="60">
+      <c r="D5" s="58">
         <v>10</v>
       </c>
-      <c r="E5" s="60">
+      <c r="E5" s="58">
         <v>10</v>
       </c>
-      <c r="F5" s="60">
+      <c r="F5" s="58">
         <v>10</v>
       </c>
-      <c r="G5" s="60">
+      <c r="G5" s="58">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H5" s="59"/>
+      <c r="H5" s="57"/>
       <c r="I5"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
     </row>
     <row r="6" ht="20.25" spans="1:15">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="60">
+      <c r="B6" s="58">
         <v>10</v>
       </c>
-      <c r="C6" s="60">
+      <c r="C6" s="58">
         <v>10</v>
       </c>
-      <c r="D6" s="60">
+      <c r="D6" s="58">
         <v>10</v>
       </c>
-      <c r="E6" s="60">
+      <c r="E6" s="58">
         <v>10</v>
       </c>
-      <c r="F6" s="60">
+      <c r="F6" s="58">
         <v>10</v>
       </c>
-      <c r="G6" s="60">
+      <c r="G6" s="58">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H6" s="59"/>
+      <c r="H6" s="57"/>
       <c r="I6"/>
       <c r="J6"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
     </row>
     <row r="7" ht="20.25" spans="1:15">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="60">
+      <c r="B7" s="58">
         <v>10</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="58">
         <v>10</v>
       </c>
-      <c r="D7" s="60">
+      <c r="D7" s="58">
         <v>10</v>
       </c>
-      <c r="E7" s="60">
+      <c r="E7" s="58">
         <v>10</v>
       </c>
-      <c r="F7" s="60">
+      <c r="F7" s="58">
         <v>10</v>
       </c>
-      <c r="G7" s="60">
+      <c r="G7" s="58">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H7" s="59"/>
+      <c r="H7" s="57"/>
       <c r="I7"/>
       <c r="J7"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
     </row>
     <row r="8" ht="20.25" spans="1:15">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="59">
+      <c r="B8" s="57">
         <v>5</v>
       </c>
-      <c r="C8" s="59">
+      <c r="C8" s="57">
         <v>4</v>
       </c>
-      <c r="D8" s="59">
+      <c r="D8" s="57">
         <v>4</v>
       </c>
-      <c r="E8" s="59">
+      <c r="E8" s="57">
         <v>4</v>
       </c>
-      <c r="F8" s="60">
+      <c r="F8" s="58">
         <v>4</v>
       </c>
-      <c r="G8" s="60">
+      <c r="G8" s="58">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H8" s="59" t="s">
+      <c r="H8" s="57" t="s">
         <v>10</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
     </row>
     <row r="9" ht="20.25" spans="1:15">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="59">
+      <c r="B9" s="57">
         <v>4</v>
       </c>
-      <c r="C9" s="59">
+      <c r="C9" s="57">
         <v>4</v>
       </c>
-      <c r="D9" s="59">
+      <c r="D9" s="57">
         <v>4</v>
       </c>
-      <c r="E9" s="59">
+      <c r="E9" s="57">
         <v>4</v>
       </c>
-      <c r="F9" s="60">
+      <c r="F9" s="58">
         <v>4</v>
       </c>
-      <c r="G9" s="60">
+      <c r="G9" s="58">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="57" t="s">
         <v>10</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
     </row>
     <row r="10" ht="20.25" spans="1:15">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="59">
+      <c r="B10" s="57">
         <v>2</v>
       </c>
-      <c r="C10" s="59">
+      <c r="C10" s="57">
         <v>4</v>
       </c>
-      <c r="D10" s="59">
+      <c r="D10" s="57">
         <v>4</v>
       </c>
-      <c r="E10" s="59">
+      <c r="E10" s="57">
         <v>4</v>
       </c>
-      <c r="F10" s="60">
+      <c r="F10" s="58">
         <v>4</v>
       </c>
-      <c r="G10" s="60">
+      <c r="G10" s="58">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H10" s="59" t="s">
+      <c r="H10" s="57" t="s">
         <v>10</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
     </row>
     <row r="11" ht="20.25" spans="1:15">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="59">
+      <c r="B11" s="57">
         <v>2</v>
       </c>
-      <c r="C11" s="59">
+      <c r="C11" s="57">
         <v>4</v>
       </c>
-      <c r="D11" s="59">
+      <c r="D11" s="57">
         <v>4</v>
       </c>
-      <c r="E11" s="59">
+      <c r="E11" s="57">
         <v>4</v>
       </c>
-      <c r="F11" s="60">
+      <c r="F11" s="58">
         <v>4</v>
       </c>
-      <c r="G11" s="60">
+      <c r="G11" s="58">
         <f t="shared" ref="G11:G17" si="1">SUM(B11:F11)</f>
         <v>18</v>
       </c>
-      <c r="H11" s="59" t="s">
+      <c r="H11" s="57" t="s">
         <v>10</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
     </row>
     <row r="12" ht="20.25" spans="1:15">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="60">
+      <c r="B12" s="58">
         <v>4</v>
       </c>
-      <c r="C12" s="60">
+      <c r="C12" s="58">
         <v>4</v>
       </c>
-      <c r="D12" s="60">
+      <c r="D12" s="58">
         <v>4</v>
       </c>
-      <c r="E12" s="60">
+      <c r="E12" s="58">
         <v>4</v>
       </c>
-      <c r="F12" s="60">
+      <c r="F12" s="58">
         <v>4</v>
       </c>
-      <c r="G12" s="60">
+      <c r="G12" s="58">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H12" s="59"/>
+      <c r="H12" s="57"/>
       <c r="I12"/>
       <c r="J12"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="64"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
     </row>
     <row r="13" ht="20.25" spans="1:15">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="60">
+      <c r="B13" s="58">
         <v>4</v>
       </c>
-      <c r="C13" s="60">
+      <c r="C13" s="58">
         <v>4</v>
       </c>
-      <c r="D13" s="60">
+      <c r="D13" s="58">
         <v>4</v>
       </c>
-      <c r="E13" s="60">
+      <c r="E13" s="58">
         <v>4</v>
       </c>
-      <c r="F13" s="60">
+      <c r="F13" s="58">
         <v>4</v>
       </c>
-      <c r="G13" s="60">
+      <c r="G13" s="58">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H13" s="59"/>
+      <c r="H13" s="57"/>
       <c r="I13"/>
       <c r="J13"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="64"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
     </row>
     <row r="14" ht="20.25" spans="1:15">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="60">
+      <c r="B14" s="58">
         <v>4</v>
       </c>
-      <c r="C14" s="60">
+      <c r="C14" s="58">
         <v>4</v>
       </c>
-      <c r="D14" s="60">
+      <c r="D14" s="58">
         <v>4</v>
       </c>
-      <c r="E14" s="60">
+      <c r="E14" s="58">
         <v>4</v>
       </c>
-      <c r="F14" s="60">
+      <c r="F14" s="58">
         <v>4</v>
       </c>
-      <c r="G14" s="60">
+      <c r="G14" s="58">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H14" s="59"/>
+      <c r="H14" s="57"/>
       <c r="I14"/>
       <c r="J14"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
     </row>
     <row r="15" ht="20.25" spans="1:15">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="60">
+      <c r="B15" s="58">
         <v>4</v>
       </c>
-      <c r="C15" s="60">
+      <c r="C15" s="58">
         <v>4</v>
       </c>
-      <c r="D15" s="60">
+      <c r="D15" s="58">
         <v>4</v>
       </c>
-      <c r="E15" s="60">
+      <c r="E15" s="58">
         <v>4</v>
       </c>
-      <c r="F15" s="60">
+      <c r="F15" s="58">
         <v>4</v>
       </c>
-      <c r="G15" s="60">
+      <c r="G15" s="58">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H15" s="59"/>
+      <c r="H15" s="57"/>
       <c r="I15"/>
       <c r="J15"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
     </row>
     <row r="16" ht="20.25" spans="1:15">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="60">
+      <c r="B16" s="58">
         <v>4</v>
       </c>
-      <c r="C16" s="60">
+      <c r="C16" s="58">
         <v>4</v>
       </c>
-      <c r="D16" s="60">
+      <c r="D16" s="58">
         <v>4</v>
       </c>
-      <c r="E16" s="60">
+      <c r="E16" s="58">
         <v>4</v>
       </c>
-      <c r="F16" s="60">
+      <c r="F16" s="58">
         <v>4</v>
       </c>
-      <c r="G16" s="60">
+      <c r="G16" s="58">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H16" s="59"/>
+      <c r="H16" s="57"/>
       <c r="I16"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="64"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
     </row>
     <row r="17" ht="20.25" spans="1:15">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="60">
+      <c r="B17" s="58">
         <v>4</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="58">
         <v>4</v>
       </c>
-      <c r="D17" s="60">
+      <c r="D17" s="58">
         <v>4</v>
       </c>
-      <c r="E17" s="60">
+      <c r="E17" s="58">
         <v>4</v>
       </c>
-      <c r="F17" s="60">
+      <c r="F17" s="58">
         <v>4</v>
       </c>
-      <c r="G17" s="60">
+      <c r="G17" s="58">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H17" s="59"/>
+      <c r="H17" s="57"/>
       <c r="I17"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="64"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
     </row>
     <row r="18" ht="48" customHeight="1" spans="1:15">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="59">
+      <c r="B18" s="57">
         <f>SUM(B2:B4,B8:B11)</f>
         <v>42</v>
       </c>
-      <c r="C18" s="59">
+      <c r="C18" s="57">
         <f>SUM(B2:C4,B8:C11)</f>
         <v>88</v>
       </c>
-      <c r="D18" s="59">
+      <c r="D18" s="57">
         <f>SUM(B2:D4,B8:D11)</f>
         <v>134</v>
       </c>
-      <c r="E18" s="59">
+      <c r="E18" s="57">
         <f>SUM(B2:E4,B8:E11)</f>
         <v>180</v>
       </c>
-      <c r="F18" s="59">
+      <c r="F18" s="57">
         <f>SUM(B2:F4,B8:F11)</f>
         <v>226</v>
       </c>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
       <c r="I18"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="64"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
     </row>
     <row r="19" ht="48" customHeight="1" spans="1:11">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="59">
+      <c r="B19" s="57">
         <f>SUM(B2:B17)</f>
         <v>96</v>
       </c>
-      <c r="C19" s="59">
+      <c r="C19" s="57">
         <f>SUM(B2:C17)</f>
         <v>196</v>
       </c>
-      <c r="D19" s="59">
+      <c r="D19" s="57">
         <f>SUM(B2:D17)</f>
         <v>296</v>
       </c>
-      <c r="E19" s="59">
+      <c r="E19" s="57">
         <f>SUM(B2:E17)</f>
         <v>396</v>
       </c>
-      <c r="F19" s="59">
+      <c r="F19" s="57">
         <f>SUM(B2:F17)</f>
         <v>496</v>
       </c>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
       <c r="I19" s="45"/>
       <c r="J19" s="45"/>
       <c r="K19" s="45"/>
@@ -3174,206 +3192,206 @@
       <c r="B2" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="50" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" ht="93" customHeight="1" spans="1:4">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="50" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" ht="93" customHeight="1" spans="1:4">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="50" t="s">
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="50" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" ht="93" customHeight="1" spans="1:4">
-      <c r="A5" s="52"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="50" t="s">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="50" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" ht="112" customHeight="1" spans="1:4">
-      <c r="A6" s="52"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="50" t="s">
+      <c r="A6" s="51"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="50" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" ht="112" customHeight="1" spans="1:4">
-      <c r="A7" s="52"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="50" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" ht="112" customHeight="1" spans="1:4">
-      <c r="A8" s="52"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="50" t="s">
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="50" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" ht="112" customHeight="1" spans="1:4">
-      <c r="A9" s="52"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="50" t="s">
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="50" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" ht="96" customHeight="1" spans="1:4">
-      <c r="A10" s="53"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="50" t="s">
+      <c r="A10" s="52"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="50" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" ht="63" customHeight="1" spans="1:4">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="50" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="12" ht="52" customHeight="1" spans="1:4">
-      <c r="A12" s="57"/>
-      <c r="B12" s="55" t="s">
+      <c r="A12" s="55"/>
+      <c r="B12" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="50" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" ht="44" customHeight="1" spans="1:4">
-      <c r="A13" s="57"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="56" t="s">
+      <c r="A13" s="55"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="51"/>
+      <c r="D13" s="50"/>
     </row>
     <row r="14" ht="75" customHeight="1" spans="1:4">
-      <c r="A14" s="57"/>
-      <c r="B14" s="54" t="s">
+      <c r="A14" s="55"/>
+      <c r="B14" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="51"/>
+      <c r="D14" s="50"/>
     </row>
     <row r="15" ht="80" customHeight="1" spans="1:4">
-      <c r="A15" s="58"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="56" t="s">
+      <c r="A15" s="56"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="51"/>
+      <c r="D15" s="50"/>
     </row>
     <row r="16" ht="72" customHeight="1" spans="1:4">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="51" t="s">
+      <c r="C16" s="54"/>
+      <c r="D16" s="50" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" ht="111" customHeight="1" spans="1:4">
-      <c r="A17" s="57"/>
-      <c r="B17" s="55" t="s">
+      <c r="A17" s="55"/>
+      <c r="B17" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="51"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="50"/>
     </row>
     <row r="18" ht="54" customHeight="1" spans="1:4">
-      <c r="A18" s="57"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="51"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="50"/>
     </row>
     <row r="19" ht="72" customHeight="1" spans="1:4">
-      <c r="A19" s="57"/>
-      <c r="B19" s="54" t="s">
+      <c r="A19" s="55"/>
+      <c r="B19" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="51"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="50"/>
     </row>
     <row r="20" ht="72" customHeight="1" spans="1:4">
-      <c r="A20" s="58"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="51"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="50"/>
     </row>
     <row r="21" ht="20.25" spans="1:4">
-      <c r="A21" s="56"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="51"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="50"/>
     </row>
     <row r="22" ht="20.25" spans="1:4">
-      <c r="A22" s="56"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="51"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="50"/>
     </row>
     <row r="23" ht="20.25" spans="1:4">
-      <c r="A23" s="56"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="51"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3397,7 +3415,7 @@
   <sheetPr/>
   <dimension ref="A1:R250"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
@@ -7222,7 +7240,7 @@
   <sheetPr/>
   <dimension ref="A1:AF47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="I1" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
